--- a/QuantLibXL/Data2/XLS/GBP_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YC1MBootstrapping.xlsx
@@ -991,7 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,6 +1784,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1807,13 +1814,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2131,39 +2131,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="168" customWidth="1"/>
-    <col min="3" max="3" width="18" style="168" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="168" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="168" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="168" customWidth="1"/>
-    <col min="8" max="9" width="8" style="168"/>
-    <col min="10" max="11" width="2.7109375" style="168" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="168" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="168" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="168" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="168"/>
+    <col min="1" max="2" width="2.7109375" style="171" customWidth="1"/>
+    <col min="3" max="3" width="18" style="171" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="171" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="171" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="171" customWidth="1"/>
+    <col min="8" max="9" width="8" style="171"/>
+    <col min="10" max="11" width="2.7109375" style="171" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="171" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="171" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="171" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="171"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="168" t="str">
+      <c r="B1" s="171" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="163" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="178"/>
-      <c r="K2" s="176" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
+      <c r="K2" s="163" t="s">
         <v>160</v>
       </c>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2186,10 +2186,10 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="171" t="s">
+      <c r="H4" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="172"/>
+      <c r="I4" s="175"/>
       <c r="K4" s="126"/>
       <c r="L4" s="125" t="s">
         <v>159</v>
@@ -2209,10 +2209,10 @@
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="169" t="s">
+      <c r="H5" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="170" t="s">
+      <c r="I5" s="173" t="s">
         <v>111</v>
       </c>
       <c r="K5" s="126"/>
@@ -2236,10 +2236,10 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="169" t="s">
+      <c r="H6" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="170" t="s">
+      <c r="I6" s="173" t="s">
         <v>108</v>
       </c>
       <c r="K6" s="126"/>
@@ -2262,10 +2262,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="169" t="s">
+      <c r="H7" s="172" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="170"/>
+      <c r="I7" s="173"/>
       <c r="K7" s="123"/>
       <c r="L7" s="122"/>
       <c r="M7" s="122"/>
@@ -2282,16 +2282,16 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="173" t="s">
+      <c r="H8" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="174" t="s">
+      <c r="I8" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="178"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
@@ -2304,12 +2304,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="176" t="s">
+      <c r="K9" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="L9" s="177"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="177"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2332,7 +2332,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="86">
-        <v>41653.039467592593</v>
+        <v>41654.195347222223</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYC1M#0006</v>
+        <v>_GBPYC1M#0001</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2566,7 +2566,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="D27" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="D28" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.15323860204936665</v>
+        <v>0.15325245506883109</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2674,11 +2674,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
       <c r="E1" s="31" t="s">
         <v>74</v>
       </c>
@@ -2847,11 +2847,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2886,11 +2886,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2925,11 +2925,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -2964,11 +2964,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -5768,11 +5768,11 @@
       </c>
       <c r="K78" s="18">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L78" s="17">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="M78" s="22"/>
     </row>
@@ -5807,11 +5807,11 @@
       </c>
       <c r="K79" s="11">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L79" s="10">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="M79" s="25"/>
     </row>
@@ -5846,11 +5846,11 @@
       </c>
       <c r="K80" s="11">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L80" s="10">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="K81" s="11">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L81" s="10">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
@@ -5922,11 +5922,11 @@
       </c>
       <c r="K82" s="11">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L82" s="10">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>41834</v>
+        <v>41835</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
@@ -5960,11 +5960,11 @@
       </c>
       <c r="K83" s="11">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L83" s="10">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>41865</v>
+        <v>41866</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="K84" s="11">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L84" s="10">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
@@ -6036,11 +6036,11 @@
       </c>
       <c r="K85" s="11">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L85" s="10">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
@@ -6074,11 +6074,11 @@
       </c>
       <c r="K86" s="11">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L86" s="10">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>41957</v>
+        <v>41960</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="K87" s="11">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L87" s="10">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
@@ -6150,11 +6150,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>42018</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
@@ -8160,11 +8160,11 @@
       </c>
       <c r="K133" s="18">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L133" s="17">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>42018</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
@@ -8328,11 +8328,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42383</v>
+        <v>42384</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
@@ -8454,11 +8454,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>43479</v>
+        <v>43480</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8496,11 +8496,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>43844</v>
+        <v>43845</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8538,11 +8538,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>44210</v>
+        <v>44211</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8580,11 +8580,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>44575</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
@@ -8706,11 +8706,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>45671</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8748,11 +8748,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>46036</v>
+        <v>46037</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8790,11 +8790,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>46401</v>
+        <v>46402</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8832,11 +8832,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>46766</v>
+        <v>46769</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
@@ -8916,11 +8916,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>47497</v>
+        <v>47498</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8958,11 +8958,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>47862</v>
+        <v>47863</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9000,11 +9000,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>48227</v>
+        <v>48228</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9042,11 +9042,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>48593</v>
+        <v>48596</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
@@ -9168,11 +9168,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>49688</v>
+        <v>49689</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9210,11 +9210,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>50054</v>
+        <v>50055</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9252,11 +9252,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>50419</v>
+        <v>50420</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9294,11 +9294,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>50784</v>
+        <v>50787</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
@@ -9378,11 +9378,11 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>51515</v>
+        <v>51516</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9420,11 +9420,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>51880</v>
+        <v>51881</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9462,11 +9462,11 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>52245</v>
+        <v>52246</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9504,11 +9504,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>52610</v>
+        <v>52611</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9546,11 +9546,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>54437</v>
+        <v>54438</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9588,11 +9588,11 @@
       </c>
       <c r="K167" s="11">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L167" s="10">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>56263</v>
+        <v>56264</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9630,11 +9630,11 @@
       </c>
       <c r="K168" s="11">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L168" s="10">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>59915</v>
+        <v>59916</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9672,7 +9672,7 @@
       </c>
       <c r="K169" s="4">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="L169" s="3">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
@@ -9715,10 +9715,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="170"/>
       <c r="D1" s="53" t="s">
         <v>83</v>
       </c>
@@ -9758,14 +9758,14 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41684</v>
+        <v>41687</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99958129319704259</v>
+        <v>0.99955429189498168</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>117</v>
@@ -9794,14 +9794,14 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41712</v>
+        <v>41715</v>
       </c>
       <c r="I3" s="34">
-        <v>0.99920857205977409</v>
+        <v>0.9991817659456409</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>118</v>
@@ -9830,11 +9830,11 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41743</v>
+        <v>41744</v>
       </c>
       <c r="I4" s="34">
         <v>0.99880553803465177</v>
@@ -9866,11 +9866,11 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="I5" s="34">
         <v>0.99842440422784884</v>
@@ -9903,14 +9903,14 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
         <v>41806</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99801286069449413</v>
+        <v>0.99802582289279851</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>121</v>
@@ -9922,7 +9922,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_RateHelpersSelected#0006</v>
+        <v>GBP_YC1MRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9941,14 +9941,14 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41834</v>
+        <v>41835</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99767473452968669</v>
+        <v>0.99767473452968658</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>122</v>
@@ -9971,14 +9971,14 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41865</v>
+        <v>41866</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99730645287330832</v>
+        <v>0.99730645287330821</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>123</v>
@@ -10001,14 +10001,14 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
         <v>41897</v>
       </c>
       <c r="I9" s="34">
-        <v>0.99690113963556948</v>
+        <v>0.99691380068746649</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>124</v>
@@ -10031,14 +10031,14 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41926</v>
+        <v>41927</v>
       </c>
       <c r="I10" s="34">
-        <v>0.99657124883756099</v>
+        <v>0.9965712488375611</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>125</v>
@@ -10061,14 +10061,14 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41957</v>
+        <v>41960</v>
       </c>
       <c r="I11" s="34">
-        <v>0.99618338944716467</v>
+        <v>0.99615837662761941</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>126</v>
@@ -10091,14 +10091,14 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
         <v>41988</v>
       </c>
       <c r="I12" s="34">
-        <v>0.99579583184424625</v>
+        <v>0.99580832899547223</v>
       </c>
       <c r="K12" s="32" t="s">
         <v>127</v>
@@ -10121,14 +10121,14 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42018</v>
+        <v>42019</v>
       </c>
       <c r="I13" s="34">
-        <v>0.99542106310975942</v>
+        <v>0.99542106310976641</v>
       </c>
       <c r="K13" s="32" t="s">
         <v>128</v>
@@ -10151,14 +10151,14 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42383</v>
+        <v>42384</v>
       </c>
       <c r="I14" s="34">
-        <v>0.99061571594259346</v>
+        <v>0.9906157153118671</v>
       </c>
       <c r="K14" s="32" t="s">
         <v>129</v>
@@ -10181,14 +10181,14 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
         <v>42751</v>
       </c>
       <c r="I15" s="34">
-        <v>0.98398383609166185</v>
+        <v>0.98399827889294866</v>
       </c>
       <c r="K15" s="32" t="s">
         <v>130</v>
@@ -10211,14 +10211,14 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
         <v>43115</v>
       </c>
       <c r="I16" s="34">
-        <v>0.97430004459355013</v>
+        <v>0.97431737306403832</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>131</v>
@@ -10241,14 +10241,14 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43479</v>
+        <v>43480</v>
       </c>
       <c r="I17" s="34">
-        <v>0.96067733853656545</v>
+        <v>0.96067752375985027</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>132</v>
@@ -10271,14 +10271,14 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="I18" s="34">
-        <v>0.94313017472530081</v>
+        <v>0.94313039651156205</v>
       </c>
       <c r="K18" s="32" t="s">
         <v>133</v>
@@ -10301,14 +10301,14 @@
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="I19" s="34">
-        <v>0.92137941229776987</v>
+        <v>0.9213797354064599</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>134</v>
@@ -10331,14 +10331,14 @@
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44575</v>
+        <v>44578</v>
       </c>
       <c r="I20" s="34">
-        <v>0.89650277403054812</v>
+        <v>0.89643727411783891</v>
       </c>
       <c r="K20" s="32" t="s">
         <v>135</v>
@@ -10361,14 +10361,14 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
         <v>44942</v>
       </c>
       <c r="I21" s="34">
-        <v>0.8694333151668201</v>
+        <v>0.86946852847425926</v>
       </c>
       <c r="K21" s="32" t="s">
         <v>136</v>
@@ -10391,14 +10391,14 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
         <v>45306</v>
       </c>
       <c r="I22" s="34">
-        <v>0.84078056561895442</v>
+        <v>0.84081909735660032</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>137</v>
@@ -10421,14 +10421,14 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="I23" s="34">
-        <v>0.78325511554339855</v>
+        <v>0.78325583715116742</v>
       </c>
       <c r="K23" s="32" t="s">
         <v>138</v>
@@ -10451,14 +10451,14 @@
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
         <v>47133</v>
       </c>
       <c r="I24" s="34">
-        <v>0.70082666067980326</v>
+        <v>0.70087096264745041</v>
       </c>
       <c r="K24" s="32" t="s">
         <v>139</v>
@@ -10481,14 +10481,14 @@
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
         <v>48960</v>
       </c>
       <c r="I25" s="34">
-        <v>0.57891180693106847</v>
+        <v>0.5789575332618847</v>
       </c>
       <c r="K25" s="32" t="s">
         <v>140</v>
@@ -10511,14 +10511,14 @@
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50784</v>
+        <v>50787</v>
       </c>
       <c r="I26" s="34">
-        <v>0.48004792519704853</v>
+        <v>0.47998167213474474</v>
       </c>
       <c r="K26" s="32" t="s">
         <v>141</v>
@@ -10541,14 +10541,14 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52610</v>
+        <v>52611</v>
       </c>
       <c r="I27" s="34">
-        <v>0.40437059165563294</v>
+        <v>0.40437289311476604</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>142</v>
@@ -10571,14 +10571,14 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56263</v>
+        <v>56264</v>
       </c>
       <c r="I28" s="34">
-        <v>0.28908179031549674</v>
+        <v>0.28908460883605086</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>143</v>
@@ -10601,14 +10601,14 @@
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>59915</v>
+        <v>59916</v>
       </c>
       <c r="I29" s="34">
-        <v>0.21293523826084862</v>
+        <v>0.21293710914001673</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>144</v>
@@ -10631,14 +10631,14 @@
       </c>
       <c r="G30" s="40">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
         <v>63569</v>
       </c>
       <c r="I30" s="34">
-        <v>0.15323860204936665</v>
+        <v>0.15325245506883109</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>145</v>
@@ -13048,7 +13048,7 @@
       </c>
       <c r="F3" s="99" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SWD#0008</v>
+        <v>GBP_YC1MRH_SWD#0002</v>
       </c>
       <c r="G3" s="98" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13057,7 +13057,7 @@
       <c r="H3" s="97"/>
       <c r="J3" s="96">
         <f>_xll.qlRateHelperEarliestDate(F3)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -13079,7 +13079,7 @@
       </c>
       <c r="F4" s="99" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_2WD#0009</v>
+        <v>GBP_YC1MRH_2WD#0002</v>
       </c>
       <c r="G4" s="98" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13088,7 +13088,7 @@
       <c r="H4" s="97"/>
       <c r="J4" s="96">
         <f>_xll.qlRateHelperEarliestDate(F4)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="F5" s="99" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_3WD#0007</v>
+        <v>GBP_YC1MRH_3WD#0002</v>
       </c>
       <c r="G5" s="98" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13119,7 +13119,7 @@
       <c r="H5" s="97"/>
       <c r="J5" s="96">
         <f>_xll.qlRateHelperEarliestDate(F5)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="F6" s="99" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_1MD#0007</v>
+        <v>GBP_YC1MRH_1MD#0002</v>
       </c>
       <c r="G6" s="98" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13150,7 +13150,7 @@
       <c r="H6" s="97"/>
       <c r="J6" s="96">
         <f>_xll.qlRateHelperEarliestDate(F6)</f>
-        <v>41653</v>
+        <v>41654</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="L4" s="144" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>GBP_YC1MRH_xX1S_Libor1M#0007</v>
+        <v>GBP_YC1MRH_xX1S_Libor1M#0002</v>
       </c>
       <c r="M4" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -13354,7 +13354,7 @@
       </c>
       <c r="L6" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_2X1S#0007</v>
+        <v>GBP_YC1MRH_2X1S#0002</v>
       </c>
       <c r="M6" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="L7" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_3X1S#0007</v>
+        <v>GBP_YC1MRH_3X1S#0002</v>
       </c>
       <c r="M7" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -13444,7 +13444,7 @@
       </c>
       <c r="L8" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_4X1S#0007</v>
+        <v>GBP_YC1MRH_4X1S#0002</v>
       </c>
       <c r="M8" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -13489,7 +13489,7 @@
       </c>
       <c r="L9" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_5X1S#0007</v>
+        <v>GBP_YC1MRH_5X1S#0002</v>
       </c>
       <c r="M9" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -13534,7 +13534,7 @@
       </c>
       <c r="L10" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_6X1S#0007</v>
+        <v>GBP_YC1MRH_6X1S#0002</v>
       </c>
       <c r="M10" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -13579,7 +13579,7 @@
       </c>
       <c r="L11" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_7X1S#0007</v>
+        <v>GBP_YC1MRH_7X1S#0002</v>
       </c>
       <c r="M11" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -13624,7 +13624,7 @@
       </c>
       <c r="L12" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_8X1S#0007</v>
+        <v>GBP_YC1MRH_8X1S#0002</v>
       </c>
       <c r="M12" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -13669,7 +13669,7 @@
       </c>
       <c r="L13" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_9X1S#0007</v>
+        <v>GBP_YC1MRH_9X1S#0002</v>
       </c>
       <c r="M13" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -13714,7 +13714,7 @@
       </c>
       <c r="L14" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_10X1S#0007</v>
+        <v>GBP_YC1MRH_10X1S#0002</v>
       </c>
       <c r="M14" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -13759,7 +13759,7 @@
       </c>
       <c r="L15" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_11X1S#0007</v>
+        <v>GBP_YC1MRH_11X1S#0002</v>
       </c>
       <c r="M15" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="L16" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_12X1S#0007</v>
+        <v>GBP_YC1MRH_12X1S#0002</v>
       </c>
       <c r="M16" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="L4" s="144" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>GBP_YC1MRH_SB1LBASIS_Libor1M#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS_Libor1M#0002</v>
       </c>
       <c r="M4" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -14051,7 +14051,7 @@
       </c>
       <c r="L6" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS1Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS1Y#0002</v>
       </c>
       <c r="M6" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="L7" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS2Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS2Y#0002</v>
       </c>
       <c r="M7" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="L8" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS3Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS3Y#0002</v>
       </c>
       <c r="M8" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="L9" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS4Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS4Y#0002</v>
       </c>
       <c r="M9" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -14278,7 +14278,7 @@
       </c>
       <c r="L10" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS5Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS5Y#0002</v>
       </c>
       <c r="M10" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -14337,7 +14337,7 @@
       </c>
       <c r="L11" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS6Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS6Y#0002</v>
       </c>
       <c r="M11" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -14396,7 +14396,7 @@
       </c>
       <c r="L12" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS7Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS7Y#0002</v>
       </c>
       <c r="M12" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -14449,7 +14449,7 @@
       </c>
       <c r="L13" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS8Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS8Y#0002</v>
       </c>
       <c r="M13" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -14499,7 +14499,7 @@
       </c>
       <c r="L14" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS9Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS9Y#0002</v>
       </c>
       <c r="M14" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="L15" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS10Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS10Y#0002</v>
       </c>
       <c r="M15" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -14599,7 +14599,7 @@
       </c>
       <c r="L16" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS11Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS11Y#0002</v>
       </c>
       <c r="M16" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="L17" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS12Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS12Y#0002</v>
       </c>
       <c r="M17" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="L18" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS13Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS13Y#0002</v>
       </c>
       <c r="M18" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -14749,7 +14749,7 @@
       </c>
       <c r="L19" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS14Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS14Y#0002</v>
       </c>
       <c r="M19" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="L20" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS15Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS15Y#0002</v>
       </c>
       <c r="M20" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -14849,7 +14849,7 @@
       </c>
       <c r="L21" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS16Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS16Y#0002</v>
       </c>
       <c r="M21" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -14899,7 +14899,7 @@
       </c>
       <c r="L22" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS17Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS17Y#0002</v>
       </c>
       <c r="M22" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -14949,7 +14949,7 @@
       </c>
       <c r="L23" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS18Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS18Y#0002</v>
       </c>
       <c r="M23" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="L24" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS19Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS19Y#0002</v>
       </c>
       <c r="M24" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="L25" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS20Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS20Y#0002</v>
       </c>
       <c r="M25" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -15099,7 +15099,7 @@
       </c>
       <c r="L26" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS21Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS21Y#0002</v>
       </c>
       <c r="M26" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -15149,7 +15149,7 @@
       </c>
       <c r="L27" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS22Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS22Y#0002</v>
       </c>
       <c r="M27" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15199,7 +15199,7 @@
       </c>
       <c r="L28" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS23Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS23Y#0002</v>
       </c>
       <c r="M28" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -15249,7 +15249,7 @@
       </c>
       <c r="L29" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS24Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS24Y#0002</v>
       </c>
       <c r="M29" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -15299,7 +15299,7 @@
       </c>
       <c r="L30" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS25Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS25Y#0002</v>
       </c>
       <c r="M30" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -15349,7 +15349,7 @@
       </c>
       <c r="L31" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS26Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS26Y#0002</v>
       </c>
       <c r="M31" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -15399,7 +15399,7 @@
       </c>
       <c r="L32" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS27Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS27Y#0002</v>
       </c>
       <c r="M32" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -15449,7 +15449,7 @@
       </c>
       <c r="L33" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS28Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS28Y#0002</v>
       </c>
       <c r="M33" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -15499,7 +15499,7 @@
       </c>
       <c r="L34" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS29Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS29Y#0002</v>
       </c>
       <c r="M34" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="L35" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS30Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS30Y#0002</v>
       </c>
       <c r="M35" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="L36" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS35Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS35Y#0002</v>
       </c>
       <c r="M36" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -15649,7 +15649,7 @@
       </c>
       <c r="L37" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS40Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS40Y#0002</v>
       </c>
       <c r="M37" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -15699,7 +15699,7 @@
       </c>
       <c r="L38" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS50Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS50Y#0002</v>
       </c>
       <c r="M38" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -15749,7 +15749,7 @@
       </c>
       <c r="L39" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS60Y#0007</v>
+        <v>GBP_YC1MRH_SB1LBASIS60Y#0002</v>
       </c>
       <c r="M39" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YC1MBootstrapping.xlsx
@@ -934,7 +934,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,6 +992,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,7 +1442,7 @@
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1784,6 +1790,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1806,14 +1814,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -2131,39 +2140,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="171" customWidth="1"/>
-    <col min="3" max="3" width="18" style="171" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="171" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="171" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="171" customWidth="1"/>
-    <col min="8" max="9" width="8" style="171"/>
-    <col min="10" max="11" width="2.7109375" style="171" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="171" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="171" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="171" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="171"/>
+    <col min="1" max="2" width="2.7109375" style="163" customWidth="1"/>
+    <col min="3" max="3" width="18" style="163" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="163" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="163" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="163" customWidth="1"/>
+    <col min="8" max="8" width="4" style="163" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="163" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="163" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="163" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="163" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="163" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="163"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="171" t="str">
+      <c r="B1" s="163" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Dec  5 2013 11:03:51</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="165" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
-      <c r="K2" s="163" t="s">
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="167"/>
+      <c r="K2" s="165" t="s">
         <v>160</v>
       </c>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="179"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="61"/>
@@ -2186,10 +2196,10 @@
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="174" t="s">
+      <c r="H4" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="175"/>
+      <c r="I4" s="174"/>
       <c r="K4" s="126"/>
       <c r="L4" s="125" t="s">
         <v>159</v>
@@ -2209,10 +2219,10 @@
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="172" t="s">
+      <c r="H5" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="173" t="s">
+      <c r="I5" s="176" t="s">
         <v>111</v>
       </c>
       <c r="K5" s="126"/>
@@ -2221,7 +2231,7 @@
       </c>
       <c r="M5" s="127" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data2\XML\</v>
+        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
       </c>
       <c r="N5" s="124"/>
     </row>
@@ -2236,10 +2246,10 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="172" t="s">
+      <c r="H6" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="173" t="s">
+      <c r="I6" s="176" t="s">
         <v>108</v>
       </c>
       <c r="K6" s="126"/>
@@ -2262,10 +2272,10 @@
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="172" t="s">
+      <c r="H7" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="173"/>
+      <c r="I7" s="176"/>
       <c r="K7" s="123"/>
       <c r="L7" s="122"/>
       <c r="M7" s="122"/>
@@ -2282,16 +2292,16 @@
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="176" t="s">
+      <c r="H8" s="177" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="177" t="s">
+      <c r="I8" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="178"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="164"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="164"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="61"/>
@@ -2304,12 +2314,12 @@
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="163" t="s">
+      <c r="K9" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="179"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
@@ -2332,7 +2342,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="86">
-        <v>41654.195347222223</v>
+        <v>41684.586331018516</v>
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
@@ -2386,7 +2396,7 @@
       </c>
       <c r="D14" s="83" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYC1M#0001</v>
+        <v>_GBPYC1M#0000</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
@@ -2566,7 +2576,7 @@
       <c r="B27" s="61"/>
       <c r="C27" s="65">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="D27" s="64">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2579,11 +2589,11 @@
       <c r="B28" s="61"/>
       <c r="C28" s="63">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63569</v>
+        <v>63599</v>
       </c>
       <c r="D28" s="62">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.15325245506883109</v>
+        <v>0.15325221803695155</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
@@ -2674,11 +2684,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="168"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="170"/>
       <c r="E1" s="31" t="s">
         <v>74</v>
       </c>
@@ -2847,11 +2857,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41661</v>
+        <v>41691</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2886,11 +2896,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41668</v>
+        <v>41698</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2925,11 +2935,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41675</v>
+        <v>41705</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -2964,11 +2974,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41687</v>
+        <v>41712</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3982,11 +3992,11 @@
       </c>
       <c r="D36" s="14" t="str">
         <f t="array" ref="D36:D77">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A36:$A77)</f>
-        <v>F4</v>
+        <v>G4</v>
       </c>
       <c r="E36" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MF4</v>
+        <v>GBP_YC1MRH_FUT1MG4</v>
       </c>
       <c r="F36" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4024,11 +4034,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D37" s="14" t="str">
-        <v>G4</v>
+        <v>H4</v>
       </c>
       <c r="E37" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MG4</v>
+        <v>GBP_YC1MRH_FUT1MH4</v>
       </c>
       <c r="F37" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4066,11 +4076,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D38" s="14" t="str">
-        <v>H4</v>
+        <v>J4</v>
       </c>
       <c r="E38" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MH4</v>
+        <v>GBP_YC1MRH_FUT1MJ4</v>
       </c>
       <c r="F38" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4108,11 +4118,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D39" s="14" t="str">
-        <v>J4</v>
+        <v>K4</v>
       </c>
       <c r="E39" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MJ4</v>
+        <v>GBP_YC1MRH_FUT1MK4</v>
       </c>
       <c r="F39" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4150,11 +4160,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D40" s="14" t="str">
-        <v>K4</v>
+        <v>M4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MK4</v>
+        <v>GBP_YC1MRH_FUT1MM4</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4192,11 +4202,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MM4</v>
+        <v>GBP_YC1MRH_FUT1MN4</v>
       </c>
       <c r="F41" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4234,11 +4244,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MN4</v>
+        <v>GBP_YC1MRH_FUT1MQ4</v>
       </c>
       <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4276,11 +4286,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MQ4</v>
+        <v>GBP_YC1MRH_FUT1MU4</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4318,11 +4328,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MU4</v>
+        <v>GBP_YC1MRH_FUT1MV4</v>
       </c>
       <c r="F44" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4360,11 +4370,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E45" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MV4</v>
+        <v>GBP_YC1MRH_FUT1MX4</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4402,11 +4412,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D46" s="14" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E46" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MX4</v>
+        <v>GBP_YC1MRH_FUT1MZ4</v>
       </c>
       <c r="F46" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4444,11 +4454,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D47" s="14" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E47" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MZ4</v>
+        <v>GBP_YC1MRH_FUT1MF5</v>
       </c>
       <c r="F47" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -5768,11 +5778,11 @@
       </c>
       <c r="K78" s="18">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L78" s="17">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>41715</v>
+        <v>41743</v>
       </c>
       <c r="M78" s="22"/>
     </row>
@@ -5807,11 +5817,11 @@
       </c>
       <c r="K79" s="11">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L79" s="10">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>41744</v>
+        <v>41773</v>
       </c>
       <c r="M79" s="25"/>
     </row>
@@ -5846,11 +5856,11 @@
       </c>
       <c r="K80" s="11">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L80" s="10">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>41774</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
@@ -5884,11 +5894,11 @@
       </c>
       <c r="K81" s="11">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L81" s="10">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>41806</v>
+        <v>41834</v>
       </c>
     </row>
     <row r="82" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5922,11 +5932,11 @@
       </c>
       <c r="K82" s="11">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L82" s="10">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>41835</v>
+        <v>41865</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
@@ -5960,11 +5970,11 @@
       </c>
       <c r="K83" s="11">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L83" s="10">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>41866</v>
+        <v>41897</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -5998,11 +6008,11 @@
       </c>
       <c r="K84" s="11">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L84" s="10">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>41897</v>
+        <v>41926</v>
       </c>
     </row>
     <row r="85" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6036,11 +6046,11 @@
       </c>
       <c r="K85" s="11">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L85" s="10">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>41927</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
@@ -6074,11 +6084,11 @@
       </c>
       <c r="K86" s="11">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L86" s="10">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>41960</v>
+        <v>41988</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
@@ -6112,11 +6122,11 @@
       </c>
       <c r="K87" s="11">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L87" s="10">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>41988</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
@@ -6150,11 +6160,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>42019</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
@@ -8160,11 +8170,11 @@
       </c>
       <c r="K133" s="18">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L133" s="17">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>42019</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
@@ -8328,11 +8338,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42384</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8370,11 +8380,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42751</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8412,11 +8422,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>43115</v>
+        <v>43145</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8454,11 +8464,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>43480</v>
+        <v>43510</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8496,11 +8506,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>43845</v>
+        <v>43875</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8538,11 +8548,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>44211</v>
+        <v>44242</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8580,11 +8590,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>44578</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8622,11 +8632,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>44942</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8664,11 +8674,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>45306</v>
+        <v>45336</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8706,11 +8716,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>45672</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8748,11 +8758,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>46037</v>
+        <v>46069</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8790,11 +8800,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>46402</v>
+        <v>46433</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8832,11 +8842,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>46769</v>
+        <v>46797</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8874,11 +8884,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>47133</v>
+        <v>47163</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8916,11 +8926,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>47498</v>
+        <v>47528</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8958,11 +8968,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>47863</v>
+        <v>47893</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -9000,11 +9010,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>48228</v>
+        <v>48260</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9042,11 +9052,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>48596</v>
+        <v>48624</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9084,11 +9094,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>48960</v>
+        <v>48989</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9126,11 +9136,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>49324</v>
+        <v>49354</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9168,11 +9178,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>49689</v>
+        <v>49719</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9210,11 +9220,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>50055</v>
+        <v>50087</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9252,11 +9262,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>50420</v>
+        <v>50451</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9294,11 +9304,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>50787</v>
+        <v>50815</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9336,11 +9346,11 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>51151</v>
+        <v>51180</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9378,11 +9388,11 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>51516</v>
+        <v>51546</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9420,11 +9430,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>51881</v>
+        <v>51911</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9462,11 +9472,11 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>52246</v>
+        <v>52278</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9504,11 +9514,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>52611</v>
+        <v>52642</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9546,11 +9556,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>54438</v>
+        <v>54469</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9588,11 +9598,11 @@
       </c>
       <c r="K167" s="11">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L167" s="10">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>56264</v>
+        <v>56296</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9630,11 +9640,11 @@
       </c>
       <c r="K168" s="11">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L168" s="10">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>59916</v>
+        <v>59946</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9672,11 +9682,11 @@
       </c>
       <c r="K169" s="4">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="L169" s="3">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
-        <v>63569</v>
+        <v>63599</v>
       </c>
     </row>
   </sheetData>
@@ -9715,10 +9725,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="170"/>
+      <c r="B1" s="172"/>
       <c r="D1" s="53" t="s">
         <v>83</v>
       </c>
@@ -9758,14 +9768,14 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41687</v>
+        <v>41712</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99955429189498168</v>
+        <v>0.99962179788547734</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>117</v>
@@ -9794,14 +9804,14 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41715</v>
+        <v>41743</v>
       </c>
       <c r="I3" s="34">
-        <v>0.9991817659456409</v>
+        <v>0.99920857205977387</v>
       </c>
       <c r="K3" s="32" t="s">
         <v>118</v>
@@ -9830,14 +9840,14 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41744</v>
+        <v>41773</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99880553803465177</v>
+        <v>0.99881879415753927</v>
       </c>
       <c r="K4" s="32" t="s">
         <v>119</v>
@@ -9866,14 +9876,14 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41774</v>
+        <v>41806</v>
       </c>
       <c r="I5" s="34">
-        <v>0.99842440422784884</v>
+        <v>0.99839818636182598</v>
       </c>
       <c r="K5" s="32" t="s">
         <v>120</v>
@@ -9903,14 +9913,14 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41806</v>
+        <v>41834</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99802582289279851</v>
+        <v>0.99805174829955234</v>
       </c>
       <c r="K6" s="32" t="s">
         <v>121</v>
@@ -9922,7 +9932,7 @@
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_RateHelpersSelected#0001</v>
+        <v>GBP_YC1MRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9941,14 +9951,14 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41835</v>
+        <v>41865</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99767473452968658</v>
+        <v>0.99767473452968647</v>
       </c>
       <c r="K7" s="32" t="s">
         <v>122</v>
@@ -9971,14 +9981,14 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41866</v>
+        <v>41897</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99730645287330821</v>
+        <v>0.99729378184594708</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>123</v>
@@ -10001,14 +10011,14 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41897</v>
+        <v>41926</v>
       </c>
       <c r="I9" s="34">
-        <v>0.99691380068746649</v>
+        <v>0.99692646206096569</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>124</v>
@@ -10031,14 +10041,14 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41927</v>
+        <v>41957</v>
       </c>
       <c r="I10" s="34">
-        <v>0.9965712488375611</v>
+        <v>0.99657124883756099</v>
       </c>
       <c r="K10" s="32" t="s">
         <v>125</v>
@@ -10061,14 +10071,14 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41960</v>
+        <v>41988</v>
       </c>
       <c r="I11" s="34">
-        <v>0.99615837662761941</v>
+        <v>0.99618338944716467</v>
       </c>
       <c r="K11" s="32" t="s">
         <v>126</v>
@@ -10091,14 +10101,14 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>41988</v>
+        <v>42018</v>
       </c>
       <c r="I12" s="34">
-        <v>0.99580832899547223</v>
+        <v>0.99580832899548222</v>
       </c>
       <c r="K12" s="32" t="s">
         <v>127</v>
@@ -10121,14 +10131,14 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42019</v>
+        <v>42051</v>
       </c>
       <c r="I13" s="34">
-        <v>0.99542106310976641</v>
+        <v>0.99539608855706752</v>
       </c>
       <c r="K13" s="32" t="s">
         <v>128</v>
@@ -10151,14 +10161,14 @@
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42384</v>
+        <v>42415</v>
       </c>
       <c r="I14" s="34">
-        <v>0.9906157153118671</v>
+        <v>0.99060293112906805</v>
       </c>
       <c r="K14" s="32" t="s">
         <v>129</v>
@@ -10181,14 +10191,14 @@
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42751</v>
+        <v>42780</v>
       </c>
       <c r="I15" s="34">
-        <v>0.98399827889294866</v>
+        <v>0.9840127016849104</v>
       </c>
       <c r="K15" s="32" t="s">
         <v>130</v>
@@ -10211,14 +10221,14 @@
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43115</v>
+        <v>43145</v>
       </c>
       <c r="I16" s="34">
-        <v>0.97431737306403832</v>
+        <v>0.97431742916814601</v>
       </c>
       <c r="K16" s="32" t="s">
         <v>131</v>
@@ -10241,14 +10251,14 @@
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43480</v>
+        <v>43510</v>
       </c>
       <c r="I17" s="34">
-        <v>0.96067752375985027</v>
+        <v>0.96067759652302809</v>
       </c>
       <c r="K17" s="32" t="s">
         <v>132</v>
@@ -10271,14 +10281,14 @@
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43845</v>
+        <v>43875</v>
       </c>
       <c r="I18" s="34">
-        <v>0.94313039651156205</v>
+        <v>0.94313051417056137</v>
       </c>
       <c r="K18" s="32" t="s">
         <v>133</v>
@@ -10301,14 +10311,14 @@
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44211</v>
+        <v>44242</v>
       </c>
       <c r="I19" s="34">
-        <v>0.9213797354064599</v>
+        <v>0.92135069302834982</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>134</v>
@@ -10331,14 +10341,14 @@
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44578</v>
+        <v>44606</v>
       </c>
       <c r="I20" s="34">
-        <v>0.89643727411783891</v>
+        <v>0.8965026337467249</v>
       </c>
       <c r="K20" s="32" t="s">
         <v>135</v>
@@ -10361,14 +10371,14 @@
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44942</v>
+        <v>44971</v>
       </c>
       <c r="I21" s="34">
-        <v>0.86946852847425926</v>
+        <v>0.86950538099450336</v>
       </c>
       <c r="K21" s="32" t="s">
         <v>136</v>
@@ -10391,14 +10401,14 @@
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45306</v>
+        <v>45336</v>
       </c>
       <c r="I22" s="34">
-        <v>0.84081909735660032</v>
+        <v>0.84082059638434015</v>
       </c>
       <c r="K22" s="32" t="s">
         <v>137</v>
@@ -10421,14 +10431,14 @@
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46037</v>
+        <v>46069</v>
       </c>
       <c r="I23" s="34">
-        <v>0.78325583715116742</v>
+        <v>0.78317290913092574</v>
       </c>
       <c r="K23" s="32" t="s">
         <v>138</v>
@@ -10451,14 +10461,14 @@
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>47133</v>
+        <v>47163</v>
       </c>
       <c r="I24" s="34">
-        <v>0.70087096264745041</v>
+        <v>0.70086820389462445</v>
       </c>
       <c r="K24" s="32" t="s">
         <v>139</v>
@@ -10481,14 +10491,14 @@
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>48960</v>
+        <v>48989</v>
       </c>
       <c r="I25" s="34">
-        <v>0.5789575332618847</v>
+        <v>0.57899741651691694</v>
       </c>
       <c r="K25" s="32" t="s">
         <v>140</v>
@@ -10511,14 +10521,14 @@
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50787</v>
+        <v>50815</v>
       </c>
       <c r="I26" s="34">
-        <v>0.47998167213474474</v>
+        <v>0.48005527698402251</v>
       </c>
       <c r="K26" s="32" t="s">
         <v>141</v>
@@ -10541,14 +10551,14 @@
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52611</v>
+        <v>52642</v>
       </c>
       <c r="I27" s="34">
-        <v>0.40437289311476604</v>
+        <v>0.4043458962878253</v>
       </c>
       <c r="K27" s="32" t="s">
         <v>142</v>
@@ -10571,14 +10581,14 @@
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56264</v>
+        <v>56296</v>
       </c>
       <c r="I28" s="34">
-        <v>0.28908460883605086</v>
+        <v>0.28903945733536268</v>
       </c>
       <c r="K28" s="32" t="s">
         <v>143</v>
@@ -10601,14 +10611,14 @@
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>59916</v>
+        <v>59946</v>
       </c>
       <c r="I29" s="34">
-        <v>0.21293710914001673</v>
+        <v>0.2129367975310702</v>
       </c>
       <c r="K29" s="32" t="s">
         <v>144</v>
@@ -10631,14 +10641,14 @@
       </c>
       <c r="G30" s="40">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>63569</v>
+        <v>63599</v>
       </c>
       <c r="I30" s="34">
-        <v>0.15325245506883109</v>
+        <v>0.15325221803695155</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>145</v>
@@ -13048,7 +13058,7 @@
       </c>
       <c r="F3" s="99" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SWD#0002</v>
+        <v>GBP_YC1MRH_SWD#0000</v>
       </c>
       <c r="G3" s="98" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -13057,7 +13067,7 @@
       <c r="H3" s="97"/>
       <c r="J3" s="96">
         <f>_xll.qlRateHelperEarliestDate(F3)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -13079,7 +13089,7 @@
       </c>
       <c r="F4" s="99" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_2WD#0002</v>
+        <v>GBP_YC1MRH_2WD#0000</v>
       </c>
       <c r="G4" s="98" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -13088,7 +13098,7 @@
       <c r="H4" s="97"/>
       <c r="J4" s="96">
         <f>_xll.qlRateHelperEarliestDate(F4)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -13110,7 +13120,7 @@
       </c>
       <c r="F5" s="99" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_3WD#0002</v>
+        <v>GBP_YC1MRH_3WD#0000</v>
       </c>
       <c r="G5" s="98" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13119,7 +13129,7 @@
       <c r="H5" s="97"/>
       <c r="J5" s="96">
         <f>_xll.qlRateHelperEarliestDate(F5)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
@@ -13141,7 +13151,7 @@
       </c>
       <c r="F6" s="99" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_1MD#0002</v>
+        <v>GBP_YC1MRH_1MD#0000</v>
       </c>
       <c r="G6" s="98" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13150,7 +13160,7 @@
       <c r="H6" s="97"/>
       <c r="J6" s="96">
         <f>_xll.qlRateHelperEarliestDate(F6)</f>
-        <v>41654</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -13293,7 +13303,7 @@
       </c>
       <c r="L4" s="144" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>GBP_YC1MRH_xX1S_Libor1M#0002</v>
+        <v>GBP_YC1MRH_xX1S_Libor1M#0000</v>
       </c>
       <c r="M4" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -13354,7 +13364,7 @@
       </c>
       <c r="L6" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_2X1S#0002</v>
+        <v>GBP_YC1MRH_2X1S#0000</v>
       </c>
       <c r="M6" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -13399,7 +13409,7 @@
       </c>
       <c r="L7" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_3X1S#0002</v>
+        <v>GBP_YC1MRH_3X1S#0000</v>
       </c>
       <c r="M7" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -13444,7 +13454,7 @@
       </c>
       <c r="L8" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_4X1S#0002</v>
+        <v>GBP_YC1MRH_4X1S#0000</v>
       </c>
       <c r="M8" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -13489,7 +13499,7 @@
       </c>
       <c r="L9" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_5X1S#0002</v>
+        <v>GBP_YC1MRH_5X1S#0000</v>
       </c>
       <c r="M9" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -13534,7 +13544,7 @@
       </c>
       <c r="L10" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_6X1S#0002</v>
+        <v>GBP_YC1MRH_6X1S#0000</v>
       </c>
       <c r="M10" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -13579,7 +13589,7 @@
       </c>
       <c r="L11" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_7X1S#0002</v>
+        <v>GBP_YC1MRH_7X1S#0000</v>
       </c>
       <c r="M11" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -13624,7 +13634,7 @@
       </c>
       <c r="L12" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_8X1S#0002</v>
+        <v>GBP_YC1MRH_8X1S#0000</v>
       </c>
       <c r="M12" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -13669,7 +13679,7 @@
       </c>
       <c r="L13" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_9X1S#0002</v>
+        <v>GBP_YC1MRH_9X1S#0000</v>
       </c>
       <c r="M13" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -13714,7 +13724,7 @@
       </c>
       <c r="L14" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_10X1S#0002</v>
+        <v>GBP_YC1MRH_10X1S#0000</v>
       </c>
       <c r="M14" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -13759,7 +13769,7 @@
       </c>
       <c r="L15" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_11X1S#0002</v>
+        <v>GBP_YC1MRH_11X1S#0000</v>
       </c>
       <c r="M15" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -13804,7 +13814,7 @@
       </c>
       <c r="L16" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_12X1S#0002</v>
+        <v>GBP_YC1MRH_12X1S#0000</v>
       </c>
       <c r="M16" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -13986,7 +13996,7 @@
       </c>
       <c r="L4" s="144" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>GBP_YC1MRH_SB1LBASIS_Libor1M#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS_Libor1M#0000</v>
       </c>
       <c r="M4" s="143" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -14051,7 +14061,7 @@
       </c>
       <c r="L6" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS1Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS1Y#0000</v>
       </c>
       <c r="M6" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14101,7 +14111,7 @@
       </c>
       <c r="L7" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS2Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS2Y#0000</v>
       </c>
       <c r="M7" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -14160,7 +14170,7 @@
       </c>
       <c r="L8" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS3Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS3Y#0000</v>
       </c>
       <c r="M8" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -14219,7 +14229,7 @@
       </c>
       <c r="L9" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS4Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS4Y#0000</v>
       </c>
       <c r="M9" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -14278,7 +14288,7 @@
       </c>
       <c r="L10" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS5Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS5Y#0000</v>
       </c>
       <c r="M10" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -14337,7 +14347,7 @@
       </c>
       <c r="L11" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS6Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS6Y#0000</v>
       </c>
       <c r="M11" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -14396,7 +14406,7 @@
       </c>
       <c r="L12" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS7Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS7Y#0000</v>
       </c>
       <c r="M12" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -14449,7 +14459,7 @@
       </c>
       <c r="L13" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS8Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS8Y#0000</v>
       </c>
       <c r="M13" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -14499,7 +14509,7 @@
       </c>
       <c r="L14" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS9Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS9Y#0000</v>
       </c>
       <c r="M14" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -14549,7 +14559,7 @@
       </c>
       <c r="L15" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS10Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS10Y#0000</v>
       </c>
       <c r="M15" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -14599,7 +14609,7 @@
       </c>
       <c r="L16" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS11Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS11Y#0000</v>
       </c>
       <c r="M16" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -14649,7 +14659,7 @@
       </c>
       <c r="L17" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS12Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS12Y#0000</v>
       </c>
       <c r="M17" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -14699,7 +14709,7 @@
       </c>
       <c r="L18" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS13Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS13Y#0000</v>
       </c>
       <c r="M18" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -14749,7 +14759,7 @@
       </c>
       <c r="L19" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS14Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS14Y#0000</v>
       </c>
       <c r="M19" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -14799,7 +14809,7 @@
       </c>
       <c r="L20" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS15Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS15Y#0000</v>
       </c>
       <c r="M20" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -14849,7 +14859,7 @@
       </c>
       <c r="L21" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS16Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS16Y#0000</v>
       </c>
       <c r="M21" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -14899,7 +14909,7 @@
       </c>
       <c r="L22" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS17Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS17Y#0000</v>
       </c>
       <c r="M22" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -14949,7 +14959,7 @@
       </c>
       <c r="L23" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS18Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS18Y#0000</v>
       </c>
       <c r="M23" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -14999,7 +15009,7 @@
       </c>
       <c r="L24" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS19Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS19Y#0000</v>
       </c>
       <c r="M24" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -15049,7 +15059,7 @@
       </c>
       <c r="L25" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS20Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS20Y#0000</v>
       </c>
       <c r="M25" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -15099,7 +15109,7 @@
       </c>
       <c r="L26" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS21Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS21Y#0000</v>
       </c>
       <c r="M26" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -15149,7 +15159,7 @@
       </c>
       <c r="L27" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS22Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS22Y#0000</v>
       </c>
       <c r="M27" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15199,7 +15209,7 @@
       </c>
       <c r="L28" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS23Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS23Y#0000</v>
       </c>
       <c r="M28" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -15249,7 +15259,7 @@
       </c>
       <c r="L29" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS24Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS24Y#0000</v>
       </c>
       <c r="M29" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -15299,7 +15309,7 @@
       </c>
       <c r="L30" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS25Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS25Y#0000</v>
       </c>
       <c r="M30" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -15349,7 +15359,7 @@
       </c>
       <c r="L31" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS26Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS26Y#0000</v>
       </c>
       <c r="M31" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -15399,7 +15409,7 @@
       </c>
       <c r="L32" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS27Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS27Y#0000</v>
       </c>
       <c r="M32" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -15449,7 +15459,7 @@
       </c>
       <c r="L33" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS28Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS28Y#0000</v>
       </c>
       <c r="M33" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -15499,7 +15509,7 @@
       </c>
       <c r="L34" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS29Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS29Y#0000</v>
       </c>
       <c r="M34" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -15549,7 +15559,7 @@
       </c>
       <c r="L35" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS30Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS30Y#0000</v>
       </c>
       <c r="M35" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -15599,7 +15609,7 @@
       </c>
       <c r="L36" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS35Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS35Y#0000</v>
       </c>
       <c r="M36" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -15649,7 +15659,7 @@
       </c>
       <c r="L37" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS40Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS40Y#0000</v>
       </c>
       <c r="M37" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -15699,7 +15709,7 @@
       </c>
       <c r="L38" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS50Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS50Y#0000</v>
       </c>
       <c r="M38" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -15749,7 +15759,7 @@
       </c>
       <c r="L39" s="136" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS60Y#0002</v>
+        <v>GBP_YC1MRH_SB1LBASIS60Y#0000</v>
       </c>
       <c r="M39" s="151" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>

--- a/QuantLibXL/Data2/XLS/GBP_YC1MBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP_YC1MBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="22995" windowHeight="10290"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15225" windowHeight="7695" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="167">
   <si>
     <t>60Y</t>
   </si>
@@ -570,232 +570,154 @@
     <t>General Settings</t>
   </si>
   <si>
-    <t>GBP_YC1MRH_1MD</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_2X1S</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_3X1S</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_4X1S</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_5X1S</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_6X1S</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_7X1S</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_8X1S</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_9X1S</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_10X1S</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_11X1S</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_12X1S</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS2Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS3Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS4Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS5Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS6Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS7Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS8Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS9Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS10Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS12Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS15Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS20Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS25Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS30Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS40Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS50Y</t>
-  </si>
-  <si>
-    <t>GBP_YC1MRH_SB1LBASIS60Y</t>
-  </si>
-  <si>
     <t>1M</t>
   </si>
   <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Quote Object ID</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>_Quote</t>
+  </si>
+  <si>
+    <t>QuoteSuffix</t>
+  </si>
+  <si>
+    <t>Libor</t>
+  </si>
+  <si>
+    <t>FamilyName</t>
+  </si>
+  <si>
+    <t>ADDITIONAL SETTINGS</t>
+  </si>
+  <si>
+    <t>FileOverwrite</t>
+  </si>
+  <si>
+    <t>SerializationPath</t>
+  </si>
+  <si>
+    <t>Serialize</t>
+  </si>
+  <si>
+    <t>GENERAL SETTINGS</t>
+  </si>
+  <si>
+    <t>Modified Following</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>11M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t>8M</t>
+  </si>
+  <si>
+    <t>7M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Day Count Convention</t>
+  </si>
+  <si>
+    <t>Business Day Convention</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Fwd start</t>
+  </si>
+  <si>
+    <t>Discounting2</t>
+  </si>
+  <si>
+    <t>Discounting</t>
+  </si>
+  <si>
+    <t>Actual/365 (Fixed)</t>
+  </si>
+  <si>
+    <t>MoneyMarketDayCounter</t>
+  </si>
+  <si>
+    <t>BondBasisDayCounter</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>0d</t>
+  </si>
+  <si>
+    <t>6L</t>
+  </si>
+  <si>
+    <t>GBP_YCRH_Deposits</t>
+  </si>
+  <si>
+    <t>GBP_YCRH_Swaps</t>
+  </si>
+  <si>
+    <t>GBP_YCRH_SwapsFromBasis</t>
+  </si>
+  <si>
+    <t>GBP1M</t>
+  </si>
+  <si>
+    <t>Extrapolation</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
     <t>3W</t>
-  </si>
-  <si>
-    <t>2W</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>Quote Object ID</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>_Quote</t>
-  </si>
-  <si>
-    <t>QuoteSuffix</t>
-  </si>
-  <si>
-    <t>Libor</t>
-  </si>
-  <si>
-    <t>FamilyName</t>
-  </si>
-  <si>
-    <t>ADDITIONAL SETTINGS</t>
-  </si>
-  <si>
-    <t>FileOverwrite</t>
-  </si>
-  <si>
-    <t>SerializationPath</t>
-  </si>
-  <si>
-    <t>Serialize</t>
-  </si>
-  <si>
-    <t>GENERAL SETTINGS</t>
-  </si>
-  <si>
-    <t>Modified Following</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>12M</t>
-  </si>
-  <si>
-    <t>0D</t>
-  </si>
-  <si>
-    <t>11M</t>
-  </si>
-  <si>
-    <t>10M</t>
-  </si>
-  <si>
-    <t>9M</t>
-  </si>
-  <si>
-    <t>8M</t>
-  </si>
-  <si>
-    <t>7M</t>
-  </si>
-  <si>
-    <t>6M</t>
-  </si>
-  <si>
-    <t>5M</t>
-  </si>
-  <si>
-    <t>4M</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
-    <t>Spread</t>
-  </si>
-  <si>
-    <t>Day Count Convention</t>
-  </si>
-  <si>
-    <t>Business Day Convention</t>
-  </si>
-  <si>
-    <t>Freq</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Fwd start</t>
-  </si>
-  <si>
-    <t>Discounting2</t>
-  </si>
-  <si>
-    <t>Discounting</t>
-  </si>
-  <si>
-    <t>Actual/365 (Fixed)</t>
-  </si>
-  <si>
-    <t>MoneyMarketDayCounter</t>
-  </si>
-  <si>
-    <t>BondBasisDayCounter</t>
-  </si>
-  <si>
-    <t>1L</t>
-  </si>
-  <si>
-    <t>1E</t>
-  </si>
-  <si>
-    <t>0d</t>
-  </si>
-  <si>
-    <t>6L</t>
-  </si>
-  <si>
-    <t>GBP_YCRH_Deposits</t>
-  </si>
-  <si>
-    <t>GBP_YCRH_Swaps</t>
-  </si>
-  <si>
-    <t>GBP_YCRH_SwapsFromBasis</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1364,7 @@
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1578,9 +1500,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="169" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1590,9 +1509,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1667,7 +1583,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="12" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1681,7 +1596,6 @@
     <xf numFmtId="174" fontId="2" fillId="8" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1792,6 +1706,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1799,6 +1731,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1814,14 +1749,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2134,409 +2069,406 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B1:N30"/>
+  <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="163" customWidth="1"/>
-    <col min="3" max="3" width="18" style="163" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="163" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="163" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="163" customWidth="1"/>
-    <col min="8" max="8" width="4" style="163" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" style="163" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="2.7109375" style="163" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="163" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.7109375" style="163" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="163" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="163"/>
+    <col min="1" max="2" width="2.7109375" style="159" customWidth="1"/>
+    <col min="3" max="3" width="18" style="159" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="159" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="159" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="159" customWidth="1"/>
+    <col min="8" max="8" width="4" style="159" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="159" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.7109375" style="159" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="159" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" style="159" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="159" customWidth="1"/>
+    <col min="15" max="16384" width="8" style="159"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="163" t="str">
+      <c r="B1" s="159" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="167"/>
-      <c r="K2" s="165" t="s">
-        <v>160</v>
-      </c>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="179"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="173"/>
+      <c r="K2" s="171" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="174"/>
     </row>
     <row r="3" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61"/>
-      <c r="C3" s="90"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
       <c r="F3" s="57"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="128"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="124"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="61"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="74" t="s">
         <v>109</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
-      <c r="H4" s="173" t="s">
+      <c r="H4" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="174"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="M4" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="124"/>
+      <c r="I4" s="162"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="115" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="120"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="61"/>
-      <c r="C5" s="88" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="61">
         <v>1</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="57"/>
-      <c r="H5" s="175" t="s">
+      <c r="H5" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="176" t="s">
+      <c r="I5" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="126"/>
-      <c r="L5" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="M5" s="127" t="str">
-        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
-      </c>
-      <c r="N5" s="124"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="123"/>
+      <c r="N5" s="120"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="61"/>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="62" t="str">
+      <c r="D6" s="61" t="str">
         <f>_xll.qlPeriodEquivalent(D5&amp;"M")</f>
         <v>1M</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="57"/>
-      <c r="H6" s="175" t="s">
+      <c r="H6" s="163" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="176" t="s">
+      <c r="I6" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="126"/>
-      <c r="L6" s="125" t="s">
-        <v>157</v>
-      </c>
-      <c r="M6" s="116" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="124"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="120"/>
     </row>
     <row r="7" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="62" t="str">
+      <c r="D7" s="61" t="str">
         <f>Months&amp;IF(UPPER(Currency)="EUR","E","L")</f>
         <v>1L</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="57"/>
-      <c r="H7" s="175" t="s">
+      <c r="H7" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="176"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="121"/>
+      <c r="I7" s="164"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="117"/>
     </row>
     <row r="8" spans="2:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="61"/>
-      <c r="C8" s="88" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="62" t="str">
+      <c r="D8" s="61" t="str">
         <f>VLOOKUP(Currency,H4:I8,2)</f>
         <v>SB</v>
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="57"/>
-      <c r="H8" s="177" t="s">
+      <c r="H8" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="178" t="s">
+      <c r="I8" s="166" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
-      <c r="C9" s="88" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="62" t="str">
+      <c r="D9" s="61" t="str">
         <f>Currency&amp;"_YC"&amp;IndexTenor&amp;"RH"</f>
         <v>GBP_YC1MRH</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="57"/>
-      <c r="K9" s="165" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="179"/>
+      <c r="K9" s="171" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="174"/>
     </row>
     <row r="10" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="61"/>
-      <c r="C10" s="87" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="62" t="b">
+      <c r="D10" s="61" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="57"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="115"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="111"/>
     </row>
     <row r="11" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="61"/>
-      <c r="C11" s="87" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="86">
-        <v>41684.586331018516</v>
-      </c>
+      <c r="D11" s="84"/>
       <c r="E11" s="58"/>
       <c r="F11" s="57"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="M11" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="N11" s="115"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="113" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="111"/>
     </row>
     <row r="12" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="61"/>
-      <c r="C12" s="85" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="84" t="b">
+      <c r="D12" s="82" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="58"/>
       <c r="F12" s="57"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="M12" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="N12" s="115"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="111"/>
     </row>
     <row r="13" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="61"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="58"/>
       <c r="F13" s="57"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="117" t="s">
-        <v>185</v>
-      </c>
-      <c r="M13" s="119" t="s">
-        <v>183</v>
-      </c>
-      <c r="N13" s="115"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="N13" s="111"/>
     </row>
     <row r="14" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="61"/>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="83" t="str">
+      <c r="D14" s="81" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,RateHelpersSelected,DayCounter,IF(ISERROR(D22),NA(),D20:E20),IF(ISERROR(D22),NA(),D21:E21),Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPYC1M#0000</v>
+        <v>_GBPYC1M#0001</v>
       </c>
       <c r="E14" s="58"/>
       <c r="F14" s="57"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="117" t="s">
-        <v>184</v>
-      </c>
-      <c r="M14" s="119" t="s">
-        <v>183</v>
-      </c>
-      <c r="N14" s="115"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="N14" s="111"/>
     </row>
     <row r="15" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="61"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="82" t="str">
+      <c r="D15" s="80" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="57"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="117" t="s">
-        <v>182</v>
-      </c>
-      <c r="M15" s="119" t="str">
-        <f>PROPER(Currency)&amp;"YC"</f>
-        <v>GbpYC</v>
-      </c>
-      <c r="N15" s="115"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" s="115" t="str">
+        <f>PROPER(Currency)&amp;"ON"</f>
+        <v>GbpON</v>
+      </c>
+      <c r="N15" s="111"/>
     </row>
     <row r="16" spans="2:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="61"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="80" t="str">
+      <c r="D16" s="78" t="str">
         <f>"_"&amp;Currency&amp;"YC"&amp;IndexTenor</f>
         <v>_GBPYC1M</v>
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="57"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="117" t="s">
-        <v>181</v>
-      </c>
-      <c r="M16" s="119" t="str">
-        <f>PROPER(Currency)&amp;"YCSTD"</f>
-        <v>GbpYCSTD</v>
-      </c>
-      <c r="N16" s="115"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" s="115" t="str">
+        <f>PROPER(Currency)&amp;"STD"</f>
+        <v>GbpSTD</v>
+      </c>
+      <c r="N16" s="111"/>
     </row>
     <row r="17" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="61"/>
-      <c r="C17" s="70" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="77">
         <v>0</v>
       </c>
       <c r="E17" s="58"/>
       <c r="F17" s="57"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="112"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="108"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="61"/>
-      <c r="C18" s="70" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="76" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="57"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="61"/>
-      <c r="C19" s="70" t="s">
+      <c r="B19" s="60"/>
+      <c r="C19" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="61"/>
-      <c r="C20" s="70" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="77" t="str">
+      <c r="D20" s="75" t="str">
         <f>Currency&amp;"TOY_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>GBPTOY_SYNTH1M_Quote</v>
       </c>
-      <c r="E20" s="76" t="str">
+      <c r="E20" s="74" t="str">
         <f>Currency&amp;"TOY2_SYNTH"&amp;IndexTenor&amp;"_Quote"</f>
         <v>GBPTOY2_SYNTH1M_Quote</v>
       </c>
       <c r="F20" s="57"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="61"/>
-      <c r="C21" s="70" t="s">
+      <c r="B21" s="60"/>
+      <c r="C21" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="73">
         <f>DATE(YEAR(_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),NDays&amp;"D")),12,31)</f>
         <v>42004</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="72">
         <f>DATE(YEAR(D21+1),12,31)</f>
         <v>42369</v>
       </c>
       <c r="F21" s="57"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="61"/>
-      <c r="C22" s="70" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="71" t="e">
         <f>_xll.qlQuoteValue(D20,Trigger)</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="72">
+        <v>#NUM!</v>
+      </c>
+      <c r="E22" s="70" t="e">
         <f>_xll.qlQuoteValue(E20,Trigger)</f>
-        <v>0.99999284330093308</v>
+        <v>#NUM!</v>
       </c>
       <c r="F22" s="57"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="61"/>
-      <c r="C23" s="70" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="71" t="e">
+      <c r="D23" s="69" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -2544,41 +2476,41 @@
       <c r="F23" s="57"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="61"/>
-      <c r="C24" s="70" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="67" t="s">
         <v>87</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="57"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="61"/>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="65" t="s">
         <v>85</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="57"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="61"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="58"/>
       <c r="F26" s="57"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="61"/>
-      <c r="C27" s="65">
+      <c r="B27" s="60"/>
+      <c r="C27" s="63">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41684</v>
-      </c>
-      <c r="D27" s="64">
+        <v>41768</v>
+      </c>
+      <c r="D27" s="168">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
         <v>1</v>
       </c>
@@ -2586,36 +2518,60 @@
       <c r="F27" s="57"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="61"/>
-      <c r="C28" s="63">
+      <c r="B28" s="60"/>
+      <c r="C28" s="62">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>63599</v>
-      </c>
-      <c r="D28" s="62">
+        <v>63683</v>
+      </c>
+      <c r="D28" s="169">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.15325221803695155</v>
+        <v>0.15354209441843794</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="57"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="61"/>
-      <c r="C29" s="60" t="s">
+      <c r="B29" s="60"/>
+      <c r="C29" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="59" t="str">
+      <c r="D29" s="170" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
       <c r="E29" s="58"/>
       <c r="F29" s="57"/>
     </row>
-    <row r="30" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="56"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="54"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="60"/>
+      <c r="C30" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="169" t="b">
+        <f>_xll.qlRelinkableHandleLinkTo(C30,YieldCurve)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="58"/>
+      <c r="F30" s="57"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="60"/>
+      <c r="C31" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="136" t="b">
+        <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="58"/>
+      <c r="F31" s="57"/>
+    </row>
+    <row r="32" spans="2:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="56"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2624,22 +2580,22 @@
     <mergeCell ref="K9:N9"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 IZ25 SV25 ACR25 AMN25 AWJ25 BGF25 BQB25 BZX25 CJT25 CTP25 DDL25 DNH25 DXD25 EGZ25 EQV25 FAR25 FKN25 FUJ25 GEF25 GOB25 GXX25 HHT25 HRP25 IBL25 ILH25 IVD25 JEZ25 JOV25 JYR25 KIN25 KSJ25 LCF25 LMB25 LVX25 MFT25 MPP25 MZL25 NJH25 NTD25 OCZ25 OMV25 OWR25 PGN25 PQJ25 QAF25 QKB25 QTX25 RDT25 RNP25 RXL25 SHH25 SRD25 TAZ25 TKV25 TUR25 UEN25 UOJ25 UYF25 VIB25 VRX25 WBT25 WLP25 WVL25 D65561 IZ65561 SV65561 ACR65561 AMN65561 AWJ65561 BGF65561 BQB65561 BZX65561 CJT65561 CTP65561 DDL65561 DNH65561 DXD65561 EGZ65561 EQV65561 FAR65561 FKN65561 FUJ65561 GEF65561 GOB65561 GXX65561 HHT65561 HRP65561 IBL65561 ILH65561 IVD65561 JEZ65561 JOV65561 JYR65561 KIN65561 KSJ65561 LCF65561 LMB65561 LVX65561 MFT65561 MPP65561 MZL65561 NJH65561 NTD65561 OCZ65561 OMV65561 OWR65561 PGN65561 PQJ65561 QAF65561 QKB65561 QTX65561 RDT65561 RNP65561 RXL65561 SHH65561 SRD65561 TAZ65561 TKV65561 TUR65561 UEN65561 UOJ65561 UYF65561 VIB65561 VRX65561 WBT65561 WLP65561 WVL65561 D131097 IZ131097 SV131097 ACR131097 AMN131097 AWJ131097 BGF131097 BQB131097 BZX131097 CJT131097 CTP131097 DDL131097 DNH131097 DXD131097 EGZ131097 EQV131097 FAR131097 FKN131097 FUJ131097 GEF131097 GOB131097 GXX131097 HHT131097 HRP131097 IBL131097 ILH131097 IVD131097 JEZ131097 JOV131097 JYR131097 KIN131097 KSJ131097 LCF131097 LMB131097 LVX131097 MFT131097 MPP131097 MZL131097 NJH131097 NTD131097 OCZ131097 OMV131097 OWR131097 PGN131097 PQJ131097 QAF131097 QKB131097 QTX131097 RDT131097 RNP131097 RXL131097 SHH131097 SRD131097 TAZ131097 TKV131097 TUR131097 UEN131097 UOJ131097 UYF131097 VIB131097 VRX131097 WBT131097 WLP131097 WVL131097 D196633 IZ196633 SV196633 ACR196633 AMN196633 AWJ196633 BGF196633 BQB196633 BZX196633 CJT196633 CTP196633 DDL196633 DNH196633 DXD196633 EGZ196633 EQV196633 FAR196633 FKN196633 FUJ196633 GEF196633 GOB196633 GXX196633 HHT196633 HRP196633 IBL196633 ILH196633 IVD196633 JEZ196633 JOV196633 JYR196633 KIN196633 KSJ196633 LCF196633 LMB196633 LVX196633 MFT196633 MPP196633 MZL196633 NJH196633 NTD196633 OCZ196633 OMV196633 OWR196633 PGN196633 PQJ196633 QAF196633 QKB196633 QTX196633 RDT196633 RNP196633 RXL196633 SHH196633 SRD196633 TAZ196633 TKV196633 TUR196633 UEN196633 UOJ196633 UYF196633 VIB196633 VRX196633 WBT196633 WLP196633 WVL196633 D262169 IZ262169 SV262169 ACR262169 AMN262169 AWJ262169 BGF262169 BQB262169 BZX262169 CJT262169 CTP262169 DDL262169 DNH262169 DXD262169 EGZ262169 EQV262169 FAR262169 FKN262169 FUJ262169 GEF262169 GOB262169 GXX262169 HHT262169 HRP262169 IBL262169 ILH262169 IVD262169 JEZ262169 JOV262169 JYR262169 KIN262169 KSJ262169 LCF262169 LMB262169 LVX262169 MFT262169 MPP262169 MZL262169 NJH262169 NTD262169 OCZ262169 OMV262169 OWR262169 PGN262169 PQJ262169 QAF262169 QKB262169 QTX262169 RDT262169 RNP262169 RXL262169 SHH262169 SRD262169 TAZ262169 TKV262169 TUR262169 UEN262169 UOJ262169 UYF262169 VIB262169 VRX262169 WBT262169 WLP262169 WVL262169 D327705 IZ327705 SV327705 ACR327705 AMN327705 AWJ327705 BGF327705 BQB327705 BZX327705 CJT327705 CTP327705 DDL327705 DNH327705 DXD327705 EGZ327705 EQV327705 FAR327705 FKN327705 FUJ327705 GEF327705 GOB327705 GXX327705 HHT327705 HRP327705 IBL327705 ILH327705 IVD327705 JEZ327705 JOV327705 JYR327705 KIN327705 KSJ327705 LCF327705 LMB327705 LVX327705 MFT327705 MPP327705 MZL327705 NJH327705 NTD327705 OCZ327705 OMV327705 OWR327705 PGN327705 PQJ327705 QAF327705 QKB327705 QTX327705 RDT327705 RNP327705 RXL327705 SHH327705 SRD327705 TAZ327705 TKV327705 TUR327705 UEN327705 UOJ327705 UYF327705 VIB327705 VRX327705 WBT327705 WLP327705 WVL327705 D393241 IZ393241 SV393241 ACR393241 AMN393241 AWJ393241 BGF393241 BQB393241 BZX393241 CJT393241 CTP393241 DDL393241 DNH393241 DXD393241 EGZ393241 EQV393241 FAR393241 FKN393241 FUJ393241 GEF393241 GOB393241 GXX393241 HHT393241 HRP393241 IBL393241 ILH393241 IVD393241 JEZ393241 JOV393241 JYR393241 KIN393241 KSJ393241 LCF393241 LMB393241 LVX393241 MFT393241 MPP393241 MZL393241 NJH393241 NTD393241 OCZ393241 OMV393241 OWR393241 PGN393241 PQJ393241 QAF393241 QKB393241 QTX393241 RDT393241 RNP393241 RXL393241 SHH393241 SRD393241 TAZ393241 TKV393241 TUR393241 UEN393241 UOJ393241 UYF393241 VIB393241 VRX393241 WBT393241 WLP393241 WVL393241 D458777 IZ458777 SV458777 ACR458777 AMN458777 AWJ458777 BGF458777 BQB458777 BZX458777 CJT458777 CTP458777 DDL458777 DNH458777 DXD458777 EGZ458777 EQV458777 FAR458777 FKN458777 FUJ458777 GEF458777 GOB458777 GXX458777 HHT458777 HRP458777 IBL458777 ILH458777 IVD458777 JEZ458777 JOV458777 JYR458777 KIN458777 KSJ458777 LCF458777 LMB458777 LVX458777 MFT458777 MPP458777 MZL458777 NJH458777 NTD458777 OCZ458777 OMV458777 OWR458777 PGN458777 PQJ458777 QAF458777 QKB458777 QTX458777 RDT458777 RNP458777 RXL458777 SHH458777 SRD458777 TAZ458777 TKV458777 TUR458777 UEN458777 UOJ458777 UYF458777 VIB458777 VRX458777 WBT458777 WLP458777 WVL458777 D524313 IZ524313 SV524313 ACR524313 AMN524313 AWJ524313 BGF524313 BQB524313 BZX524313 CJT524313 CTP524313 DDL524313 DNH524313 DXD524313 EGZ524313 EQV524313 FAR524313 FKN524313 FUJ524313 GEF524313 GOB524313 GXX524313 HHT524313 HRP524313 IBL524313 ILH524313 IVD524313 JEZ524313 JOV524313 JYR524313 KIN524313 KSJ524313 LCF524313 LMB524313 LVX524313 MFT524313 MPP524313 MZL524313 NJH524313 NTD524313 OCZ524313 OMV524313 OWR524313 PGN524313 PQJ524313 QAF524313 QKB524313 QTX524313 RDT524313 RNP524313 RXL524313 SHH524313 SRD524313 TAZ524313 TKV524313 TUR524313 UEN524313 UOJ524313 UYF524313 VIB524313 VRX524313 WBT524313 WLP524313 WVL524313 D589849 IZ589849 SV589849 ACR589849 AMN589849 AWJ589849 BGF589849 BQB589849 BZX589849 CJT589849 CTP589849 DDL589849 DNH589849 DXD589849 EGZ589849 EQV589849 FAR589849 FKN589849 FUJ589849 GEF589849 GOB589849 GXX589849 HHT589849 HRP589849 IBL589849 ILH589849 IVD589849 JEZ589849 JOV589849 JYR589849 KIN589849 KSJ589849 LCF589849 LMB589849 LVX589849 MFT589849 MPP589849 MZL589849 NJH589849 NTD589849 OCZ589849 OMV589849 OWR589849 PGN589849 PQJ589849 QAF589849 QKB589849 QTX589849 RDT589849 RNP589849 RXL589849 SHH589849 SRD589849 TAZ589849 TKV589849 TUR589849 UEN589849 UOJ589849 UYF589849 VIB589849 VRX589849 WBT589849 WLP589849 WVL589849 D655385 IZ655385 SV655385 ACR655385 AMN655385 AWJ655385 BGF655385 BQB655385 BZX655385 CJT655385 CTP655385 DDL655385 DNH655385 DXD655385 EGZ655385 EQV655385 FAR655385 FKN655385 FUJ655385 GEF655385 GOB655385 GXX655385 HHT655385 HRP655385 IBL655385 ILH655385 IVD655385 JEZ655385 JOV655385 JYR655385 KIN655385 KSJ655385 LCF655385 LMB655385 LVX655385 MFT655385 MPP655385 MZL655385 NJH655385 NTD655385 OCZ655385 OMV655385 OWR655385 PGN655385 PQJ655385 QAF655385 QKB655385 QTX655385 RDT655385 RNP655385 RXL655385 SHH655385 SRD655385 TAZ655385 TKV655385 TUR655385 UEN655385 UOJ655385 UYF655385 VIB655385 VRX655385 WBT655385 WLP655385 WVL655385 D720921 IZ720921 SV720921 ACR720921 AMN720921 AWJ720921 BGF720921 BQB720921 BZX720921 CJT720921 CTP720921 DDL720921 DNH720921 DXD720921 EGZ720921 EQV720921 FAR720921 FKN720921 FUJ720921 GEF720921 GOB720921 GXX720921 HHT720921 HRP720921 IBL720921 ILH720921 IVD720921 JEZ720921 JOV720921 JYR720921 KIN720921 KSJ720921 LCF720921 LMB720921 LVX720921 MFT720921 MPP720921 MZL720921 NJH720921 NTD720921 OCZ720921 OMV720921 OWR720921 PGN720921 PQJ720921 QAF720921 QKB720921 QTX720921 RDT720921 RNP720921 RXL720921 SHH720921 SRD720921 TAZ720921 TKV720921 TUR720921 UEN720921 UOJ720921 UYF720921 VIB720921 VRX720921 WBT720921 WLP720921 WVL720921 D786457 IZ786457 SV786457 ACR786457 AMN786457 AWJ786457 BGF786457 BQB786457 BZX786457 CJT786457 CTP786457 DDL786457 DNH786457 DXD786457 EGZ786457 EQV786457 FAR786457 FKN786457 FUJ786457 GEF786457 GOB786457 GXX786457 HHT786457 HRP786457 IBL786457 ILH786457 IVD786457 JEZ786457 JOV786457 JYR786457 KIN786457 KSJ786457 LCF786457 LMB786457 LVX786457 MFT786457 MPP786457 MZL786457 NJH786457 NTD786457 OCZ786457 OMV786457 OWR786457 PGN786457 PQJ786457 QAF786457 QKB786457 QTX786457 RDT786457 RNP786457 RXL786457 SHH786457 SRD786457 TAZ786457 TKV786457 TUR786457 UEN786457 UOJ786457 UYF786457 VIB786457 VRX786457 WBT786457 WLP786457 WVL786457 D851993 IZ851993 SV851993 ACR851993 AMN851993 AWJ851993 BGF851993 BQB851993 BZX851993 CJT851993 CTP851993 DDL851993 DNH851993 DXD851993 EGZ851993 EQV851993 FAR851993 FKN851993 FUJ851993 GEF851993 GOB851993 GXX851993 HHT851993 HRP851993 IBL851993 ILH851993 IVD851993 JEZ851993 JOV851993 JYR851993 KIN851993 KSJ851993 LCF851993 LMB851993 LVX851993 MFT851993 MPP851993 MZL851993 NJH851993 NTD851993 OCZ851993 OMV851993 OWR851993 PGN851993 PQJ851993 QAF851993 QKB851993 QTX851993 RDT851993 RNP851993 RXL851993 SHH851993 SRD851993 TAZ851993 TKV851993 TUR851993 UEN851993 UOJ851993 UYF851993 VIB851993 VRX851993 WBT851993 WLP851993 WVL851993 D917529 IZ917529 SV917529 ACR917529 AMN917529 AWJ917529 BGF917529 BQB917529 BZX917529 CJT917529 CTP917529 DDL917529 DNH917529 DXD917529 EGZ917529 EQV917529 FAR917529 FKN917529 FUJ917529 GEF917529 GOB917529 GXX917529 HHT917529 HRP917529 IBL917529 ILH917529 IVD917529 JEZ917529 JOV917529 JYR917529 KIN917529 KSJ917529 LCF917529 LMB917529 LVX917529 MFT917529 MPP917529 MZL917529 NJH917529 NTD917529 OCZ917529 OMV917529 OWR917529 PGN917529 PQJ917529 QAF917529 QKB917529 QTX917529 RDT917529 RNP917529 RXL917529 SHH917529 SRD917529 TAZ917529 TKV917529 TUR917529 UEN917529 UOJ917529 UYF917529 VIB917529 VRX917529 WBT917529 WLP917529 WVL917529 D983065 IZ983065 SV983065 ACR983065 AMN983065 AWJ983065 BGF983065 BQB983065 BZX983065 CJT983065 CTP983065 DDL983065 DNH983065 DXD983065 EGZ983065 EQV983065 FAR983065 FKN983065 FUJ983065 GEF983065 GOB983065 GXX983065 HHT983065 HRP983065 IBL983065 ILH983065 IVD983065 JEZ983065 JOV983065 JYR983065 KIN983065 KSJ983065 LCF983065 LMB983065 LVX983065 MFT983065 MPP983065 MZL983065 NJH983065 NTD983065 OCZ983065 OMV983065 OWR983065 PGN983065 PQJ983065 QAF983065 QKB983065 QTX983065 RDT983065 RNP983065 RXL983065 SHH983065 SRD983065 TAZ983065 TKV983065 TUR983065 UEN983065 UOJ983065 UYF983065 VIB983065 VRX983065 WBT983065 WLP983065 WVL983065">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 IZ25 SV25 ACR25 AMN25 AWJ25 BGF25 BQB25 BZX25 CJT25 CTP25 DDL25 DNH25 DXD25 EGZ25 EQV25 FAR25 FKN25 FUJ25 GEF25 GOB25 GXX25 HHT25 HRP25 IBL25 ILH25 IVD25 JEZ25 JOV25 JYR25 KIN25 KSJ25 LCF25 LMB25 LVX25 MFT25 MPP25 MZL25 NJH25 NTD25 OCZ25 OMV25 OWR25 PGN25 PQJ25 QAF25 QKB25 QTX25 RDT25 RNP25 RXL25 SHH25 SRD25 TAZ25 TKV25 TUR25 UEN25 UOJ25 UYF25 VIB25 VRX25 WBT25 WLP25 WVL25 D65563 IZ65563 SV65563 ACR65563 AMN65563 AWJ65563 BGF65563 BQB65563 BZX65563 CJT65563 CTP65563 DDL65563 DNH65563 DXD65563 EGZ65563 EQV65563 FAR65563 FKN65563 FUJ65563 GEF65563 GOB65563 GXX65563 HHT65563 HRP65563 IBL65563 ILH65563 IVD65563 JEZ65563 JOV65563 JYR65563 KIN65563 KSJ65563 LCF65563 LMB65563 LVX65563 MFT65563 MPP65563 MZL65563 NJH65563 NTD65563 OCZ65563 OMV65563 OWR65563 PGN65563 PQJ65563 QAF65563 QKB65563 QTX65563 RDT65563 RNP65563 RXL65563 SHH65563 SRD65563 TAZ65563 TKV65563 TUR65563 UEN65563 UOJ65563 UYF65563 VIB65563 VRX65563 WBT65563 WLP65563 WVL65563 D131099 IZ131099 SV131099 ACR131099 AMN131099 AWJ131099 BGF131099 BQB131099 BZX131099 CJT131099 CTP131099 DDL131099 DNH131099 DXD131099 EGZ131099 EQV131099 FAR131099 FKN131099 FUJ131099 GEF131099 GOB131099 GXX131099 HHT131099 HRP131099 IBL131099 ILH131099 IVD131099 JEZ131099 JOV131099 JYR131099 KIN131099 KSJ131099 LCF131099 LMB131099 LVX131099 MFT131099 MPP131099 MZL131099 NJH131099 NTD131099 OCZ131099 OMV131099 OWR131099 PGN131099 PQJ131099 QAF131099 QKB131099 QTX131099 RDT131099 RNP131099 RXL131099 SHH131099 SRD131099 TAZ131099 TKV131099 TUR131099 UEN131099 UOJ131099 UYF131099 VIB131099 VRX131099 WBT131099 WLP131099 WVL131099 D196635 IZ196635 SV196635 ACR196635 AMN196635 AWJ196635 BGF196635 BQB196635 BZX196635 CJT196635 CTP196635 DDL196635 DNH196635 DXD196635 EGZ196635 EQV196635 FAR196635 FKN196635 FUJ196635 GEF196635 GOB196635 GXX196635 HHT196635 HRP196635 IBL196635 ILH196635 IVD196635 JEZ196635 JOV196635 JYR196635 KIN196635 KSJ196635 LCF196635 LMB196635 LVX196635 MFT196635 MPP196635 MZL196635 NJH196635 NTD196635 OCZ196635 OMV196635 OWR196635 PGN196635 PQJ196635 QAF196635 QKB196635 QTX196635 RDT196635 RNP196635 RXL196635 SHH196635 SRD196635 TAZ196635 TKV196635 TUR196635 UEN196635 UOJ196635 UYF196635 VIB196635 VRX196635 WBT196635 WLP196635 WVL196635 D262171 IZ262171 SV262171 ACR262171 AMN262171 AWJ262171 BGF262171 BQB262171 BZX262171 CJT262171 CTP262171 DDL262171 DNH262171 DXD262171 EGZ262171 EQV262171 FAR262171 FKN262171 FUJ262171 GEF262171 GOB262171 GXX262171 HHT262171 HRP262171 IBL262171 ILH262171 IVD262171 JEZ262171 JOV262171 JYR262171 KIN262171 KSJ262171 LCF262171 LMB262171 LVX262171 MFT262171 MPP262171 MZL262171 NJH262171 NTD262171 OCZ262171 OMV262171 OWR262171 PGN262171 PQJ262171 QAF262171 QKB262171 QTX262171 RDT262171 RNP262171 RXL262171 SHH262171 SRD262171 TAZ262171 TKV262171 TUR262171 UEN262171 UOJ262171 UYF262171 VIB262171 VRX262171 WBT262171 WLP262171 WVL262171 D327707 IZ327707 SV327707 ACR327707 AMN327707 AWJ327707 BGF327707 BQB327707 BZX327707 CJT327707 CTP327707 DDL327707 DNH327707 DXD327707 EGZ327707 EQV327707 FAR327707 FKN327707 FUJ327707 GEF327707 GOB327707 GXX327707 HHT327707 HRP327707 IBL327707 ILH327707 IVD327707 JEZ327707 JOV327707 JYR327707 KIN327707 KSJ327707 LCF327707 LMB327707 LVX327707 MFT327707 MPP327707 MZL327707 NJH327707 NTD327707 OCZ327707 OMV327707 OWR327707 PGN327707 PQJ327707 QAF327707 QKB327707 QTX327707 RDT327707 RNP327707 RXL327707 SHH327707 SRD327707 TAZ327707 TKV327707 TUR327707 UEN327707 UOJ327707 UYF327707 VIB327707 VRX327707 WBT327707 WLP327707 WVL327707 D393243 IZ393243 SV393243 ACR393243 AMN393243 AWJ393243 BGF393243 BQB393243 BZX393243 CJT393243 CTP393243 DDL393243 DNH393243 DXD393243 EGZ393243 EQV393243 FAR393243 FKN393243 FUJ393243 GEF393243 GOB393243 GXX393243 HHT393243 HRP393243 IBL393243 ILH393243 IVD393243 JEZ393243 JOV393243 JYR393243 KIN393243 KSJ393243 LCF393243 LMB393243 LVX393243 MFT393243 MPP393243 MZL393243 NJH393243 NTD393243 OCZ393243 OMV393243 OWR393243 PGN393243 PQJ393243 QAF393243 QKB393243 QTX393243 RDT393243 RNP393243 RXL393243 SHH393243 SRD393243 TAZ393243 TKV393243 TUR393243 UEN393243 UOJ393243 UYF393243 VIB393243 VRX393243 WBT393243 WLP393243 WVL393243 D458779 IZ458779 SV458779 ACR458779 AMN458779 AWJ458779 BGF458779 BQB458779 BZX458779 CJT458779 CTP458779 DDL458779 DNH458779 DXD458779 EGZ458779 EQV458779 FAR458779 FKN458779 FUJ458779 GEF458779 GOB458779 GXX458779 HHT458779 HRP458779 IBL458779 ILH458779 IVD458779 JEZ458779 JOV458779 JYR458779 KIN458779 KSJ458779 LCF458779 LMB458779 LVX458779 MFT458779 MPP458779 MZL458779 NJH458779 NTD458779 OCZ458779 OMV458779 OWR458779 PGN458779 PQJ458779 QAF458779 QKB458779 QTX458779 RDT458779 RNP458779 RXL458779 SHH458779 SRD458779 TAZ458779 TKV458779 TUR458779 UEN458779 UOJ458779 UYF458779 VIB458779 VRX458779 WBT458779 WLP458779 WVL458779 D524315 IZ524315 SV524315 ACR524315 AMN524315 AWJ524315 BGF524315 BQB524315 BZX524315 CJT524315 CTP524315 DDL524315 DNH524315 DXD524315 EGZ524315 EQV524315 FAR524315 FKN524315 FUJ524315 GEF524315 GOB524315 GXX524315 HHT524315 HRP524315 IBL524315 ILH524315 IVD524315 JEZ524315 JOV524315 JYR524315 KIN524315 KSJ524315 LCF524315 LMB524315 LVX524315 MFT524315 MPP524315 MZL524315 NJH524315 NTD524315 OCZ524315 OMV524315 OWR524315 PGN524315 PQJ524315 QAF524315 QKB524315 QTX524315 RDT524315 RNP524315 RXL524315 SHH524315 SRD524315 TAZ524315 TKV524315 TUR524315 UEN524315 UOJ524315 UYF524315 VIB524315 VRX524315 WBT524315 WLP524315 WVL524315 D589851 IZ589851 SV589851 ACR589851 AMN589851 AWJ589851 BGF589851 BQB589851 BZX589851 CJT589851 CTP589851 DDL589851 DNH589851 DXD589851 EGZ589851 EQV589851 FAR589851 FKN589851 FUJ589851 GEF589851 GOB589851 GXX589851 HHT589851 HRP589851 IBL589851 ILH589851 IVD589851 JEZ589851 JOV589851 JYR589851 KIN589851 KSJ589851 LCF589851 LMB589851 LVX589851 MFT589851 MPP589851 MZL589851 NJH589851 NTD589851 OCZ589851 OMV589851 OWR589851 PGN589851 PQJ589851 QAF589851 QKB589851 QTX589851 RDT589851 RNP589851 RXL589851 SHH589851 SRD589851 TAZ589851 TKV589851 TUR589851 UEN589851 UOJ589851 UYF589851 VIB589851 VRX589851 WBT589851 WLP589851 WVL589851 D655387 IZ655387 SV655387 ACR655387 AMN655387 AWJ655387 BGF655387 BQB655387 BZX655387 CJT655387 CTP655387 DDL655387 DNH655387 DXD655387 EGZ655387 EQV655387 FAR655387 FKN655387 FUJ655387 GEF655387 GOB655387 GXX655387 HHT655387 HRP655387 IBL655387 ILH655387 IVD655387 JEZ655387 JOV655387 JYR655387 KIN655387 KSJ655387 LCF655387 LMB655387 LVX655387 MFT655387 MPP655387 MZL655387 NJH655387 NTD655387 OCZ655387 OMV655387 OWR655387 PGN655387 PQJ655387 QAF655387 QKB655387 QTX655387 RDT655387 RNP655387 RXL655387 SHH655387 SRD655387 TAZ655387 TKV655387 TUR655387 UEN655387 UOJ655387 UYF655387 VIB655387 VRX655387 WBT655387 WLP655387 WVL655387 D720923 IZ720923 SV720923 ACR720923 AMN720923 AWJ720923 BGF720923 BQB720923 BZX720923 CJT720923 CTP720923 DDL720923 DNH720923 DXD720923 EGZ720923 EQV720923 FAR720923 FKN720923 FUJ720923 GEF720923 GOB720923 GXX720923 HHT720923 HRP720923 IBL720923 ILH720923 IVD720923 JEZ720923 JOV720923 JYR720923 KIN720923 KSJ720923 LCF720923 LMB720923 LVX720923 MFT720923 MPP720923 MZL720923 NJH720923 NTD720923 OCZ720923 OMV720923 OWR720923 PGN720923 PQJ720923 QAF720923 QKB720923 QTX720923 RDT720923 RNP720923 RXL720923 SHH720923 SRD720923 TAZ720923 TKV720923 TUR720923 UEN720923 UOJ720923 UYF720923 VIB720923 VRX720923 WBT720923 WLP720923 WVL720923 D786459 IZ786459 SV786459 ACR786459 AMN786459 AWJ786459 BGF786459 BQB786459 BZX786459 CJT786459 CTP786459 DDL786459 DNH786459 DXD786459 EGZ786459 EQV786459 FAR786459 FKN786459 FUJ786459 GEF786459 GOB786459 GXX786459 HHT786459 HRP786459 IBL786459 ILH786459 IVD786459 JEZ786459 JOV786459 JYR786459 KIN786459 KSJ786459 LCF786459 LMB786459 LVX786459 MFT786459 MPP786459 MZL786459 NJH786459 NTD786459 OCZ786459 OMV786459 OWR786459 PGN786459 PQJ786459 QAF786459 QKB786459 QTX786459 RDT786459 RNP786459 RXL786459 SHH786459 SRD786459 TAZ786459 TKV786459 TUR786459 UEN786459 UOJ786459 UYF786459 VIB786459 VRX786459 WBT786459 WLP786459 WVL786459 D851995 IZ851995 SV851995 ACR851995 AMN851995 AWJ851995 BGF851995 BQB851995 BZX851995 CJT851995 CTP851995 DDL851995 DNH851995 DXD851995 EGZ851995 EQV851995 FAR851995 FKN851995 FUJ851995 GEF851995 GOB851995 GXX851995 HHT851995 HRP851995 IBL851995 ILH851995 IVD851995 JEZ851995 JOV851995 JYR851995 KIN851995 KSJ851995 LCF851995 LMB851995 LVX851995 MFT851995 MPP851995 MZL851995 NJH851995 NTD851995 OCZ851995 OMV851995 OWR851995 PGN851995 PQJ851995 QAF851995 QKB851995 QTX851995 RDT851995 RNP851995 RXL851995 SHH851995 SRD851995 TAZ851995 TKV851995 TUR851995 UEN851995 UOJ851995 UYF851995 VIB851995 VRX851995 WBT851995 WLP851995 WVL851995 D917531 IZ917531 SV917531 ACR917531 AMN917531 AWJ917531 BGF917531 BQB917531 BZX917531 CJT917531 CTP917531 DDL917531 DNH917531 DXD917531 EGZ917531 EQV917531 FAR917531 FKN917531 FUJ917531 GEF917531 GOB917531 GXX917531 HHT917531 HRP917531 IBL917531 ILH917531 IVD917531 JEZ917531 JOV917531 JYR917531 KIN917531 KSJ917531 LCF917531 LMB917531 LVX917531 MFT917531 MPP917531 MZL917531 NJH917531 NTD917531 OCZ917531 OMV917531 OWR917531 PGN917531 PQJ917531 QAF917531 QKB917531 QTX917531 RDT917531 RNP917531 RXL917531 SHH917531 SRD917531 TAZ917531 TKV917531 TUR917531 UEN917531 UOJ917531 UYF917531 VIB917531 VRX917531 WBT917531 WLP917531 WVL917531 D983067 IZ983067 SV983067 ACR983067 AMN983067 AWJ983067 BGF983067 BQB983067 BZX983067 CJT983067 CTP983067 DDL983067 DNH983067 DXD983067 EGZ983067 EQV983067 FAR983067 FKN983067 FUJ983067 GEF983067 GOB983067 GXX983067 HHT983067 HRP983067 IBL983067 ILH983067 IVD983067 JEZ983067 JOV983067 JYR983067 KIN983067 KSJ983067 LCF983067 LMB983067 LVX983067 MFT983067 MPP983067 MZL983067 NJH983067 NTD983067 OCZ983067 OMV983067 OWR983067 PGN983067 PQJ983067 QAF983067 QKB983067 QTX983067 RDT983067 RNP983067 RXL983067 SHH983067 SRD983067 TAZ983067 TKV983067 TUR983067 UEN983067 UOJ983067 UYF983067 VIB983067 VRX983067 WBT983067 WLP983067 WVL983067">
       <formula1>"Linear,BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 IZ6 SV6 ACR6 AMN6 AWJ6 BGF6 BQB6 BZX6 CJT6 CTP6 DDL6 DNH6 DXD6 EGZ6 EQV6 FAR6 FKN6 FUJ6 GEF6 GOB6 GXX6 HHT6 HRP6 IBL6 ILH6 IVD6 JEZ6 JOV6 JYR6 KIN6 KSJ6 LCF6 LMB6 LVX6 MFT6 MPP6 MZL6 NJH6 NTD6 OCZ6 OMV6 OWR6 PGN6 PQJ6 QAF6 QKB6 QTX6 RDT6 RNP6 RXL6 SHH6 SRD6 TAZ6 TKV6 TUR6 UEN6 UOJ6 UYF6 VIB6 VRX6 WBT6 WLP6 WVL6 D65542 IZ65542 SV65542 ACR65542 AMN65542 AWJ65542 BGF65542 BQB65542 BZX65542 CJT65542 CTP65542 DDL65542 DNH65542 DXD65542 EGZ65542 EQV65542 FAR65542 FKN65542 FUJ65542 GEF65542 GOB65542 GXX65542 HHT65542 HRP65542 IBL65542 ILH65542 IVD65542 JEZ65542 JOV65542 JYR65542 KIN65542 KSJ65542 LCF65542 LMB65542 LVX65542 MFT65542 MPP65542 MZL65542 NJH65542 NTD65542 OCZ65542 OMV65542 OWR65542 PGN65542 PQJ65542 QAF65542 QKB65542 QTX65542 RDT65542 RNP65542 RXL65542 SHH65542 SRD65542 TAZ65542 TKV65542 TUR65542 UEN65542 UOJ65542 UYF65542 VIB65542 VRX65542 WBT65542 WLP65542 WVL65542 D131078 IZ131078 SV131078 ACR131078 AMN131078 AWJ131078 BGF131078 BQB131078 BZX131078 CJT131078 CTP131078 DDL131078 DNH131078 DXD131078 EGZ131078 EQV131078 FAR131078 FKN131078 FUJ131078 GEF131078 GOB131078 GXX131078 HHT131078 HRP131078 IBL131078 ILH131078 IVD131078 JEZ131078 JOV131078 JYR131078 KIN131078 KSJ131078 LCF131078 LMB131078 LVX131078 MFT131078 MPP131078 MZL131078 NJH131078 NTD131078 OCZ131078 OMV131078 OWR131078 PGN131078 PQJ131078 QAF131078 QKB131078 QTX131078 RDT131078 RNP131078 RXL131078 SHH131078 SRD131078 TAZ131078 TKV131078 TUR131078 UEN131078 UOJ131078 UYF131078 VIB131078 VRX131078 WBT131078 WLP131078 WVL131078 D196614 IZ196614 SV196614 ACR196614 AMN196614 AWJ196614 BGF196614 BQB196614 BZX196614 CJT196614 CTP196614 DDL196614 DNH196614 DXD196614 EGZ196614 EQV196614 FAR196614 FKN196614 FUJ196614 GEF196614 GOB196614 GXX196614 HHT196614 HRP196614 IBL196614 ILH196614 IVD196614 JEZ196614 JOV196614 JYR196614 KIN196614 KSJ196614 LCF196614 LMB196614 LVX196614 MFT196614 MPP196614 MZL196614 NJH196614 NTD196614 OCZ196614 OMV196614 OWR196614 PGN196614 PQJ196614 QAF196614 QKB196614 QTX196614 RDT196614 RNP196614 RXL196614 SHH196614 SRD196614 TAZ196614 TKV196614 TUR196614 UEN196614 UOJ196614 UYF196614 VIB196614 VRX196614 WBT196614 WLP196614 WVL196614 D262150 IZ262150 SV262150 ACR262150 AMN262150 AWJ262150 BGF262150 BQB262150 BZX262150 CJT262150 CTP262150 DDL262150 DNH262150 DXD262150 EGZ262150 EQV262150 FAR262150 FKN262150 FUJ262150 GEF262150 GOB262150 GXX262150 HHT262150 HRP262150 IBL262150 ILH262150 IVD262150 JEZ262150 JOV262150 JYR262150 KIN262150 KSJ262150 LCF262150 LMB262150 LVX262150 MFT262150 MPP262150 MZL262150 NJH262150 NTD262150 OCZ262150 OMV262150 OWR262150 PGN262150 PQJ262150 QAF262150 QKB262150 QTX262150 RDT262150 RNP262150 RXL262150 SHH262150 SRD262150 TAZ262150 TKV262150 TUR262150 UEN262150 UOJ262150 UYF262150 VIB262150 VRX262150 WBT262150 WLP262150 WVL262150 D327686 IZ327686 SV327686 ACR327686 AMN327686 AWJ327686 BGF327686 BQB327686 BZX327686 CJT327686 CTP327686 DDL327686 DNH327686 DXD327686 EGZ327686 EQV327686 FAR327686 FKN327686 FUJ327686 GEF327686 GOB327686 GXX327686 HHT327686 HRP327686 IBL327686 ILH327686 IVD327686 JEZ327686 JOV327686 JYR327686 KIN327686 KSJ327686 LCF327686 LMB327686 LVX327686 MFT327686 MPP327686 MZL327686 NJH327686 NTD327686 OCZ327686 OMV327686 OWR327686 PGN327686 PQJ327686 QAF327686 QKB327686 QTX327686 RDT327686 RNP327686 RXL327686 SHH327686 SRD327686 TAZ327686 TKV327686 TUR327686 UEN327686 UOJ327686 UYF327686 VIB327686 VRX327686 WBT327686 WLP327686 WVL327686 D393222 IZ393222 SV393222 ACR393222 AMN393222 AWJ393222 BGF393222 BQB393222 BZX393222 CJT393222 CTP393222 DDL393222 DNH393222 DXD393222 EGZ393222 EQV393222 FAR393222 FKN393222 FUJ393222 GEF393222 GOB393222 GXX393222 HHT393222 HRP393222 IBL393222 ILH393222 IVD393222 JEZ393222 JOV393222 JYR393222 KIN393222 KSJ393222 LCF393222 LMB393222 LVX393222 MFT393222 MPP393222 MZL393222 NJH393222 NTD393222 OCZ393222 OMV393222 OWR393222 PGN393222 PQJ393222 QAF393222 QKB393222 QTX393222 RDT393222 RNP393222 RXL393222 SHH393222 SRD393222 TAZ393222 TKV393222 TUR393222 UEN393222 UOJ393222 UYF393222 VIB393222 VRX393222 WBT393222 WLP393222 WVL393222 D458758 IZ458758 SV458758 ACR458758 AMN458758 AWJ458758 BGF458758 BQB458758 BZX458758 CJT458758 CTP458758 DDL458758 DNH458758 DXD458758 EGZ458758 EQV458758 FAR458758 FKN458758 FUJ458758 GEF458758 GOB458758 GXX458758 HHT458758 HRP458758 IBL458758 ILH458758 IVD458758 JEZ458758 JOV458758 JYR458758 KIN458758 KSJ458758 LCF458758 LMB458758 LVX458758 MFT458758 MPP458758 MZL458758 NJH458758 NTD458758 OCZ458758 OMV458758 OWR458758 PGN458758 PQJ458758 QAF458758 QKB458758 QTX458758 RDT458758 RNP458758 RXL458758 SHH458758 SRD458758 TAZ458758 TKV458758 TUR458758 UEN458758 UOJ458758 UYF458758 VIB458758 VRX458758 WBT458758 WLP458758 WVL458758 D524294 IZ524294 SV524294 ACR524294 AMN524294 AWJ524294 BGF524294 BQB524294 BZX524294 CJT524294 CTP524294 DDL524294 DNH524294 DXD524294 EGZ524294 EQV524294 FAR524294 FKN524294 FUJ524294 GEF524294 GOB524294 GXX524294 HHT524294 HRP524294 IBL524294 ILH524294 IVD524294 JEZ524294 JOV524294 JYR524294 KIN524294 KSJ524294 LCF524294 LMB524294 LVX524294 MFT524294 MPP524294 MZL524294 NJH524294 NTD524294 OCZ524294 OMV524294 OWR524294 PGN524294 PQJ524294 QAF524294 QKB524294 QTX524294 RDT524294 RNP524294 RXL524294 SHH524294 SRD524294 TAZ524294 TKV524294 TUR524294 UEN524294 UOJ524294 UYF524294 VIB524294 VRX524294 WBT524294 WLP524294 WVL524294 D589830 IZ589830 SV589830 ACR589830 AMN589830 AWJ589830 BGF589830 BQB589830 BZX589830 CJT589830 CTP589830 DDL589830 DNH589830 DXD589830 EGZ589830 EQV589830 FAR589830 FKN589830 FUJ589830 GEF589830 GOB589830 GXX589830 HHT589830 HRP589830 IBL589830 ILH589830 IVD589830 JEZ589830 JOV589830 JYR589830 KIN589830 KSJ589830 LCF589830 LMB589830 LVX589830 MFT589830 MPP589830 MZL589830 NJH589830 NTD589830 OCZ589830 OMV589830 OWR589830 PGN589830 PQJ589830 QAF589830 QKB589830 QTX589830 RDT589830 RNP589830 RXL589830 SHH589830 SRD589830 TAZ589830 TKV589830 TUR589830 UEN589830 UOJ589830 UYF589830 VIB589830 VRX589830 WBT589830 WLP589830 WVL589830 D655366 IZ655366 SV655366 ACR655366 AMN655366 AWJ655366 BGF655366 BQB655366 BZX655366 CJT655366 CTP655366 DDL655366 DNH655366 DXD655366 EGZ655366 EQV655366 FAR655366 FKN655366 FUJ655366 GEF655366 GOB655366 GXX655366 HHT655366 HRP655366 IBL655366 ILH655366 IVD655366 JEZ655366 JOV655366 JYR655366 KIN655366 KSJ655366 LCF655366 LMB655366 LVX655366 MFT655366 MPP655366 MZL655366 NJH655366 NTD655366 OCZ655366 OMV655366 OWR655366 PGN655366 PQJ655366 QAF655366 QKB655366 QTX655366 RDT655366 RNP655366 RXL655366 SHH655366 SRD655366 TAZ655366 TKV655366 TUR655366 UEN655366 UOJ655366 UYF655366 VIB655366 VRX655366 WBT655366 WLP655366 WVL655366 D720902 IZ720902 SV720902 ACR720902 AMN720902 AWJ720902 BGF720902 BQB720902 BZX720902 CJT720902 CTP720902 DDL720902 DNH720902 DXD720902 EGZ720902 EQV720902 FAR720902 FKN720902 FUJ720902 GEF720902 GOB720902 GXX720902 HHT720902 HRP720902 IBL720902 ILH720902 IVD720902 JEZ720902 JOV720902 JYR720902 KIN720902 KSJ720902 LCF720902 LMB720902 LVX720902 MFT720902 MPP720902 MZL720902 NJH720902 NTD720902 OCZ720902 OMV720902 OWR720902 PGN720902 PQJ720902 QAF720902 QKB720902 QTX720902 RDT720902 RNP720902 RXL720902 SHH720902 SRD720902 TAZ720902 TKV720902 TUR720902 UEN720902 UOJ720902 UYF720902 VIB720902 VRX720902 WBT720902 WLP720902 WVL720902 D786438 IZ786438 SV786438 ACR786438 AMN786438 AWJ786438 BGF786438 BQB786438 BZX786438 CJT786438 CTP786438 DDL786438 DNH786438 DXD786438 EGZ786438 EQV786438 FAR786438 FKN786438 FUJ786438 GEF786438 GOB786438 GXX786438 HHT786438 HRP786438 IBL786438 ILH786438 IVD786438 JEZ786438 JOV786438 JYR786438 KIN786438 KSJ786438 LCF786438 LMB786438 LVX786438 MFT786438 MPP786438 MZL786438 NJH786438 NTD786438 OCZ786438 OMV786438 OWR786438 PGN786438 PQJ786438 QAF786438 QKB786438 QTX786438 RDT786438 RNP786438 RXL786438 SHH786438 SRD786438 TAZ786438 TKV786438 TUR786438 UEN786438 UOJ786438 UYF786438 VIB786438 VRX786438 WBT786438 WLP786438 WVL786438 D851974 IZ851974 SV851974 ACR851974 AMN851974 AWJ851974 BGF851974 BQB851974 BZX851974 CJT851974 CTP851974 DDL851974 DNH851974 DXD851974 EGZ851974 EQV851974 FAR851974 FKN851974 FUJ851974 GEF851974 GOB851974 GXX851974 HHT851974 HRP851974 IBL851974 ILH851974 IVD851974 JEZ851974 JOV851974 JYR851974 KIN851974 KSJ851974 LCF851974 LMB851974 LVX851974 MFT851974 MPP851974 MZL851974 NJH851974 NTD851974 OCZ851974 OMV851974 OWR851974 PGN851974 PQJ851974 QAF851974 QKB851974 QTX851974 RDT851974 RNP851974 RXL851974 SHH851974 SRD851974 TAZ851974 TKV851974 TUR851974 UEN851974 UOJ851974 UYF851974 VIB851974 VRX851974 WBT851974 WLP851974 WVL851974 D917510 IZ917510 SV917510 ACR917510 AMN917510 AWJ917510 BGF917510 BQB917510 BZX917510 CJT917510 CTP917510 DDL917510 DNH917510 DXD917510 EGZ917510 EQV917510 FAR917510 FKN917510 FUJ917510 GEF917510 GOB917510 GXX917510 HHT917510 HRP917510 IBL917510 ILH917510 IVD917510 JEZ917510 JOV917510 JYR917510 KIN917510 KSJ917510 LCF917510 LMB917510 LVX917510 MFT917510 MPP917510 MZL917510 NJH917510 NTD917510 OCZ917510 OMV917510 OWR917510 PGN917510 PQJ917510 QAF917510 QKB917510 QTX917510 RDT917510 RNP917510 RXL917510 SHH917510 SRD917510 TAZ917510 TKV917510 TUR917510 UEN917510 UOJ917510 UYF917510 VIB917510 VRX917510 WBT917510 WLP917510 WVL917510 D983046 IZ983046 SV983046 ACR983046 AMN983046 AWJ983046 BGF983046 BQB983046 BZX983046 CJT983046 CTP983046 DDL983046 DNH983046 DXD983046 EGZ983046 EQV983046 FAR983046 FKN983046 FUJ983046 GEF983046 GOB983046 GXX983046 HHT983046 HRP983046 IBL983046 ILH983046 IVD983046 JEZ983046 JOV983046 JYR983046 KIN983046 KSJ983046 LCF983046 LMB983046 LVX983046 MFT983046 MPP983046 MZL983046 NJH983046 NTD983046 OCZ983046 OMV983046 OWR983046 PGN983046 PQJ983046 QAF983046 QKB983046 QTX983046 RDT983046 RNP983046 RXL983046 SHH983046 SRD983046 TAZ983046 TKV983046 TUR983046 UEN983046 UOJ983046 UYF983046 VIB983046 VRX983046 WBT983046 WLP983046 WVL983046">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 IZ6 SV6 ACR6 AMN6 AWJ6 BGF6 BQB6 BZX6 CJT6 CTP6 DDL6 DNH6 DXD6 EGZ6 EQV6 FAR6 FKN6 FUJ6 GEF6 GOB6 GXX6 HHT6 HRP6 IBL6 ILH6 IVD6 JEZ6 JOV6 JYR6 KIN6 KSJ6 LCF6 LMB6 LVX6 MFT6 MPP6 MZL6 NJH6 NTD6 OCZ6 OMV6 OWR6 PGN6 PQJ6 QAF6 QKB6 QTX6 RDT6 RNP6 RXL6 SHH6 SRD6 TAZ6 TKV6 TUR6 UEN6 UOJ6 UYF6 VIB6 VRX6 WBT6 WLP6 WVL6 D65544 IZ65544 SV65544 ACR65544 AMN65544 AWJ65544 BGF65544 BQB65544 BZX65544 CJT65544 CTP65544 DDL65544 DNH65544 DXD65544 EGZ65544 EQV65544 FAR65544 FKN65544 FUJ65544 GEF65544 GOB65544 GXX65544 HHT65544 HRP65544 IBL65544 ILH65544 IVD65544 JEZ65544 JOV65544 JYR65544 KIN65544 KSJ65544 LCF65544 LMB65544 LVX65544 MFT65544 MPP65544 MZL65544 NJH65544 NTD65544 OCZ65544 OMV65544 OWR65544 PGN65544 PQJ65544 QAF65544 QKB65544 QTX65544 RDT65544 RNP65544 RXL65544 SHH65544 SRD65544 TAZ65544 TKV65544 TUR65544 UEN65544 UOJ65544 UYF65544 VIB65544 VRX65544 WBT65544 WLP65544 WVL65544 D131080 IZ131080 SV131080 ACR131080 AMN131080 AWJ131080 BGF131080 BQB131080 BZX131080 CJT131080 CTP131080 DDL131080 DNH131080 DXD131080 EGZ131080 EQV131080 FAR131080 FKN131080 FUJ131080 GEF131080 GOB131080 GXX131080 HHT131080 HRP131080 IBL131080 ILH131080 IVD131080 JEZ131080 JOV131080 JYR131080 KIN131080 KSJ131080 LCF131080 LMB131080 LVX131080 MFT131080 MPP131080 MZL131080 NJH131080 NTD131080 OCZ131080 OMV131080 OWR131080 PGN131080 PQJ131080 QAF131080 QKB131080 QTX131080 RDT131080 RNP131080 RXL131080 SHH131080 SRD131080 TAZ131080 TKV131080 TUR131080 UEN131080 UOJ131080 UYF131080 VIB131080 VRX131080 WBT131080 WLP131080 WVL131080 D196616 IZ196616 SV196616 ACR196616 AMN196616 AWJ196616 BGF196616 BQB196616 BZX196616 CJT196616 CTP196616 DDL196616 DNH196616 DXD196616 EGZ196616 EQV196616 FAR196616 FKN196616 FUJ196616 GEF196616 GOB196616 GXX196616 HHT196616 HRP196616 IBL196616 ILH196616 IVD196616 JEZ196616 JOV196616 JYR196616 KIN196616 KSJ196616 LCF196616 LMB196616 LVX196616 MFT196616 MPP196616 MZL196616 NJH196616 NTD196616 OCZ196616 OMV196616 OWR196616 PGN196616 PQJ196616 QAF196616 QKB196616 QTX196616 RDT196616 RNP196616 RXL196616 SHH196616 SRD196616 TAZ196616 TKV196616 TUR196616 UEN196616 UOJ196616 UYF196616 VIB196616 VRX196616 WBT196616 WLP196616 WVL196616 D262152 IZ262152 SV262152 ACR262152 AMN262152 AWJ262152 BGF262152 BQB262152 BZX262152 CJT262152 CTP262152 DDL262152 DNH262152 DXD262152 EGZ262152 EQV262152 FAR262152 FKN262152 FUJ262152 GEF262152 GOB262152 GXX262152 HHT262152 HRP262152 IBL262152 ILH262152 IVD262152 JEZ262152 JOV262152 JYR262152 KIN262152 KSJ262152 LCF262152 LMB262152 LVX262152 MFT262152 MPP262152 MZL262152 NJH262152 NTD262152 OCZ262152 OMV262152 OWR262152 PGN262152 PQJ262152 QAF262152 QKB262152 QTX262152 RDT262152 RNP262152 RXL262152 SHH262152 SRD262152 TAZ262152 TKV262152 TUR262152 UEN262152 UOJ262152 UYF262152 VIB262152 VRX262152 WBT262152 WLP262152 WVL262152 D327688 IZ327688 SV327688 ACR327688 AMN327688 AWJ327688 BGF327688 BQB327688 BZX327688 CJT327688 CTP327688 DDL327688 DNH327688 DXD327688 EGZ327688 EQV327688 FAR327688 FKN327688 FUJ327688 GEF327688 GOB327688 GXX327688 HHT327688 HRP327688 IBL327688 ILH327688 IVD327688 JEZ327688 JOV327688 JYR327688 KIN327688 KSJ327688 LCF327688 LMB327688 LVX327688 MFT327688 MPP327688 MZL327688 NJH327688 NTD327688 OCZ327688 OMV327688 OWR327688 PGN327688 PQJ327688 QAF327688 QKB327688 QTX327688 RDT327688 RNP327688 RXL327688 SHH327688 SRD327688 TAZ327688 TKV327688 TUR327688 UEN327688 UOJ327688 UYF327688 VIB327688 VRX327688 WBT327688 WLP327688 WVL327688 D393224 IZ393224 SV393224 ACR393224 AMN393224 AWJ393224 BGF393224 BQB393224 BZX393224 CJT393224 CTP393224 DDL393224 DNH393224 DXD393224 EGZ393224 EQV393224 FAR393224 FKN393224 FUJ393224 GEF393224 GOB393224 GXX393224 HHT393224 HRP393224 IBL393224 ILH393224 IVD393224 JEZ393224 JOV393224 JYR393224 KIN393224 KSJ393224 LCF393224 LMB393224 LVX393224 MFT393224 MPP393224 MZL393224 NJH393224 NTD393224 OCZ393224 OMV393224 OWR393224 PGN393224 PQJ393224 QAF393224 QKB393224 QTX393224 RDT393224 RNP393224 RXL393224 SHH393224 SRD393224 TAZ393224 TKV393224 TUR393224 UEN393224 UOJ393224 UYF393224 VIB393224 VRX393224 WBT393224 WLP393224 WVL393224 D458760 IZ458760 SV458760 ACR458760 AMN458760 AWJ458760 BGF458760 BQB458760 BZX458760 CJT458760 CTP458760 DDL458760 DNH458760 DXD458760 EGZ458760 EQV458760 FAR458760 FKN458760 FUJ458760 GEF458760 GOB458760 GXX458760 HHT458760 HRP458760 IBL458760 ILH458760 IVD458760 JEZ458760 JOV458760 JYR458760 KIN458760 KSJ458760 LCF458760 LMB458760 LVX458760 MFT458760 MPP458760 MZL458760 NJH458760 NTD458760 OCZ458760 OMV458760 OWR458760 PGN458760 PQJ458760 QAF458760 QKB458760 QTX458760 RDT458760 RNP458760 RXL458760 SHH458760 SRD458760 TAZ458760 TKV458760 TUR458760 UEN458760 UOJ458760 UYF458760 VIB458760 VRX458760 WBT458760 WLP458760 WVL458760 D524296 IZ524296 SV524296 ACR524296 AMN524296 AWJ524296 BGF524296 BQB524296 BZX524296 CJT524296 CTP524296 DDL524296 DNH524296 DXD524296 EGZ524296 EQV524296 FAR524296 FKN524296 FUJ524296 GEF524296 GOB524296 GXX524296 HHT524296 HRP524296 IBL524296 ILH524296 IVD524296 JEZ524296 JOV524296 JYR524296 KIN524296 KSJ524296 LCF524296 LMB524296 LVX524296 MFT524296 MPP524296 MZL524296 NJH524296 NTD524296 OCZ524296 OMV524296 OWR524296 PGN524296 PQJ524296 QAF524296 QKB524296 QTX524296 RDT524296 RNP524296 RXL524296 SHH524296 SRD524296 TAZ524296 TKV524296 TUR524296 UEN524296 UOJ524296 UYF524296 VIB524296 VRX524296 WBT524296 WLP524296 WVL524296 D589832 IZ589832 SV589832 ACR589832 AMN589832 AWJ589832 BGF589832 BQB589832 BZX589832 CJT589832 CTP589832 DDL589832 DNH589832 DXD589832 EGZ589832 EQV589832 FAR589832 FKN589832 FUJ589832 GEF589832 GOB589832 GXX589832 HHT589832 HRP589832 IBL589832 ILH589832 IVD589832 JEZ589832 JOV589832 JYR589832 KIN589832 KSJ589832 LCF589832 LMB589832 LVX589832 MFT589832 MPP589832 MZL589832 NJH589832 NTD589832 OCZ589832 OMV589832 OWR589832 PGN589832 PQJ589832 QAF589832 QKB589832 QTX589832 RDT589832 RNP589832 RXL589832 SHH589832 SRD589832 TAZ589832 TKV589832 TUR589832 UEN589832 UOJ589832 UYF589832 VIB589832 VRX589832 WBT589832 WLP589832 WVL589832 D655368 IZ655368 SV655368 ACR655368 AMN655368 AWJ655368 BGF655368 BQB655368 BZX655368 CJT655368 CTP655368 DDL655368 DNH655368 DXD655368 EGZ655368 EQV655368 FAR655368 FKN655368 FUJ655368 GEF655368 GOB655368 GXX655368 HHT655368 HRP655368 IBL655368 ILH655368 IVD655368 JEZ655368 JOV655368 JYR655368 KIN655368 KSJ655368 LCF655368 LMB655368 LVX655368 MFT655368 MPP655368 MZL655368 NJH655368 NTD655368 OCZ655368 OMV655368 OWR655368 PGN655368 PQJ655368 QAF655368 QKB655368 QTX655368 RDT655368 RNP655368 RXL655368 SHH655368 SRD655368 TAZ655368 TKV655368 TUR655368 UEN655368 UOJ655368 UYF655368 VIB655368 VRX655368 WBT655368 WLP655368 WVL655368 D720904 IZ720904 SV720904 ACR720904 AMN720904 AWJ720904 BGF720904 BQB720904 BZX720904 CJT720904 CTP720904 DDL720904 DNH720904 DXD720904 EGZ720904 EQV720904 FAR720904 FKN720904 FUJ720904 GEF720904 GOB720904 GXX720904 HHT720904 HRP720904 IBL720904 ILH720904 IVD720904 JEZ720904 JOV720904 JYR720904 KIN720904 KSJ720904 LCF720904 LMB720904 LVX720904 MFT720904 MPP720904 MZL720904 NJH720904 NTD720904 OCZ720904 OMV720904 OWR720904 PGN720904 PQJ720904 QAF720904 QKB720904 QTX720904 RDT720904 RNP720904 RXL720904 SHH720904 SRD720904 TAZ720904 TKV720904 TUR720904 UEN720904 UOJ720904 UYF720904 VIB720904 VRX720904 WBT720904 WLP720904 WVL720904 D786440 IZ786440 SV786440 ACR786440 AMN786440 AWJ786440 BGF786440 BQB786440 BZX786440 CJT786440 CTP786440 DDL786440 DNH786440 DXD786440 EGZ786440 EQV786440 FAR786440 FKN786440 FUJ786440 GEF786440 GOB786440 GXX786440 HHT786440 HRP786440 IBL786440 ILH786440 IVD786440 JEZ786440 JOV786440 JYR786440 KIN786440 KSJ786440 LCF786440 LMB786440 LVX786440 MFT786440 MPP786440 MZL786440 NJH786440 NTD786440 OCZ786440 OMV786440 OWR786440 PGN786440 PQJ786440 QAF786440 QKB786440 QTX786440 RDT786440 RNP786440 RXL786440 SHH786440 SRD786440 TAZ786440 TKV786440 TUR786440 UEN786440 UOJ786440 UYF786440 VIB786440 VRX786440 WBT786440 WLP786440 WVL786440 D851976 IZ851976 SV851976 ACR851976 AMN851976 AWJ851976 BGF851976 BQB851976 BZX851976 CJT851976 CTP851976 DDL851976 DNH851976 DXD851976 EGZ851976 EQV851976 FAR851976 FKN851976 FUJ851976 GEF851976 GOB851976 GXX851976 HHT851976 HRP851976 IBL851976 ILH851976 IVD851976 JEZ851976 JOV851976 JYR851976 KIN851976 KSJ851976 LCF851976 LMB851976 LVX851976 MFT851976 MPP851976 MZL851976 NJH851976 NTD851976 OCZ851976 OMV851976 OWR851976 PGN851976 PQJ851976 QAF851976 QKB851976 QTX851976 RDT851976 RNP851976 RXL851976 SHH851976 SRD851976 TAZ851976 TKV851976 TUR851976 UEN851976 UOJ851976 UYF851976 VIB851976 VRX851976 WBT851976 WLP851976 WVL851976 D917512 IZ917512 SV917512 ACR917512 AMN917512 AWJ917512 BGF917512 BQB917512 BZX917512 CJT917512 CTP917512 DDL917512 DNH917512 DXD917512 EGZ917512 EQV917512 FAR917512 FKN917512 FUJ917512 GEF917512 GOB917512 GXX917512 HHT917512 HRP917512 IBL917512 ILH917512 IVD917512 JEZ917512 JOV917512 JYR917512 KIN917512 KSJ917512 LCF917512 LMB917512 LVX917512 MFT917512 MPP917512 MZL917512 NJH917512 NTD917512 OCZ917512 OMV917512 OWR917512 PGN917512 PQJ917512 QAF917512 QKB917512 QTX917512 RDT917512 RNP917512 RXL917512 SHH917512 SRD917512 TAZ917512 TKV917512 TUR917512 UEN917512 UOJ917512 UYF917512 VIB917512 VRX917512 WBT917512 WLP917512 WVL917512 D983048 IZ983048 SV983048 ACR983048 AMN983048 AWJ983048 BGF983048 BQB983048 BZX983048 CJT983048 CTP983048 DDL983048 DNH983048 DXD983048 EGZ983048 EQV983048 FAR983048 FKN983048 FUJ983048 GEF983048 GOB983048 GXX983048 HHT983048 HRP983048 IBL983048 ILH983048 IVD983048 JEZ983048 JOV983048 JYR983048 KIN983048 KSJ983048 LCF983048 LMB983048 LVX983048 MFT983048 MPP983048 MZL983048 NJH983048 NTD983048 OCZ983048 OMV983048 OWR983048 PGN983048 PQJ983048 QAF983048 QKB983048 QTX983048 RDT983048 RNP983048 RXL983048 SHH983048 SRD983048 TAZ983048 TKV983048 TUR983048 UEN983048 UOJ983048 UYF983048 VIB983048 VRX983048 WBT983048 WLP983048 WVL983048">
       <formula1>"1D,1W,1M,2M,3M,6M,1Y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 IZ24 SV24 ACR24 AMN24 AWJ24 BGF24 BQB24 BZX24 CJT24 CTP24 DDL24 DNH24 DXD24 EGZ24 EQV24 FAR24 FKN24 FUJ24 GEF24 GOB24 GXX24 HHT24 HRP24 IBL24 ILH24 IVD24 JEZ24 JOV24 JYR24 KIN24 KSJ24 LCF24 LMB24 LVX24 MFT24 MPP24 MZL24 NJH24 NTD24 OCZ24 OMV24 OWR24 PGN24 PQJ24 QAF24 QKB24 QTX24 RDT24 RNP24 RXL24 SHH24 SRD24 TAZ24 TKV24 TUR24 UEN24 UOJ24 UYF24 VIB24 VRX24 WBT24 WLP24 WVL24 D65560 IZ65560 SV65560 ACR65560 AMN65560 AWJ65560 BGF65560 BQB65560 BZX65560 CJT65560 CTP65560 DDL65560 DNH65560 DXD65560 EGZ65560 EQV65560 FAR65560 FKN65560 FUJ65560 GEF65560 GOB65560 GXX65560 HHT65560 HRP65560 IBL65560 ILH65560 IVD65560 JEZ65560 JOV65560 JYR65560 KIN65560 KSJ65560 LCF65560 LMB65560 LVX65560 MFT65560 MPP65560 MZL65560 NJH65560 NTD65560 OCZ65560 OMV65560 OWR65560 PGN65560 PQJ65560 QAF65560 QKB65560 QTX65560 RDT65560 RNP65560 RXL65560 SHH65560 SRD65560 TAZ65560 TKV65560 TUR65560 UEN65560 UOJ65560 UYF65560 VIB65560 VRX65560 WBT65560 WLP65560 WVL65560 D131096 IZ131096 SV131096 ACR131096 AMN131096 AWJ131096 BGF131096 BQB131096 BZX131096 CJT131096 CTP131096 DDL131096 DNH131096 DXD131096 EGZ131096 EQV131096 FAR131096 FKN131096 FUJ131096 GEF131096 GOB131096 GXX131096 HHT131096 HRP131096 IBL131096 ILH131096 IVD131096 JEZ131096 JOV131096 JYR131096 KIN131096 KSJ131096 LCF131096 LMB131096 LVX131096 MFT131096 MPP131096 MZL131096 NJH131096 NTD131096 OCZ131096 OMV131096 OWR131096 PGN131096 PQJ131096 QAF131096 QKB131096 QTX131096 RDT131096 RNP131096 RXL131096 SHH131096 SRD131096 TAZ131096 TKV131096 TUR131096 UEN131096 UOJ131096 UYF131096 VIB131096 VRX131096 WBT131096 WLP131096 WVL131096 D196632 IZ196632 SV196632 ACR196632 AMN196632 AWJ196632 BGF196632 BQB196632 BZX196632 CJT196632 CTP196632 DDL196632 DNH196632 DXD196632 EGZ196632 EQV196632 FAR196632 FKN196632 FUJ196632 GEF196632 GOB196632 GXX196632 HHT196632 HRP196632 IBL196632 ILH196632 IVD196632 JEZ196632 JOV196632 JYR196632 KIN196632 KSJ196632 LCF196632 LMB196632 LVX196632 MFT196632 MPP196632 MZL196632 NJH196632 NTD196632 OCZ196632 OMV196632 OWR196632 PGN196632 PQJ196632 QAF196632 QKB196632 QTX196632 RDT196632 RNP196632 RXL196632 SHH196632 SRD196632 TAZ196632 TKV196632 TUR196632 UEN196632 UOJ196632 UYF196632 VIB196632 VRX196632 WBT196632 WLP196632 WVL196632 D262168 IZ262168 SV262168 ACR262168 AMN262168 AWJ262168 BGF262168 BQB262168 BZX262168 CJT262168 CTP262168 DDL262168 DNH262168 DXD262168 EGZ262168 EQV262168 FAR262168 FKN262168 FUJ262168 GEF262168 GOB262168 GXX262168 HHT262168 HRP262168 IBL262168 ILH262168 IVD262168 JEZ262168 JOV262168 JYR262168 KIN262168 KSJ262168 LCF262168 LMB262168 LVX262168 MFT262168 MPP262168 MZL262168 NJH262168 NTD262168 OCZ262168 OMV262168 OWR262168 PGN262168 PQJ262168 QAF262168 QKB262168 QTX262168 RDT262168 RNP262168 RXL262168 SHH262168 SRD262168 TAZ262168 TKV262168 TUR262168 UEN262168 UOJ262168 UYF262168 VIB262168 VRX262168 WBT262168 WLP262168 WVL262168 D327704 IZ327704 SV327704 ACR327704 AMN327704 AWJ327704 BGF327704 BQB327704 BZX327704 CJT327704 CTP327704 DDL327704 DNH327704 DXD327704 EGZ327704 EQV327704 FAR327704 FKN327704 FUJ327704 GEF327704 GOB327704 GXX327704 HHT327704 HRP327704 IBL327704 ILH327704 IVD327704 JEZ327704 JOV327704 JYR327704 KIN327704 KSJ327704 LCF327704 LMB327704 LVX327704 MFT327704 MPP327704 MZL327704 NJH327704 NTD327704 OCZ327704 OMV327704 OWR327704 PGN327704 PQJ327704 QAF327704 QKB327704 QTX327704 RDT327704 RNP327704 RXL327704 SHH327704 SRD327704 TAZ327704 TKV327704 TUR327704 UEN327704 UOJ327704 UYF327704 VIB327704 VRX327704 WBT327704 WLP327704 WVL327704 D393240 IZ393240 SV393240 ACR393240 AMN393240 AWJ393240 BGF393240 BQB393240 BZX393240 CJT393240 CTP393240 DDL393240 DNH393240 DXD393240 EGZ393240 EQV393240 FAR393240 FKN393240 FUJ393240 GEF393240 GOB393240 GXX393240 HHT393240 HRP393240 IBL393240 ILH393240 IVD393240 JEZ393240 JOV393240 JYR393240 KIN393240 KSJ393240 LCF393240 LMB393240 LVX393240 MFT393240 MPP393240 MZL393240 NJH393240 NTD393240 OCZ393240 OMV393240 OWR393240 PGN393240 PQJ393240 QAF393240 QKB393240 QTX393240 RDT393240 RNP393240 RXL393240 SHH393240 SRD393240 TAZ393240 TKV393240 TUR393240 UEN393240 UOJ393240 UYF393240 VIB393240 VRX393240 WBT393240 WLP393240 WVL393240 D458776 IZ458776 SV458776 ACR458776 AMN458776 AWJ458776 BGF458776 BQB458776 BZX458776 CJT458776 CTP458776 DDL458776 DNH458776 DXD458776 EGZ458776 EQV458776 FAR458776 FKN458776 FUJ458776 GEF458776 GOB458776 GXX458776 HHT458776 HRP458776 IBL458776 ILH458776 IVD458776 JEZ458776 JOV458776 JYR458776 KIN458776 KSJ458776 LCF458776 LMB458776 LVX458776 MFT458776 MPP458776 MZL458776 NJH458776 NTD458776 OCZ458776 OMV458776 OWR458776 PGN458776 PQJ458776 QAF458776 QKB458776 QTX458776 RDT458776 RNP458776 RXL458776 SHH458776 SRD458776 TAZ458776 TKV458776 TUR458776 UEN458776 UOJ458776 UYF458776 VIB458776 VRX458776 WBT458776 WLP458776 WVL458776 D524312 IZ524312 SV524312 ACR524312 AMN524312 AWJ524312 BGF524312 BQB524312 BZX524312 CJT524312 CTP524312 DDL524312 DNH524312 DXD524312 EGZ524312 EQV524312 FAR524312 FKN524312 FUJ524312 GEF524312 GOB524312 GXX524312 HHT524312 HRP524312 IBL524312 ILH524312 IVD524312 JEZ524312 JOV524312 JYR524312 KIN524312 KSJ524312 LCF524312 LMB524312 LVX524312 MFT524312 MPP524312 MZL524312 NJH524312 NTD524312 OCZ524312 OMV524312 OWR524312 PGN524312 PQJ524312 QAF524312 QKB524312 QTX524312 RDT524312 RNP524312 RXL524312 SHH524312 SRD524312 TAZ524312 TKV524312 TUR524312 UEN524312 UOJ524312 UYF524312 VIB524312 VRX524312 WBT524312 WLP524312 WVL524312 D589848 IZ589848 SV589848 ACR589848 AMN589848 AWJ589848 BGF589848 BQB589848 BZX589848 CJT589848 CTP589848 DDL589848 DNH589848 DXD589848 EGZ589848 EQV589848 FAR589848 FKN589848 FUJ589848 GEF589848 GOB589848 GXX589848 HHT589848 HRP589848 IBL589848 ILH589848 IVD589848 JEZ589848 JOV589848 JYR589848 KIN589848 KSJ589848 LCF589848 LMB589848 LVX589848 MFT589848 MPP589848 MZL589848 NJH589848 NTD589848 OCZ589848 OMV589848 OWR589848 PGN589848 PQJ589848 QAF589848 QKB589848 QTX589848 RDT589848 RNP589848 RXL589848 SHH589848 SRD589848 TAZ589848 TKV589848 TUR589848 UEN589848 UOJ589848 UYF589848 VIB589848 VRX589848 WBT589848 WLP589848 WVL589848 D655384 IZ655384 SV655384 ACR655384 AMN655384 AWJ655384 BGF655384 BQB655384 BZX655384 CJT655384 CTP655384 DDL655384 DNH655384 DXD655384 EGZ655384 EQV655384 FAR655384 FKN655384 FUJ655384 GEF655384 GOB655384 GXX655384 HHT655384 HRP655384 IBL655384 ILH655384 IVD655384 JEZ655384 JOV655384 JYR655384 KIN655384 KSJ655384 LCF655384 LMB655384 LVX655384 MFT655384 MPP655384 MZL655384 NJH655384 NTD655384 OCZ655384 OMV655384 OWR655384 PGN655384 PQJ655384 QAF655384 QKB655384 QTX655384 RDT655384 RNP655384 RXL655384 SHH655384 SRD655384 TAZ655384 TKV655384 TUR655384 UEN655384 UOJ655384 UYF655384 VIB655384 VRX655384 WBT655384 WLP655384 WVL655384 D720920 IZ720920 SV720920 ACR720920 AMN720920 AWJ720920 BGF720920 BQB720920 BZX720920 CJT720920 CTP720920 DDL720920 DNH720920 DXD720920 EGZ720920 EQV720920 FAR720920 FKN720920 FUJ720920 GEF720920 GOB720920 GXX720920 HHT720920 HRP720920 IBL720920 ILH720920 IVD720920 JEZ720920 JOV720920 JYR720920 KIN720920 KSJ720920 LCF720920 LMB720920 LVX720920 MFT720920 MPP720920 MZL720920 NJH720920 NTD720920 OCZ720920 OMV720920 OWR720920 PGN720920 PQJ720920 QAF720920 QKB720920 QTX720920 RDT720920 RNP720920 RXL720920 SHH720920 SRD720920 TAZ720920 TKV720920 TUR720920 UEN720920 UOJ720920 UYF720920 VIB720920 VRX720920 WBT720920 WLP720920 WVL720920 D786456 IZ786456 SV786456 ACR786456 AMN786456 AWJ786456 BGF786456 BQB786456 BZX786456 CJT786456 CTP786456 DDL786456 DNH786456 DXD786456 EGZ786456 EQV786456 FAR786456 FKN786456 FUJ786456 GEF786456 GOB786456 GXX786456 HHT786456 HRP786456 IBL786456 ILH786456 IVD786456 JEZ786456 JOV786456 JYR786456 KIN786456 KSJ786456 LCF786456 LMB786456 LVX786456 MFT786456 MPP786456 MZL786456 NJH786456 NTD786456 OCZ786456 OMV786456 OWR786456 PGN786456 PQJ786456 QAF786456 QKB786456 QTX786456 RDT786456 RNP786456 RXL786456 SHH786456 SRD786456 TAZ786456 TKV786456 TUR786456 UEN786456 UOJ786456 UYF786456 VIB786456 VRX786456 WBT786456 WLP786456 WVL786456 D851992 IZ851992 SV851992 ACR851992 AMN851992 AWJ851992 BGF851992 BQB851992 BZX851992 CJT851992 CTP851992 DDL851992 DNH851992 DXD851992 EGZ851992 EQV851992 FAR851992 FKN851992 FUJ851992 GEF851992 GOB851992 GXX851992 HHT851992 HRP851992 IBL851992 ILH851992 IVD851992 JEZ851992 JOV851992 JYR851992 KIN851992 KSJ851992 LCF851992 LMB851992 LVX851992 MFT851992 MPP851992 MZL851992 NJH851992 NTD851992 OCZ851992 OMV851992 OWR851992 PGN851992 PQJ851992 QAF851992 QKB851992 QTX851992 RDT851992 RNP851992 RXL851992 SHH851992 SRD851992 TAZ851992 TKV851992 TUR851992 UEN851992 UOJ851992 UYF851992 VIB851992 VRX851992 WBT851992 WLP851992 WVL851992 D917528 IZ917528 SV917528 ACR917528 AMN917528 AWJ917528 BGF917528 BQB917528 BZX917528 CJT917528 CTP917528 DDL917528 DNH917528 DXD917528 EGZ917528 EQV917528 FAR917528 FKN917528 FUJ917528 GEF917528 GOB917528 GXX917528 HHT917528 HRP917528 IBL917528 ILH917528 IVD917528 JEZ917528 JOV917528 JYR917528 KIN917528 KSJ917528 LCF917528 LMB917528 LVX917528 MFT917528 MPP917528 MZL917528 NJH917528 NTD917528 OCZ917528 OMV917528 OWR917528 PGN917528 PQJ917528 QAF917528 QKB917528 QTX917528 RDT917528 RNP917528 RXL917528 SHH917528 SRD917528 TAZ917528 TKV917528 TUR917528 UEN917528 UOJ917528 UYF917528 VIB917528 VRX917528 WBT917528 WLP917528 WVL917528 D983064 IZ983064 SV983064 ACR983064 AMN983064 AWJ983064 BGF983064 BQB983064 BZX983064 CJT983064 CTP983064 DDL983064 DNH983064 DXD983064 EGZ983064 EQV983064 FAR983064 FKN983064 FUJ983064 GEF983064 GOB983064 GXX983064 HHT983064 HRP983064 IBL983064 ILH983064 IVD983064 JEZ983064 JOV983064 JYR983064 KIN983064 KSJ983064 LCF983064 LMB983064 LVX983064 MFT983064 MPP983064 MZL983064 NJH983064 NTD983064 OCZ983064 OMV983064 OWR983064 PGN983064 PQJ983064 QAF983064 QKB983064 QTX983064 RDT983064 RNP983064 RXL983064 SHH983064 SRD983064 TAZ983064 TKV983064 TUR983064 UEN983064 UOJ983064 UYF983064 VIB983064 VRX983064 WBT983064 WLP983064 WVL983064">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 IZ24 SV24 ACR24 AMN24 AWJ24 BGF24 BQB24 BZX24 CJT24 CTP24 DDL24 DNH24 DXD24 EGZ24 EQV24 FAR24 FKN24 FUJ24 GEF24 GOB24 GXX24 HHT24 HRP24 IBL24 ILH24 IVD24 JEZ24 JOV24 JYR24 KIN24 KSJ24 LCF24 LMB24 LVX24 MFT24 MPP24 MZL24 NJH24 NTD24 OCZ24 OMV24 OWR24 PGN24 PQJ24 QAF24 QKB24 QTX24 RDT24 RNP24 RXL24 SHH24 SRD24 TAZ24 TKV24 TUR24 UEN24 UOJ24 UYF24 VIB24 VRX24 WBT24 WLP24 WVL24 D65562 IZ65562 SV65562 ACR65562 AMN65562 AWJ65562 BGF65562 BQB65562 BZX65562 CJT65562 CTP65562 DDL65562 DNH65562 DXD65562 EGZ65562 EQV65562 FAR65562 FKN65562 FUJ65562 GEF65562 GOB65562 GXX65562 HHT65562 HRP65562 IBL65562 ILH65562 IVD65562 JEZ65562 JOV65562 JYR65562 KIN65562 KSJ65562 LCF65562 LMB65562 LVX65562 MFT65562 MPP65562 MZL65562 NJH65562 NTD65562 OCZ65562 OMV65562 OWR65562 PGN65562 PQJ65562 QAF65562 QKB65562 QTX65562 RDT65562 RNP65562 RXL65562 SHH65562 SRD65562 TAZ65562 TKV65562 TUR65562 UEN65562 UOJ65562 UYF65562 VIB65562 VRX65562 WBT65562 WLP65562 WVL65562 D131098 IZ131098 SV131098 ACR131098 AMN131098 AWJ131098 BGF131098 BQB131098 BZX131098 CJT131098 CTP131098 DDL131098 DNH131098 DXD131098 EGZ131098 EQV131098 FAR131098 FKN131098 FUJ131098 GEF131098 GOB131098 GXX131098 HHT131098 HRP131098 IBL131098 ILH131098 IVD131098 JEZ131098 JOV131098 JYR131098 KIN131098 KSJ131098 LCF131098 LMB131098 LVX131098 MFT131098 MPP131098 MZL131098 NJH131098 NTD131098 OCZ131098 OMV131098 OWR131098 PGN131098 PQJ131098 QAF131098 QKB131098 QTX131098 RDT131098 RNP131098 RXL131098 SHH131098 SRD131098 TAZ131098 TKV131098 TUR131098 UEN131098 UOJ131098 UYF131098 VIB131098 VRX131098 WBT131098 WLP131098 WVL131098 D196634 IZ196634 SV196634 ACR196634 AMN196634 AWJ196634 BGF196634 BQB196634 BZX196634 CJT196634 CTP196634 DDL196634 DNH196634 DXD196634 EGZ196634 EQV196634 FAR196634 FKN196634 FUJ196634 GEF196634 GOB196634 GXX196634 HHT196634 HRP196634 IBL196634 ILH196634 IVD196634 JEZ196634 JOV196634 JYR196634 KIN196634 KSJ196634 LCF196634 LMB196634 LVX196634 MFT196634 MPP196634 MZL196634 NJH196634 NTD196634 OCZ196634 OMV196634 OWR196634 PGN196634 PQJ196634 QAF196634 QKB196634 QTX196634 RDT196634 RNP196634 RXL196634 SHH196634 SRD196634 TAZ196634 TKV196634 TUR196634 UEN196634 UOJ196634 UYF196634 VIB196634 VRX196634 WBT196634 WLP196634 WVL196634 D262170 IZ262170 SV262170 ACR262170 AMN262170 AWJ262170 BGF262170 BQB262170 BZX262170 CJT262170 CTP262170 DDL262170 DNH262170 DXD262170 EGZ262170 EQV262170 FAR262170 FKN262170 FUJ262170 GEF262170 GOB262170 GXX262170 HHT262170 HRP262170 IBL262170 ILH262170 IVD262170 JEZ262170 JOV262170 JYR262170 KIN262170 KSJ262170 LCF262170 LMB262170 LVX262170 MFT262170 MPP262170 MZL262170 NJH262170 NTD262170 OCZ262170 OMV262170 OWR262170 PGN262170 PQJ262170 QAF262170 QKB262170 QTX262170 RDT262170 RNP262170 RXL262170 SHH262170 SRD262170 TAZ262170 TKV262170 TUR262170 UEN262170 UOJ262170 UYF262170 VIB262170 VRX262170 WBT262170 WLP262170 WVL262170 D327706 IZ327706 SV327706 ACR327706 AMN327706 AWJ327706 BGF327706 BQB327706 BZX327706 CJT327706 CTP327706 DDL327706 DNH327706 DXD327706 EGZ327706 EQV327706 FAR327706 FKN327706 FUJ327706 GEF327706 GOB327706 GXX327706 HHT327706 HRP327706 IBL327706 ILH327706 IVD327706 JEZ327706 JOV327706 JYR327706 KIN327706 KSJ327706 LCF327706 LMB327706 LVX327706 MFT327706 MPP327706 MZL327706 NJH327706 NTD327706 OCZ327706 OMV327706 OWR327706 PGN327706 PQJ327706 QAF327706 QKB327706 QTX327706 RDT327706 RNP327706 RXL327706 SHH327706 SRD327706 TAZ327706 TKV327706 TUR327706 UEN327706 UOJ327706 UYF327706 VIB327706 VRX327706 WBT327706 WLP327706 WVL327706 D393242 IZ393242 SV393242 ACR393242 AMN393242 AWJ393242 BGF393242 BQB393242 BZX393242 CJT393242 CTP393242 DDL393242 DNH393242 DXD393242 EGZ393242 EQV393242 FAR393242 FKN393242 FUJ393242 GEF393242 GOB393242 GXX393242 HHT393242 HRP393242 IBL393242 ILH393242 IVD393242 JEZ393242 JOV393242 JYR393242 KIN393242 KSJ393242 LCF393242 LMB393242 LVX393242 MFT393242 MPP393242 MZL393242 NJH393242 NTD393242 OCZ393242 OMV393242 OWR393242 PGN393242 PQJ393242 QAF393242 QKB393242 QTX393242 RDT393242 RNP393242 RXL393242 SHH393242 SRD393242 TAZ393242 TKV393242 TUR393242 UEN393242 UOJ393242 UYF393242 VIB393242 VRX393242 WBT393242 WLP393242 WVL393242 D458778 IZ458778 SV458778 ACR458778 AMN458778 AWJ458778 BGF458778 BQB458778 BZX458778 CJT458778 CTP458778 DDL458778 DNH458778 DXD458778 EGZ458778 EQV458778 FAR458778 FKN458778 FUJ458778 GEF458778 GOB458778 GXX458778 HHT458778 HRP458778 IBL458778 ILH458778 IVD458778 JEZ458778 JOV458778 JYR458778 KIN458778 KSJ458778 LCF458778 LMB458778 LVX458778 MFT458778 MPP458778 MZL458778 NJH458778 NTD458778 OCZ458778 OMV458778 OWR458778 PGN458778 PQJ458778 QAF458778 QKB458778 QTX458778 RDT458778 RNP458778 RXL458778 SHH458778 SRD458778 TAZ458778 TKV458778 TUR458778 UEN458778 UOJ458778 UYF458778 VIB458778 VRX458778 WBT458778 WLP458778 WVL458778 D524314 IZ524314 SV524314 ACR524314 AMN524314 AWJ524314 BGF524314 BQB524314 BZX524314 CJT524314 CTP524314 DDL524314 DNH524314 DXD524314 EGZ524314 EQV524314 FAR524314 FKN524314 FUJ524314 GEF524314 GOB524314 GXX524314 HHT524314 HRP524314 IBL524314 ILH524314 IVD524314 JEZ524314 JOV524314 JYR524314 KIN524314 KSJ524314 LCF524314 LMB524314 LVX524314 MFT524314 MPP524314 MZL524314 NJH524314 NTD524314 OCZ524314 OMV524314 OWR524314 PGN524314 PQJ524314 QAF524314 QKB524314 QTX524314 RDT524314 RNP524314 RXL524314 SHH524314 SRD524314 TAZ524314 TKV524314 TUR524314 UEN524314 UOJ524314 UYF524314 VIB524314 VRX524314 WBT524314 WLP524314 WVL524314 D589850 IZ589850 SV589850 ACR589850 AMN589850 AWJ589850 BGF589850 BQB589850 BZX589850 CJT589850 CTP589850 DDL589850 DNH589850 DXD589850 EGZ589850 EQV589850 FAR589850 FKN589850 FUJ589850 GEF589850 GOB589850 GXX589850 HHT589850 HRP589850 IBL589850 ILH589850 IVD589850 JEZ589850 JOV589850 JYR589850 KIN589850 KSJ589850 LCF589850 LMB589850 LVX589850 MFT589850 MPP589850 MZL589850 NJH589850 NTD589850 OCZ589850 OMV589850 OWR589850 PGN589850 PQJ589850 QAF589850 QKB589850 QTX589850 RDT589850 RNP589850 RXL589850 SHH589850 SRD589850 TAZ589850 TKV589850 TUR589850 UEN589850 UOJ589850 UYF589850 VIB589850 VRX589850 WBT589850 WLP589850 WVL589850 D655386 IZ655386 SV655386 ACR655386 AMN655386 AWJ655386 BGF655386 BQB655386 BZX655386 CJT655386 CTP655386 DDL655386 DNH655386 DXD655386 EGZ655386 EQV655386 FAR655386 FKN655386 FUJ655386 GEF655386 GOB655386 GXX655386 HHT655386 HRP655386 IBL655386 ILH655386 IVD655386 JEZ655386 JOV655386 JYR655386 KIN655386 KSJ655386 LCF655386 LMB655386 LVX655386 MFT655386 MPP655386 MZL655386 NJH655386 NTD655386 OCZ655386 OMV655386 OWR655386 PGN655386 PQJ655386 QAF655386 QKB655386 QTX655386 RDT655386 RNP655386 RXL655386 SHH655386 SRD655386 TAZ655386 TKV655386 TUR655386 UEN655386 UOJ655386 UYF655386 VIB655386 VRX655386 WBT655386 WLP655386 WVL655386 D720922 IZ720922 SV720922 ACR720922 AMN720922 AWJ720922 BGF720922 BQB720922 BZX720922 CJT720922 CTP720922 DDL720922 DNH720922 DXD720922 EGZ720922 EQV720922 FAR720922 FKN720922 FUJ720922 GEF720922 GOB720922 GXX720922 HHT720922 HRP720922 IBL720922 ILH720922 IVD720922 JEZ720922 JOV720922 JYR720922 KIN720922 KSJ720922 LCF720922 LMB720922 LVX720922 MFT720922 MPP720922 MZL720922 NJH720922 NTD720922 OCZ720922 OMV720922 OWR720922 PGN720922 PQJ720922 QAF720922 QKB720922 QTX720922 RDT720922 RNP720922 RXL720922 SHH720922 SRD720922 TAZ720922 TKV720922 TUR720922 UEN720922 UOJ720922 UYF720922 VIB720922 VRX720922 WBT720922 WLP720922 WVL720922 D786458 IZ786458 SV786458 ACR786458 AMN786458 AWJ786458 BGF786458 BQB786458 BZX786458 CJT786458 CTP786458 DDL786458 DNH786458 DXD786458 EGZ786458 EQV786458 FAR786458 FKN786458 FUJ786458 GEF786458 GOB786458 GXX786458 HHT786458 HRP786458 IBL786458 ILH786458 IVD786458 JEZ786458 JOV786458 JYR786458 KIN786458 KSJ786458 LCF786458 LMB786458 LVX786458 MFT786458 MPP786458 MZL786458 NJH786458 NTD786458 OCZ786458 OMV786458 OWR786458 PGN786458 PQJ786458 QAF786458 QKB786458 QTX786458 RDT786458 RNP786458 RXL786458 SHH786458 SRD786458 TAZ786458 TKV786458 TUR786458 UEN786458 UOJ786458 UYF786458 VIB786458 VRX786458 WBT786458 WLP786458 WVL786458 D851994 IZ851994 SV851994 ACR851994 AMN851994 AWJ851994 BGF851994 BQB851994 BZX851994 CJT851994 CTP851994 DDL851994 DNH851994 DXD851994 EGZ851994 EQV851994 FAR851994 FKN851994 FUJ851994 GEF851994 GOB851994 GXX851994 HHT851994 HRP851994 IBL851994 ILH851994 IVD851994 JEZ851994 JOV851994 JYR851994 KIN851994 KSJ851994 LCF851994 LMB851994 LVX851994 MFT851994 MPP851994 MZL851994 NJH851994 NTD851994 OCZ851994 OMV851994 OWR851994 PGN851994 PQJ851994 QAF851994 QKB851994 QTX851994 RDT851994 RNP851994 RXL851994 SHH851994 SRD851994 TAZ851994 TKV851994 TUR851994 UEN851994 UOJ851994 UYF851994 VIB851994 VRX851994 WBT851994 WLP851994 WVL851994 D917530 IZ917530 SV917530 ACR917530 AMN917530 AWJ917530 BGF917530 BQB917530 BZX917530 CJT917530 CTP917530 DDL917530 DNH917530 DXD917530 EGZ917530 EQV917530 FAR917530 FKN917530 FUJ917530 GEF917530 GOB917530 GXX917530 HHT917530 HRP917530 IBL917530 ILH917530 IVD917530 JEZ917530 JOV917530 JYR917530 KIN917530 KSJ917530 LCF917530 LMB917530 LVX917530 MFT917530 MPP917530 MZL917530 NJH917530 NTD917530 OCZ917530 OMV917530 OWR917530 PGN917530 PQJ917530 QAF917530 QKB917530 QTX917530 RDT917530 RNP917530 RXL917530 SHH917530 SRD917530 TAZ917530 TKV917530 TUR917530 UEN917530 UOJ917530 UYF917530 VIB917530 VRX917530 WBT917530 WLP917530 WVL917530 D983066 IZ983066 SV983066 ACR983066 AMN983066 AWJ983066 BGF983066 BQB983066 BZX983066 CJT983066 CTP983066 DDL983066 DNH983066 DXD983066 EGZ983066 EQV983066 FAR983066 FKN983066 FUJ983066 GEF983066 GOB983066 GXX983066 HHT983066 HRP983066 IBL983066 ILH983066 IVD983066 JEZ983066 JOV983066 JYR983066 KIN983066 KSJ983066 LCF983066 LMB983066 LVX983066 MFT983066 MPP983066 MZL983066 NJH983066 NTD983066 OCZ983066 OMV983066 OWR983066 PGN983066 PQJ983066 QAF983066 QKB983066 QTX983066 RDT983066 RNP983066 RXL983066 SHH983066 SRD983066 TAZ983066 TKV983066 TUR983066 UEN983066 UOJ983066 UYF983066 VIB983066 VRX983066 WBT983066 WLP983066 WVL983066">
       <formula1>"Discount,ZeroYield,ForwardRate"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 IZ19 SV19 ACR19 AMN19 AWJ19 BGF19 BQB19 BZX19 CJT19 CTP19 DDL19 DNH19 DXD19 EGZ19 EQV19 FAR19 FKN19 FUJ19 GEF19 GOB19 GXX19 HHT19 HRP19 IBL19 ILH19 IVD19 JEZ19 JOV19 JYR19 KIN19 KSJ19 LCF19 LMB19 LVX19 MFT19 MPP19 MZL19 NJH19 NTD19 OCZ19 OMV19 OWR19 PGN19 PQJ19 QAF19 QKB19 QTX19 RDT19 RNP19 RXL19 SHH19 SRD19 TAZ19 TKV19 TUR19 UEN19 UOJ19 UYF19 VIB19 VRX19 WBT19 WLP19 WVL19 D65555 IZ65555 SV65555 ACR65555 AMN65555 AWJ65555 BGF65555 BQB65555 BZX65555 CJT65555 CTP65555 DDL65555 DNH65555 DXD65555 EGZ65555 EQV65555 FAR65555 FKN65555 FUJ65555 GEF65555 GOB65555 GXX65555 HHT65555 HRP65555 IBL65555 ILH65555 IVD65555 JEZ65555 JOV65555 JYR65555 KIN65555 KSJ65555 LCF65555 LMB65555 LVX65555 MFT65555 MPP65555 MZL65555 NJH65555 NTD65555 OCZ65555 OMV65555 OWR65555 PGN65555 PQJ65555 QAF65555 QKB65555 QTX65555 RDT65555 RNP65555 RXL65555 SHH65555 SRD65555 TAZ65555 TKV65555 TUR65555 UEN65555 UOJ65555 UYF65555 VIB65555 VRX65555 WBT65555 WLP65555 WVL65555 D131091 IZ131091 SV131091 ACR131091 AMN131091 AWJ131091 BGF131091 BQB131091 BZX131091 CJT131091 CTP131091 DDL131091 DNH131091 DXD131091 EGZ131091 EQV131091 FAR131091 FKN131091 FUJ131091 GEF131091 GOB131091 GXX131091 HHT131091 HRP131091 IBL131091 ILH131091 IVD131091 JEZ131091 JOV131091 JYR131091 KIN131091 KSJ131091 LCF131091 LMB131091 LVX131091 MFT131091 MPP131091 MZL131091 NJH131091 NTD131091 OCZ131091 OMV131091 OWR131091 PGN131091 PQJ131091 QAF131091 QKB131091 QTX131091 RDT131091 RNP131091 RXL131091 SHH131091 SRD131091 TAZ131091 TKV131091 TUR131091 UEN131091 UOJ131091 UYF131091 VIB131091 VRX131091 WBT131091 WLP131091 WVL131091 D196627 IZ196627 SV196627 ACR196627 AMN196627 AWJ196627 BGF196627 BQB196627 BZX196627 CJT196627 CTP196627 DDL196627 DNH196627 DXD196627 EGZ196627 EQV196627 FAR196627 FKN196627 FUJ196627 GEF196627 GOB196627 GXX196627 HHT196627 HRP196627 IBL196627 ILH196627 IVD196627 JEZ196627 JOV196627 JYR196627 KIN196627 KSJ196627 LCF196627 LMB196627 LVX196627 MFT196627 MPP196627 MZL196627 NJH196627 NTD196627 OCZ196627 OMV196627 OWR196627 PGN196627 PQJ196627 QAF196627 QKB196627 QTX196627 RDT196627 RNP196627 RXL196627 SHH196627 SRD196627 TAZ196627 TKV196627 TUR196627 UEN196627 UOJ196627 UYF196627 VIB196627 VRX196627 WBT196627 WLP196627 WVL196627 D262163 IZ262163 SV262163 ACR262163 AMN262163 AWJ262163 BGF262163 BQB262163 BZX262163 CJT262163 CTP262163 DDL262163 DNH262163 DXD262163 EGZ262163 EQV262163 FAR262163 FKN262163 FUJ262163 GEF262163 GOB262163 GXX262163 HHT262163 HRP262163 IBL262163 ILH262163 IVD262163 JEZ262163 JOV262163 JYR262163 KIN262163 KSJ262163 LCF262163 LMB262163 LVX262163 MFT262163 MPP262163 MZL262163 NJH262163 NTD262163 OCZ262163 OMV262163 OWR262163 PGN262163 PQJ262163 QAF262163 QKB262163 QTX262163 RDT262163 RNP262163 RXL262163 SHH262163 SRD262163 TAZ262163 TKV262163 TUR262163 UEN262163 UOJ262163 UYF262163 VIB262163 VRX262163 WBT262163 WLP262163 WVL262163 D327699 IZ327699 SV327699 ACR327699 AMN327699 AWJ327699 BGF327699 BQB327699 BZX327699 CJT327699 CTP327699 DDL327699 DNH327699 DXD327699 EGZ327699 EQV327699 FAR327699 FKN327699 FUJ327699 GEF327699 GOB327699 GXX327699 HHT327699 HRP327699 IBL327699 ILH327699 IVD327699 JEZ327699 JOV327699 JYR327699 KIN327699 KSJ327699 LCF327699 LMB327699 LVX327699 MFT327699 MPP327699 MZL327699 NJH327699 NTD327699 OCZ327699 OMV327699 OWR327699 PGN327699 PQJ327699 QAF327699 QKB327699 QTX327699 RDT327699 RNP327699 RXL327699 SHH327699 SRD327699 TAZ327699 TKV327699 TUR327699 UEN327699 UOJ327699 UYF327699 VIB327699 VRX327699 WBT327699 WLP327699 WVL327699 D393235 IZ393235 SV393235 ACR393235 AMN393235 AWJ393235 BGF393235 BQB393235 BZX393235 CJT393235 CTP393235 DDL393235 DNH393235 DXD393235 EGZ393235 EQV393235 FAR393235 FKN393235 FUJ393235 GEF393235 GOB393235 GXX393235 HHT393235 HRP393235 IBL393235 ILH393235 IVD393235 JEZ393235 JOV393235 JYR393235 KIN393235 KSJ393235 LCF393235 LMB393235 LVX393235 MFT393235 MPP393235 MZL393235 NJH393235 NTD393235 OCZ393235 OMV393235 OWR393235 PGN393235 PQJ393235 QAF393235 QKB393235 QTX393235 RDT393235 RNP393235 RXL393235 SHH393235 SRD393235 TAZ393235 TKV393235 TUR393235 UEN393235 UOJ393235 UYF393235 VIB393235 VRX393235 WBT393235 WLP393235 WVL393235 D458771 IZ458771 SV458771 ACR458771 AMN458771 AWJ458771 BGF458771 BQB458771 BZX458771 CJT458771 CTP458771 DDL458771 DNH458771 DXD458771 EGZ458771 EQV458771 FAR458771 FKN458771 FUJ458771 GEF458771 GOB458771 GXX458771 HHT458771 HRP458771 IBL458771 ILH458771 IVD458771 JEZ458771 JOV458771 JYR458771 KIN458771 KSJ458771 LCF458771 LMB458771 LVX458771 MFT458771 MPP458771 MZL458771 NJH458771 NTD458771 OCZ458771 OMV458771 OWR458771 PGN458771 PQJ458771 QAF458771 QKB458771 QTX458771 RDT458771 RNP458771 RXL458771 SHH458771 SRD458771 TAZ458771 TKV458771 TUR458771 UEN458771 UOJ458771 UYF458771 VIB458771 VRX458771 WBT458771 WLP458771 WVL458771 D524307 IZ524307 SV524307 ACR524307 AMN524307 AWJ524307 BGF524307 BQB524307 BZX524307 CJT524307 CTP524307 DDL524307 DNH524307 DXD524307 EGZ524307 EQV524307 FAR524307 FKN524307 FUJ524307 GEF524307 GOB524307 GXX524307 HHT524307 HRP524307 IBL524307 ILH524307 IVD524307 JEZ524307 JOV524307 JYR524307 KIN524307 KSJ524307 LCF524307 LMB524307 LVX524307 MFT524307 MPP524307 MZL524307 NJH524307 NTD524307 OCZ524307 OMV524307 OWR524307 PGN524307 PQJ524307 QAF524307 QKB524307 QTX524307 RDT524307 RNP524307 RXL524307 SHH524307 SRD524307 TAZ524307 TKV524307 TUR524307 UEN524307 UOJ524307 UYF524307 VIB524307 VRX524307 WBT524307 WLP524307 WVL524307 D589843 IZ589843 SV589843 ACR589843 AMN589843 AWJ589843 BGF589843 BQB589843 BZX589843 CJT589843 CTP589843 DDL589843 DNH589843 DXD589843 EGZ589843 EQV589843 FAR589843 FKN589843 FUJ589843 GEF589843 GOB589843 GXX589843 HHT589843 HRP589843 IBL589843 ILH589843 IVD589843 JEZ589843 JOV589843 JYR589843 KIN589843 KSJ589843 LCF589843 LMB589843 LVX589843 MFT589843 MPP589843 MZL589843 NJH589843 NTD589843 OCZ589843 OMV589843 OWR589843 PGN589843 PQJ589843 QAF589843 QKB589843 QTX589843 RDT589843 RNP589843 RXL589843 SHH589843 SRD589843 TAZ589843 TKV589843 TUR589843 UEN589843 UOJ589843 UYF589843 VIB589843 VRX589843 WBT589843 WLP589843 WVL589843 D655379 IZ655379 SV655379 ACR655379 AMN655379 AWJ655379 BGF655379 BQB655379 BZX655379 CJT655379 CTP655379 DDL655379 DNH655379 DXD655379 EGZ655379 EQV655379 FAR655379 FKN655379 FUJ655379 GEF655379 GOB655379 GXX655379 HHT655379 HRP655379 IBL655379 ILH655379 IVD655379 JEZ655379 JOV655379 JYR655379 KIN655379 KSJ655379 LCF655379 LMB655379 LVX655379 MFT655379 MPP655379 MZL655379 NJH655379 NTD655379 OCZ655379 OMV655379 OWR655379 PGN655379 PQJ655379 QAF655379 QKB655379 QTX655379 RDT655379 RNP655379 RXL655379 SHH655379 SRD655379 TAZ655379 TKV655379 TUR655379 UEN655379 UOJ655379 UYF655379 VIB655379 VRX655379 WBT655379 WLP655379 WVL655379 D720915 IZ720915 SV720915 ACR720915 AMN720915 AWJ720915 BGF720915 BQB720915 BZX720915 CJT720915 CTP720915 DDL720915 DNH720915 DXD720915 EGZ720915 EQV720915 FAR720915 FKN720915 FUJ720915 GEF720915 GOB720915 GXX720915 HHT720915 HRP720915 IBL720915 ILH720915 IVD720915 JEZ720915 JOV720915 JYR720915 KIN720915 KSJ720915 LCF720915 LMB720915 LVX720915 MFT720915 MPP720915 MZL720915 NJH720915 NTD720915 OCZ720915 OMV720915 OWR720915 PGN720915 PQJ720915 QAF720915 QKB720915 QTX720915 RDT720915 RNP720915 RXL720915 SHH720915 SRD720915 TAZ720915 TKV720915 TUR720915 UEN720915 UOJ720915 UYF720915 VIB720915 VRX720915 WBT720915 WLP720915 WVL720915 D786451 IZ786451 SV786451 ACR786451 AMN786451 AWJ786451 BGF786451 BQB786451 BZX786451 CJT786451 CTP786451 DDL786451 DNH786451 DXD786451 EGZ786451 EQV786451 FAR786451 FKN786451 FUJ786451 GEF786451 GOB786451 GXX786451 HHT786451 HRP786451 IBL786451 ILH786451 IVD786451 JEZ786451 JOV786451 JYR786451 KIN786451 KSJ786451 LCF786451 LMB786451 LVX786451 MFT786451 MPP786451 MZL786451 NJH786451 NTD786451 OCZ786451 OMV786451 OWR786451 PGN786451 PQJ786451 QAF786451 QKB786451 QTX786451 RDT786451 RNP786451 RXL786451 SHH786451 SRD786451 TAZ786451 TKV786451 TUR786451 UEN786451 UOJ786451 UYF786451 VIB786451 VRX786451 WBT786451 WLP786451 WVL786451 D851987 IZ851987 SV851987 ACR851987 AMN851987 AWJ851987 BGF851987 BQB851987 BZX851987 CJT851987 CTP851987 DDL851987 DNH851987 DXD851987 EGZ851987 EQV851987 FAR851987 FKN851987 FUJ851987 GEF851987 GOB851987 GXX851987 HHT851987 HRP851987 IBL851987 ILH851987 IVD851987 JEZ851987 JOV851987 JYR851987 KIN851987 KSJ851987 LCF851987 LMB851987 LVX851987 MFT851987 MPP851987 MZL851987 NJH851987 NTD851987 OCZ851987 OMV851987 OWR851987 PGN851987 PQJ851987 QAF851987 QKB851987 QTX851987 RDT851987 RNP851987 RXL851987 SHH851987 SRD851987 TAZ851987 TKV851987 TUR851987 UEN851987 UOJ851987 UYF851987 VIB851987 VRX851987 WBT851987 WLP851987 WVL851987 D917523 IZ917523 SV917523 ACR917523 AMN917523 AWJ917523 BGF917523 BQB917523 BZX917523 CJT917523 CTP917523 DDL917523 DNH917523 DXD917523 EGZ917523 EQV917523 FAR917523 FKN917523 FUJ917523 GEF917523 GOB917523 GXX917523 HHT917523 HRP917523 IBL917523 ILH917523 IVD917523 JEZ917523 JOV917523 JYR917523 KIN917523 KSJ917523 LCF917523 LMB917523 LVX917523 MFT917523 MPP917523 MZL917523 NJH917523 NTD917523 OCZ917523 OMV917523 OWR917523 PGN917523 PQJ917523 QAF917523 QKB917523 QTX917523 RDT917523 RNP917523 RXL917523 SHH917523 SRD917523 TAZ917523 TKV917523 TUR917523 UEN917523 UOJ917523 UYF917523 VIB917523 VRX917523 WBT917523 WLP917523 WVL917523 D983059 IZ983059 SV983059 ACR983059 AMN983059 AWJ983059 BGF983059 BQB983059 BZX983059 CJT983059 CTP983059 DDL983059 DNH983059 DXD983059 EGZ983059 EQV983059 FAR983059 FKN983059 FUJ983059 GEF983059 GOB983059 GXX983059 HHT983059 HRP983059 IBL983059 ILH983059 IVD983059 JEZ983059 JOV983059 JYR983059 KIN983059 KSJ983059 LCF983059 LMB983059 LVX983059 MFT983059 MPP983059 MZL983059 NJH983059 NTD983059 OCZ983059 OMV983059 OWR983059 PGN983059 PQJ983059 QAF983059 QKB983059 QTX983059 RDT983059 RNP983059 RXL983059 SHH983059 SRD983059 TAZ983059 TKV983059 TUR983059 UEN983059 UOJ983059 UYF983059 VIB983059 VRX983059 WBT983059 WLP983059 WVL983059">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 IZ19 SV19 ACR19 AMN19 AWJ19 BGF19 BQB19 BZX19 CJT19 CTP19 DDL19 DNH19 DXD19 EGZ19 EQV19 FAR19 FKN19 FUJ19 GEF19 GOB19 GXX19 HHT19 HRP19 IBL19 ILH19 IVD19 JEZ19 JOV19 JYR19 KIN19 KSJ19 LCF19 LMB19 LVX19 MFT19 MPP19 MZL19 NJH19 NTD19 OCZ19 OMV19 OWR19 PGN19 PQJ19 QAF19 QKB19 QTX19 RDT19 RNP19 RXL19 SHH19 SRD19 TAZ19 TKV19 TUR19 UEN19 UOJ19 UYF19 VIB19 VRX19 WBT19 WLP19 WVL19 D65557 IZ65557 SV65557 ACR65557 AMN65557 AWJ65557 BGF65557 BQB65557 BZX65557 CJT65557 CTP65557 DDL65557 DNH65557 DXD65557 EGZ65557 EQV65557 FAR65557 FKN65557 FUJ65557 GEF65557 GOB65557 GXX65557 HHT65557 HRP65557 IBL65557 ILH65557 IVD65557 JEZ65557 JOV65557 JYR65557 KIN65557 KSJ65557 LCF65557 LMB65557 LVX65557 MFT65557 MPP65557 MZL65557 NJH65557 NTD65557 OCZ65557 OMV65557 OWR65557 PGN65557 PQJ65557 QAF65557 QKB65557 QTX65557 RDT65557 RNP65557 RXL65557 SHH65557 SRD65557 TAZ65557 TKV65557 TUR65557 UEN65557 UOJ65557 UYF65557 VIB65557 VRX65557 WBT65557 WLP65557 WVL65557 D131093 IZ131093 SV131093 ACR131093 AMN131093 AWJ131093 BGF131093 BQB131093 BZX131093 CJT131093 CTP131093 DDL131093 DNH131093 DXD131093 EGZ131093 EQV131093 FAR131093 FKN131093 FUJ131093 GEF131093 GOB131093 GXX131093 HHT131093 HRP131093 IBL131093 ILH131093 IVD131093 JEZ131093 JOV131093 JYR131093 KIN131093 KSJ131093 LCF131093 LMB131093 LVX131093 MFT131093 MPP131093 MZL131093 NJH131093 NTD131093 OCZ131093 OMV131093 OWR131093 PGN131093 PQJ131093 QAF131093 QKB131093 QTX131093 RDT131093 RNP131093 RXL131093 SHH131093 SRD131093 TAZ131093 TKV131093 TUR131093 UEN131093 UOJ131093 UYF131093 VIB131093 VRX131093 WBT131093 WLP131093 WVL131093 D196629 IZ196629 SV196629 ACR196629 AMN196629 AWJ196629 BGF196629 BQB196629 BZX196629 CJT196629 CTP196629 DDL196629 DNH196629 DXD196629 EGZ196629 EQV196629 FAR196629 FKN196629 FUJ196629 GEF196629 GOB196629 GXX196629 HHT196629 HRP196629 IBL196629 ILH196629 IVD196629 JEZ196629 JOV196629 JYR196629 KIN196629 KSJ196629 LCF196629 LMB196629 LVX196629 MFT196629 MPP196629 MZL196629 NJH196629 NTD196629 OCZ196629 OMV196629 OWR196629 PGN196629 PQJ196629 QAF196629 QKB196629 QTX196629 RDT196629 RNP196629 RXL196629 SHH196629 SRD196629 TAZ196629 TKV196629 TUR196629 UEN196629 UOJ196629 UYF196629 VIB196629 VRX196629 WBT196629 WLP196629 WVL196629 D262165 IZ262165 SV262165 ACR262165 AMN262165 AWJ262165 BGF262165 BQB262165 BZX262165 CJT262165 CTP262165 DDL262165 DNH262165 DXD262165 EGZ262165 EQV262165 FAR262165 FKN262165 FUJ262165 GEF262165 GOB262165 GXX262165 HHT262165 HRP262165 IBL262165 ILH262165 IVD262165 JEZ262165 JOV262165 JYR262165 KIN262165 KSJ262165 LCF262165 LMB262165 LVX262165 MFT262165 MPP262165 MZL262165 NJH262165 NTD262165 OCZ262165 OMV262165 OWR262165 PGN262165 PQJ262165 QAF262165 QKB262165 QTX262165 RDT262165 RNP262165 RXL262165 SHH262165 SRD262165 TAZ262165 TKV262165 TUR262165 UEN262165 UOJ262165 UYF262165 VIB262165 VRX262165 WBT262165 WLP262165 WVL262165 D327701 IZ327701 SV327701 ACR327701 AMN327701 AWJ327701 BGF327701 BQB327701 BZX327701 CJT327701 CTP327701 DDL327701 DNH327701 DXD327701 EGZ327701 EQV327701 FAR327701 FKN327701 FUJ327701 GEF327701 GOB327701 GXX327701 HHT327701 HRP327701 IBL327701 ILH327701 IVD327701 JEZ327701 JOV327701 JYR327701 KIN327701 KSJ327701 LCF327701 LMB327701 LVX327701 MFT327701 MPP327701 MZL327701 NJH327701 NTD327701 OCZ327701 OMV327701 OWR327701 PGN327701 PQJ327701 QAF327701 QKB327701 QTX327701 RDT327701 RNP327701 RXL327701 SHH327701 SRD327701 TAZ327701 TKV327701 TUR327701 UEN327701 UOJ327701 UYF327701 VIB327701 VRX327701 WBT327701 WLP327701 WVL327701 D393237 IZ393237 SV393237 ACR393237 AMN393237 AWJ393237 BGF393237 BQB393237 BZX393237 CJT393237 CTP393237 DDL393237 DNH393237 DXD393237 EGZ393237 EQV393237 FAR393237 FKN393237 FUJ393237 GEF393237 GOB393237 GXX393237 HHT393237 HRP393237 IBL393237 ILH393237 IVD393237 JEZ393237 JOV393237 JYR393237 KIN393237 KSJ393237 LCF393237 LMB393237 LVX393237 MFT393237 MPP393237 MZL393237 NJH393237 NTD393237 OCZ393237 OMV393237 OWR393237 PGN393237 PQJ393237 QAF393237 QKB393237 QTX393237 RDT393237 RNP393237 RXL393237 SHH393237 SRD393237 TAZ393237 TKV393237 TUR393237 UEN393237 UOJ393237 UYF393237 VIB393237 VRX393237 WBT393237 WLP393237 WVL393237 D458773 IZ458773 SV458773 ACR458773 AMN458773 AWJ458773 BGF458773 BQB458773 BZX458773 CJT458773 CTP458773 DDL458773 DNH458773 DXD458773 EGZ458773 EQV458773 FAR458773 FKN458773 FUJ458773 GEF458773 GOB458773 GXX458773 HHT458773 HRP458773 IBL458773 ILH458773 IVD458773 JEZ458773 JOV458773 JYR458773 KIN458773 KSJ458773 LCF458773 LMB458773 LVX458773 MFT458773 MPP458773 MZL458773 NJH458773 NTD458773 OCZ458773 OMV458773 OWR458773 PGN458773 PQJ458773 QAF458773 QKB458773 QTX458773 RDT458773 RNP458773 RXL458773 SHH458773 SRD458773 TAZ458773 TKV458773 TUR458773 UEN458773 UOJ458773 UYF458773 VIB458773 VRX458773 WBT458773 WLP458773 WVL458773 D524309 IZ524309 SV524309 ACR524309 AMN524309 AWJ524309 BGF524309 BQB524309 BZX524309 CJT524309 CTP524309 DDL524309 DNH524309 DXD524309 EGZ524309 EQV524309 FAR524309 FKN524309 FUJ524309 GEF524309 GOB524309 GXX524309 HHT524309 HRP524309 IBL524309 ILH524309 IVD524309 JEZ524309 JOV524309 JYR524309 KIN524309 KSJ524309 LCF524309 LMB524309 LVX524309 MFT524309 MPP524309 MZL524309 NJH524309 NTD524309 OCZ524309 OMV524309 OWR524309 PGN524309 PQJ524309 QAF524309 QKB524309 QTX524309 RDT524309 RNP524309 RXL524309 SHH524309 SRD524309 TAZ524309 TKV524309 TUR524309 UEN524309 UOJ524309 UYF524309 VIB524309 VRX524309 WBT524309 WLP524309 WVL524309 D589845 IZ589845 SV589845 ACR589845 AMN589845 AWJ589845 BGF589845 BQB589845 BZX589845 CJT589845 CTP589845 DDL589845 DNH589845 DXD589845 EGZ589845 EQV589845 FAR589845 FKN589845 FUJ589845 GEF589845 GOB589845 GXX589845 HHT589845 HRP589845 IBL589845 ILH589845 IVD589845 JEZ589845 JOV589845 JYR589845 KIN589845 KSJ589845 LCF589845 LMB589845 LVX589845 MFT589845 MPP589845 MZL589845 NJH589845 NTD589845 OCZ589845 OMV589845 OWR589845 PGN589845 PQJ589845 QAF589845 QKB589845 QTX589845 RDT589845 RNP589845 RXL589845 SHH589845 SRD589845 TAZ589845 TKV589845 TUR589845 UEN589845 UOJ589845 UYF589845 VIB589845 VRX589845 WBT589845 WLP589845 WVL589845 D655381 IZ655381 SV655381 ACR655381 AMN655381 AWJ655381 BGF655381 BQB655381 BZX655381 CJT655381 CTP655381 DDL655381 DNH655381 DXD655381 EGZ655381 EQV655381 FAR655381 FKN655381 FUJ655381 GEF655381 GOB655381 GXX655381 HHT655381 HRP655381 IBL655381 ILH655381 IVD655381 JEZ655381 JOV655381 JYR655381 KIN655381 KSJ655381 LCF655381 LMB655381 LVX655381 MFT655381 MPP655381 MZL655381 NJH655381 NTD655381 OCZ655381 OMV655381 OWR655381 PGN655381 PQJ655381 QAF655381 QKB655381 QTX655381 RDT655381 RNP655381 RXL655381 SHH655381 SRD655381 TAZ655381 TKV655381 TUR655381 UEN655381 UOJ655381 UYF655381 VIB655381 VRX655381 WBT655381 WLP655381 WVL655381 D720917 IZ720917 SV720917 ACR720917 AMN720917 AWJ720917 BGF720917 BQB720917 BZX720917 CJT720917 CTP720917 DDL720917 DNH720917 DXD720917 EGZ720917 EQV720917 FAR720917 FKN720917 FUJ720917 GEF720917 GOB720917 GXX720917 HHT720917 HRP720917 IBL720917 ILH720917 IVD720917 JEZ720917 JOV720917 JYR720917 KIN720917 KSJ720917 LCF720917 LMB720917 LVX720917 MFT720917 MPP720917 MZL720917 NJH720917 NTD720917 OCZ720917 OMV720917 OWR720917 PGN720917 PQJ720917 QAF720917 QKB720917 QTX720917 RDT720917 RNP720917 RXL720917 SHH720917 SRD720917 TAZ720917 TKV720917 TUR720917 UEN720917 UOJ720917 UYF720917 VIB720917 VRX720917 WBT720917 WLP720917 WVL720917 D786453 IZ786453 SV786453 ACR786453 AMN786453 AWJ786453 BGF786453 BQB786453 BZX786453 CJT786453 CTP786453 DDL786453 DNH786453 DXD786453 EGZ786453 EQV786453 FAR786453 FKN786453 FUJ786453 GEF786453 GOB786453 GXX786453 HHT786453 HRP786453 IBL786453 ILH786453 IVD786453 JEZ786453 JOV786453 JYR786453 KIN786453 KSJ786453 LCF786453 LMB786453 LVX786453 MFT786453 MPP786453 MZL786453 NJH786453 NTD786453 OCZ786453 OMV786453 OWR786453 PGN786453 PQJ786453 QAF786453 QKB786453 QTX786453 RDT786453 RNP786453 RXL786453 SHH786453 SRD786453 TAZ786453 TKV786453 TUR786453 UEN786453 UOJ786453 UYF786453 VIB786453 VRX786453 WBT786453 WLP786453 WVL786453 D851989 IZ851989 SV851989 ACR851989 AMN851989 AWJ851989 BGF851989 BQB851989 BZX851989 CJT851989 CTP851989 DDL851989 DNH851989 DXD851989 EGZ851989 EQV851989 FAR851989 FKN851989 FUJ851989 GEF851989 GOB851989 GXX851989 HHT851989 HRP851989 IBL851989 ILH851989 IVD851989 JEZ851989 JOV851989 JYR851989 KIN851989 KSJ851989 LCF851989 LMB851989 LVX851989 MFT851989 MPP851989 MZL851989 NJH851989 NTD851989 OCZ851989 OMV851989 OWR851989 PGN851989 PQJ851989 QAF851989 QKB851989 QTX851989 RDT851989 RNP851989 RXL851989 SHH851989 SRD851989 TAZ851989 TKV851989 TUR851989 UEN851989 UOJ851989 UYF851989 VIB851989 VRX851989 WBT851989 WLP851989 WVL851989 D917525 IZ917525 SV917525 ACR917525 AMN917525 AWJ917525 BGF917525 BQB917525 BZX917525 CJT917525 CTP917525 DDL917525 DNH917525 DXD917525 EGZ917525 EQV917525 FAR917525 FKN917525 FUJ917525 GEF917525 GOB917525 GXX917525 HHT917525 HRP917525 IBL917525 ILH917525 IVD917525 JEZ917525 JOV917525 JYR917525 KIN917525 KSJ917525 LCF917525 LMB917525 LVX917525 MFT917525 MPP917525 MZL917525 NJH917525 NTD917525 OCZ917525 OMV917525 OWR917525 PGN917525 PQJ917525 QAF917525 QKB917525 QTX917525 RDT917525 RNP917525 RXL917525 SHH917525 SRD917525 TAZ917525 TKV917525 TUR917525 UEN917525 UOJ917525 UYF917525 VIB917525 VRX917525 WBT917525 WLP917525 WVL917525 D983061 IZ983061 SV983061 ACR983061 AMN983061 AWJ983061 BGF983061 BQB983061 BZX983061 CJT983061 CTP983061 DDL983061 DNH983061 DXD983061 EGZ983061 EQV983061 FAR983061 FKN983061 FUJ983061 GEF983061 GOB983061 GXX983061 HHT983061 HRP983061 IBL983061 ILH983061 IVD983061 JEZ983061 JOV983061 JYR983061 KIN983061 KSJ983061 LCF983061 LMB983061 LVX983061 MFT983061 MPP983061 MZL983061 NJH983061 NTD983061 OCZ983061 OMV983061 OWR983061 PGN983061 PQJ983061 QAF983061 QKB983061 QTX983061 RDT983061 RNP983061 RXL983061 SHH983061 SRD983061 TAZ983061 TKV983061 TUR983061 UEN983061 UOJ983061 UYF983061 VIB983061 VRX983061 WBT983061 WLP983061 WVL983061">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),'1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 IZ4 SV4 ACR4 AMN4 AWJ4 BGF4 BQB4 BZX4 CJT4 CTP4 DDL4 DNH4 DXD4 EGZ4 EQV4 FAR4 FKN4 FUJ4 GEF4 GOB4 GXX4 HHT4 HRP4 IBL4 ILH4 IVD4 JEZ4 JOV4 JYR4 KIN4 KSJ4 LCF4 LMB4 LVX4 MFT4 MPP4 MZL4 NJH4 NTD4 OCZ4 OMV4 OWR4 PGN4 PQJ4 QAF4 QKB4 QTX4 RDT4 RNP4 RXL4 SHH4 SRD4 TAZ4 TKV4 TUR4 UEN4 UOJ4 UYF4 VIB4 VRX4 WBT4 WLP4 WVL4 D65540 IZ65540 SV65540 ACR65540 AMN65540 AWJ65540 BGF65540 BQB65540 BZX65540 CJT65540 CTP65540 DDL65540 DNH65540 DXD65540 EGZ65540 EQV65540 FAR65540 FKN65540 FUJ65540 GEF65540 GOB65540 GXX65540 HHT65540 HRP65540 IBL65540 ILH65540 IVD65540 JEZ65540 JOV65540 JYR65540 KIN65540 KSJ65540 LCF65540 LMB65540 LVX65540 MFT65540 MPP65540 MZL65540 NJH65540 NTD65540 OCZ65540 OMV65540 OWR65540 PGN65540 PQJ65540 QAF65540 QKB65540 QTX65540 RDT65540 RNP65540 RXL65540 SHH65540 SRD65540 TAZ65540 TKV65540 TUR65540 UEN65540 UOJ65540 UYF65540 VIB65540 VRX65540 WBT65540 WLP65540 WVL65540 D131076 IZ131076 SV131076 ACR131076 AMN131076 AWJ131076 BGF131076 BQB131076 BZX131076 CJT131076 CTP131076 DDL131076 DNH131076 DXD131076 EGZ131076 EQV131076 FAR131076 FKN131076 FUJ131076 GEF131076 GOB131076 GXX131076 HHT131076 HRP131076 IBL131076 ILH131076 IVD131076 JEZ131076 JOV131076 JYR131076 KIN131076 KSJ131076 LCF131076 LMB131076 LVX131076 MFT131076 MPP131076 MZL131076 NJH131076 NTD131076 OCZ131076 OMV131076 OWR131076 PGN131076 PQJ131076 QAF131076 QKB131076 QTX131076 RDT131076 RNP131076 RXL131076 SHH131076 SRD131076 TAZ131076 TKV131076 TUR131076 UEN131076 UOJ131076 UYF131076 VIB131076 VRX131076 WBT131076 WLP131076 WVL131076 D196612 IZ196612 SV196612 ACR196612 AMN196612 AWJ196612 BGF196612 BQB196612 BZX196612 CJT196612 CTP196612 DDL196612 DNH196612 DXD196612 EGZ196612 EQV196612 FAR196612 FKN196612 FUJ196612 GEF196612 GOB196612 GXX196612 HHT196612 HRP196612 IBL196612 ILH196612 IVD196612 JEZ196612 JOV196612 JYR196612 KIN196612 KSJ196612 LCF196612 LMB196612 LVX196612 MFT196612 MPP196612 MZL196612 NJH196612 NTD196612 OCZ196612 OMV196612 OWR196612 PGN196612 PQJ196612 QAF196612 QKB196612 QTX196612 RDT196612 RNP196612 RXL196612 SHH196612 SRD196612 TAZ196612 TKV196612 TUR196612 UEN196612 UOJ196612 UYF196612 VIB196612 VRX196612 WBT196612 WLP196612 WVL196612 D262148 IZ262148 SV262148 ACR262148 AMN262148 AWJ262148 BGF262148 BQB262148 BZX262148 CJT262148 CTP262148 DDL262148 DNH262148 DXD262148 EGZ262148 EQV262148 FAR262148 FKN262148 FUJ262148 GEF262148 GOB262148 GXX262148 HHT262148 HRP262148 IBL262148 ILH262148 IVD262148 JEZ262148 JOV262148 JYR262148 KIN262148 KSJ262148 LCF262148 LMB262148 LVX262148 MFT262148 MPP262148 MZL262148 NJH262148 NTD262148 OCZ262148 OMV262148 OWR262148 PGN262148 PQJ262148 QAF262148 QKB262148 QTX262148 RDT262148 RNP262148 RXL262148 SHH262148 SRD262148 TAZ262148 TKV262148 TUR262148 UEN262148 UOJ262148 UYF262148 VIB262148 VRX262148 WBT262148 WLP262148 WVL262148 D327684 IZ327684 SV327684 ACR327684 AMN327684 AWJ327684 BGF327684 BQB327684 BZX327684 CJT327684 CTP327684 DDL327684 DNH327684 DXD327684 EGZ327684 EQV327684 FAR327684 FKN327684 FUJ327684 GEF327684 GOB327684 GXX327684 HHT327684 HRP327684 IBL327684 ILH327684 IVD327684 JEZ327684 JOV327684 JYR327684 KIN327684 KSJ327684 LCF327684 LMB327684 LVX327684 MFT327684 MPP327684 MZL327684 NJH327684 NTD327684 OCZ327684 OMV327684 OWR327684 PGN327684 PQJ327684 QAF327684 QKB327684 QTX327684 RDT327684 RNP327684 RXL327684 SHH327684 SRD327684 TAZ327684 TKV327684 TUR327684 UEN327684 UOJ327684 UYF327684 VIB327684 VRX327684 WBT327684 WLP327684 WVL327684 D393220 IZ393220 SV393220 ACR393220 AMN393220 AWJ393220 BGF393220 BQB393220 BZX393220 CJT393220 CTP393220 DDL393220 DNH393220 DXD393220 EGZ393220 EQV393220 FAR393220 FKN393220 FUJ393220 GEF393220 GOB393220 GXX393220 HHT393220 HRP393220 IBL393220 ILH393220 IVD393220 JEZ393220 JOV393220 JYR393220 KIN393220 KSJ393220 LCF393220 LMB393220 LVX393220 MFT393220 MPP393220 MZL393220 NJH393220 NTD393220 OCZ393220 OMV393220 OWR393220 PGN393220 PQJ393220 QAF393220 QKB393220 QTX393220 RDT393220 RNP393220 RXL393220 SHH393220 SRD393220 TAZ393220 TKV393220 TUR393220 UEN393220 UOJ393220 UYF393220 VIB393220 VRX393220 WBT393220 WLP393220 WVL393220 D458756 IZ458756 SV458756 ACR458756 AMN458756 AWJ458756 BGF458756 BQB458756 BZX458756 CJT458756 CTP458756 DDL458756 DNH458756 DXD458756 EGZ458756 EQV458756 FAR458756 FKN458756 FUJ458756 GEF458756 GOB458756 GXX458756 HHT458756 HRP458756 IBL458756 ILH458756 IVD458756 JEZ458756 JOV458756 JYR458756 KIN458756 KSJ458756 LCF458756 LMB458756 LVX458756 MFT458756 MPP458756 MZL458756 NJH458756 NTD458756 OCZ458756 OMV458756 OWR458756 PGN458756 PQJ458756 QAF458756 QKB458756 QTX458756 RDT458756 RNP458756 RXL458756 SHH458756 SRD458756 TAZ458756 TKV458756 TUR458756 UEN458756 UOJ458756 UYF458756 VIB458756 VRX458756 WBT458756 WLP458756 WVL458756 D524292 IZ524292 SV524292 ACR524292 AMN524292 AWJ524292 BGF524292 BQB524292 BZX524292 CJT524292 CTP524292 DDL524292 DNH524292 DXD524292 EGZ524292 EQV524292 FAR524292 FKN524292 FUJ524292 GEF524292 GOB524292 GXX524292 HHT524292 HRP524292 IBL524292 ILH524292 IVD524292 JEZ524292 JOV524292 JYR524292 KIN524292 KSJ524292 LCF524292 LMB524292 LVX524292 MFT524292 MPP524292 MZL524292 NJH524292 NTD524292 OCZ524292 OMV524292 OWR524292 PGN524292 PQJ524292 QAF524292 QKB524292 QTX524292 RDT524292 RNP524292 RXL524292 SHH524292 SRD524292 TAZ524292 TKV524292 TUR524292 UEN524292 UOJ524292 UYF524292 VIB524292 VRX524292 WBT524292 WLP524292 WVL524292 D589828 IZ589828 SV589828 ACR589828 AMN589828 AWJ589828 BGF589828 BQB589828 BZX589828 CJT589828 CTP589828 DDL589828 DNH589828 DXD589828 EGZ589828 EQV589828 FAR589828 FKN589828 FUJ589828 GEF589828 GOB589828 GXX589828 HHT589828 HRP589828 IBL589828 ILH589828 IVD589828 JEZ589828 JOV589828 JYR589828 KIN589828 KSJ589828 LCF589828 LMB589828 LVX589828 MFT589828 MPP589828 MZL589828 NJH589828 NTD589828 OCZ589828 OMV589828 OWR589828 PGN589828 PQJ589828 QAF589828 QKB589828 QTX589828 RDT589828 RNP589828 RXL589828 SHH589828 SRD589828 TAZ589828 TKV589828 TUR589828 UEN589828 UOJ589828 UYF589828 VIB589828 VRX589828 WBT589828 WLP589828 WVL589828 D655364 IZ655364 SV655364 ACR655364 AMN655364 AWJ655364 BGF655364 BQB655364 BZX655364 CJT655364 CTP655364 DDL655364 DNH655364 DXD655364 EGZ655364 EQV655364 FAR655364 FKN655364 FUJ655364 GEF655364 GOB655364 GXX655364 HHT655364 HRP655364 IBL655364 ILH655364 IVD655364 JEZ655364 JOV655364 JYR655364 KIN655364 KSJ655364 LCF655364 LMB655364 LVX655364 MFT655364 MPP655364 MZL655364 NJH655364 NTD655364 OCZ655364 OMV655364 OWR655364 PGN655364 PQJ655364 QAF655364 QKB655364 QTX655364 RDT655364 RNP655364 RXL655364 SHH655364 SRD655364 TAZ655364 TKV655364 TUR655364 UEN655364 UOJ655364 UYF655364 VIB655364 VRX655364 WBT655364 WLP655364 WVL655364 D720900 IZ720900 SV720900 ACR720900 AMN720900 AWJ720900 BGF720900 BQB720900 BZX720900 CJT720900 CTP720900 DDL720900 DNH720900 DXD720900 EGZ720900 EQV720900 FAR720900 FKN720900 FUJ720900 GEF720900 GOB720900 GXX720900 HHT720900 HRP720900 IBL720900 ILH720900 IVD720900 JEZ720900 JOV720900 JYR720900 KIN720900 KSJ720900 LCF720900 LMB720900 LVX720900 MFT720900 MPP720900 MZL720900 NJH720900 NTD720900 OCZ720900 OMV720900 OWR720900 PGN720900 PQJ720900 QAF720900 QKB720900 QTX720900 RDT720900 RNP720900 RXL720900 SHH720900 SRD720900 TAZ720900 TKV720900 TUR720900 UEN720900 UOJ720900 UYF720900 VIB720900 VRX720900 WBT720900 WLP720900 WVL720900 D786436 IZ786436 SV786436 ACR786436 AMN786436 AWJ786436 BGF786436 BQB786436 BZX786436 CJT786436 CTP786436 DDL786436 DNH786436 DXD786436 EGZ786436 EQV786436 FAR786436 FKN786436 FUJ786436 GEF786436 GOB786436 GXX786436 HHT786436 HRP786436 IBL786436 ILH786436 IVD786436 JEZ786436 JOV786436 JYR786436 KIN786436 KSJ786436 LCF786436 LMB786436 LVX786436 MFT786436 MPP786436 MZL786436 NJH786436 NTD786436 OCZ786436 OMV786436 OWR786436 PGN786436 PQJ786436 QAF786436 QKB786436 QTX786436 RDT786436 RNP786436 RXL786436 SHH786436 SRD786436 TAZ786436 TKV786436 TUR786436 UEN786436 UOJ786436 UYF786436 VIB786436 VRX786436 WBT786436 WLP786436 WVL786436 D851972 IZ851972 SV851972 ACR851972 AMN851972 AWJ851972 BGF851972 BQB851972 BZX851972 CJT851972 CTP851972 DDL851972 DNH851972 DXD851972 EGZ851972 EQV851972 FAR851972 FKN851972 FUJ851972 GEF851972 GOB851972 GXX851972 HHT851972 HRP851972 IBL851972 ILH851972 IVD851972 JEZ851972 JOV851972 JYR851972 KIN851972 KSJ851972 LCF851972 LMB851972 LVX851972 MFT851972 MPP851972 MZL851972 NJH851972 NTD851972 OCZ851972 OMV851972 OWR851972 PGN851972 PQJ851972 QAF851972 QKB851972 QTX851972 RDT851972 RNP851972 RXL851972 SHH851972 SRD851972 TAZ851972 TKV851972 TUR851972 UEN851972 UOJ851972 UYF851972 VIB851972 VRX851972 WBT851972 WLP851972 WVL851972 D917508 IZ917508 SV917508 ACR917508 AMN917508 AWJ917508 BGF917508 BQB917508 BZX917508 CJT917508 CTP917508 DDL917508 DNH917508 DXD917508 EGZ917508 EQV917508 FAR917508 FKN917508 FUJ917508 GEF917508 GOB917508 GXX917508 HHT917508 HRP917508 IBL917508 ILH917508 IVD917508 JEZ917508 JOV917508 JYR917508 KIN917508 KSJ917508 LCF917508 LMB917508 LVX917508 MFT917508 MPP917508 MZL917508 NJH917508 NTD917508 OCZ917508 OMV917508 OWR917508 PGN917508 PQJ917508 QAF917508 QKB917508 QTX917508 RDT917508 RNP917508 RXL917508 SHH917508 SRD917508 TAZ917508 TKV917508 TUR917508 UEN917508 UOJ917508 UYF917508 VIB917508 VRX917508 WBT917508 WLP917508 WVL917508 D983044 IZ983044 SV983044 ACR983044 AMN983044 AWJ983044 BGF983044 BQB983044 BZX983044 CJT983044 CTP983044 DDL983044 DNH983044 DXD983044 EGZ983044 EQV983044 FAR983044 FKN983044 FUJ983044 GEF983044 GOB983044 GXX983044 HHT983044 HRP983044 IBL983044 ILH983044 IVD983044 JEZ983044 JOV983044 JYR983044 KIN983044 KSJ983044 LCF983044 LMB983044 LVX983044 MFT983044 MPP983044 MZL983044 NJH983044 NTD983044 OCZ983044 OMV983044 OWR983044 PGN983044 PQJ983044 QAF983044 QKB983044 QTX983044 RDT983044 RNP983044 RXL983044 SHH983044 SRD983044 TAZ983044 TKV983044 TUR983044 UEN983044 UOJ983044 UYF983044 VIB983044 VRX983044 WBT983044 WLP983044 WVL983044">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 IZ4 SV4 ACR4 AMN4 AWJ4 BGF4 BQB4 BZX4 CJT4 CTP4 DDL4 DNH4 DXD4 EGZ4 EQV4 FAR4 FKN4 FUJ4 GEF4 GOB4 GXX4 HHT4 HRP4 IBL4 ILH4 IVD4 JEZ4 JOV4 JYR4 KIN4 KSJ4 LCF4 LMB4 LVX4 MFT4 MPP4 MZL4 NJH4 NTD4 OCZ4 OMV4 OWR4 PGN4 PQJ4 QAF4 QKB4 QTX4 RDT4 RNP4 RXL4 SHH4 SRD4 TAZ4 TKV4 TUR4 UEN4 UOJ4 UYF4 VIB4 VRX4 WBT4 WLP4 WVL4 D65542 IZ65542 SV65542 ACR65542 AMN65542 AWJ65542 BGF65542 BQB65542 BZX65542 CJT65542 CTP65542 DDL65542 DNH65542 DXD65542 EGZ65542 EQV65542 FAR65542 FKN65542 FUJ65542 GEF65542 GOB65542 GXX65542 HHT65542 HRP65542 IBL65542 ILH65542 IVD65542 JEZ65542 JOV65542 JYR65542 KIN65542 KSJ65542 LCF65542 LMB65542 LVX65542 MFT65542 MPP65542 MZL65542 NJH65542 NTD65542 OCZ65542 OMV65542 OWR65542 PGN65542 PQJ65542 QAF65542 QKB65542 QTX65542 RDT65542 RNP65542 RXL65542 SHH65542 SRD65542 TAZ65542 TKV65542 TUR65542 UEN65542 UOJ65542 UYF65542 VIB65542 VRX65542 WBT65542 WLP65542 WVL65542 D131078 IZ131078 SV131078 ACR131078 AMN131078 AWJ131078 BGF131078 BQB131078 BZX131078 CJT131078 CTP131078 DDL131078 DNH131078 DXD131078 EGZ131078 EQV131078 FAR131078 FKN131078 FUJ131078 GEF131078 GOB131078 GXX131078 HHT131078 HRP131078 IBL131078 ILH131078 IVD131078 JEZ131078 JOV131078 JYR131078 KIN131078 KSJ131078 LCF131078 LMB131078 LVX131078 MFT131078 MPP131078 MZL131078 NJH131078 NTD131078 OCZ131078 OMV131078 OWR131078 PGN131078 PQJ131078 QAF131078 QKB131078 QTX131078 RDT131078 RNP131078 RXL131078 SHH131078 SRD131078 TAZ131078 TKV131078 TUR131078 UEN131078 UOJ131078 UYF131078 VIB131078 VRX131078 WBT131078 WLP131078 WVL131078 D196614 IZ196614 SV196614 ACR196614 AMN196614 AWJ196614 BGF196614 BQB196614 BZX196614 CJT196614 CTP196614 DDL196614 DNH196614 DXD196614 EGZ196614 EQV196614 FAR196614 FKN196614 FUJ196614 GEF196614 GOB196614 GXX196614 HHT196614 HRP196614 IBL196614 ILH196614 IVD196614 JEZ196614 JOV196614 JYR196614 KIN196614 KSJ196614 LCF196614 LMB196614 LVX196614 MFT196614 MPP196614 MZL196614 NJH196614 NTD196614 OCZ196614 OMV196614 OWR196614 PGN196614 PQJ196614 QAF196614 QKB196614 QTX196614 RDT196614 RNP196614 RXL196614 SHH196614 SRD196614 TAZ196614 TKV196614 TUR196614 UEN196614 UOJ196614 UYF196614 VIB196614 VRX196614 WBT196614 WLP196614 WVL196614 D262150 IZ262150 SV262150 ACR262150 AMN262150 AWJ262150 BGF262150 BQB262150 BZX262150 CJT262150 CTP262150 DDL262150 DNH262150 DXD262150 EGZ262150 EQV262150 FAR262150 FKN262150 FUJ262150 GEF262150 GOB262150 GXX262150 HHT262150 HRP262150 IBL262150 ILH262150 IVD262150 JEZ262150 JOV262150 JYR262150 KIN262150 KSJ262150 LCF262150 LMB262150 LVX262150 MFT262150 MPP262150 MZL262150 NJH262150 NTD262150 OCZ262150 OMV262150 OWR262150 PGN262150 PQJ262150 QAF262150 QKB262150 QTX262150 RDT262150 RNP262150 RXL262150 SHH262150 SRD262150 TAZ262150 TKV262150 TUR262150 UEN262150 UOJ262150 UYF262150 VIB262150 VRX262150 WBT262150 WLP262150 WVL262150 D327686 IZ327686 SV327686 ACR327686 AMN327686 AWJ327686 BGF327686 BQB327686 BZX327686 CJT327686 CTP327686 DDL327686 DNH327686 DXD327686 EGZ327686 EQV327686 FAR327686 FKN327686 FUJ327686 GEF327686 GOB327686 GXX327686 HHT327686 HRP327686 IBL327686 ILH327686 IVD327686 JEZ327686 JOV327686 JYR327686 KIN327686 KSJ327686 LCF327686 LMB327686 LVX327686 MFT327686 MPP327686 MZL327686 NJH327686 NTD327686 OCZ327686 OMV327686 OWR327686 PGN327686 PQJ327686 QAF327686 QKB327686 QTX327686 RDT327686 RNP327686 RXL327686 SHH327686 SRD327686 TAZ327686 TKV327686 TUR327686 UEN327686 UOJ327686 UYF327686 VIB327686 VRX327686 WBT327686 WLP327686 WVL327686 D393222 IZ393222 SV393222 ACR393222 AMN393222 AWJ393222 BGF393222 BQB393222 BZX393222 CJT393222 CTP393222 DDL393222 DNH393222 DXD393222 EGZ393222 EQV393222 FAR393222 FKN393222 FUJ393222 GEF393222 GOB393222 GXX393222 HHT393222 HRP393222 IBL393222 ILH393222 IVD393222 JEZ393222 JOV393222 JYR393222 KIN393222 KSJ393222 LCF393222 LMB393222 LVX393222 MFT393222 MPP393222 MZL393222 NJH393222 NTD393222 OCZ393222 OMV393222 OWR393222 PGN393222 PQJ393222 QAF393222 QKB393222 QTX393222 RDT393222 RNP393222 RXL393222 SHH393222 SRD393222 TAZ393222 TKV393222 TUR393222 UEN393222 UOJ393222 UYF393222 VIB393222 VRX393222 WBT393222 WLP393222 WVL393222 D458758 IZ458758 SV458758 ACR458758 AMN458758 AWJ458758 BGF458758 BQB458758 BZX458758 CJT458758 CTP458758 DDL458758 DNH458758 DXD458758 EGZ458758 EQV458758 FAR458758 FKN458758 FUJ458758 GEF458758 GOB458758 GXX458758 HHT458758 HRP458758 IBL458758 ILH458758 IVD458758 JEZ458758 JOV458758 JYR458758 KIN458758 KSJ458758 LCF458758 LMB458758 LVX458758 MFT458758 MPP458758 MZL458758 NJH458758 NTD458758 OCZ458758 OMV458758 OWR458758 PGN458758 PQJ458758 QAF458758 QKB458758 QTX458758 RDT458758 RNP458758 RXL458758 SHH458758 SRD458758 TAZ458758 TKV458758 TUR458758 UEN458758 UOJ458758 UYF458758 VIB458758 VRX458758 WBT458758 WLP458758 WVL458758 D524294 IZ524294 SV524294 ACR524294 AMN524294 AWJ524294 BGF524294 BQB524294 BZX524294 CJT524294 CTP524294 DDL524294 DNH524294 DXD524294 EGZ524294 EQV524294 FAR524294 FKN524294 FUJ524294 GEF524294 GOB524294 GXX524294 HHT524294 HRP524294 IBL524294 ILH524294 IVD524294 JEZ524294 JOV524294 JYR524294 KIN524294 KSJ524294 LCF524294 LMB524294 LVX524294 MFT524294 MPP524294 MZL524294 NJH524294 NTD524294 OCZ524294 OMV524294 OWR524294 PGN524294 PQJ524294 QAF524294 QKB524294 QTX524294 RDT524294 RNP524294 RXL524294 SHH524294 SRD524294 TAZ524294 TKV524294 TUR524294 UEN524294 UOJ524294 UYF524294 VIB524294 VRX524294 WBT524294 WLP524294 WVL524294 D589830 IZ589830 SV589830 ACR589830 AMN589830 AWJ589830 BGF589830 BQB589830 BZX589830 CJT589830 CTP589830 DDL589830 DNH589830 DXD589830 EGZ589830 EQV589830 FAR589830 FKN589830 FUJ589830 GEF589830 GOB589830 GXX589830 HHT589830 HRP589830 IBL589830 ILH589830 IVD589830 JEZ589830 JOV589830 JYR589830 KIN589830 KSJ589830 LCF589830 LMB589830 LVX589830 MFT589830 MPP589830 MZL589830 NJH589830 NTD589830 OCZ589830 OMV589830 OWR589830 PGN589830 PQJ589830 QAF589830 QKB589830 QTX589830 RDT589830 RNP589830 RXL589830 SHH589830 SRD589830 TAZ589830 TKV589830 TUR589830 UEN589830 UOJ589830 UYF589830 VIB589830 VRX589830 WBT589830 WLP589830 WVL589830 D655366 IZ655366 SV655366 ACR655366 AMN655366 AWJ655366 BGF655366 BQB655366 BZX655366 CJT655366 CTP655366 DDL655366 DNH655366 DXD655366 EGZ655366 EQV655366 FAR655366 FKN655366 FUJ655366 GEF655366 GOB655366 GXX655366 HHT655366 HRP655366 IBL655366 ILH655366 IVD655366 JEZ655366 JOV655366 JYR655366 KIN655366 KSJ655366 LCF655366 LMB655366 LVX655366 MFT655366 MPP655366 MZL655366 NJH655366 NTD655366 OCZ655366 OMV655366 OWR655366 PGN655366 PQJ655366 QAF655366 QKB655366 QTX655366 RDT655366 RNP655366 RXL655366 SHH655366 SRD655366 TAZ655366 TKV655366 TUR655366 UEN655366 UOJ655366 UYF655366 VIB655366 VRX655366 WBT655366 WLP655366 WVL655366 D720902 IZ720902 SV720902 ACR720902 AMN720902 AWJ720902 BGF720902 BQB720902 BZX720902 CJT720902 CTP720902 DDL720902 DNH720902 DXD720902 EGZ720902 EQV720902 FAR720902 FKN720902 FUJ720902 GEF720902 GOB720902 GXX720902 HHT720902 HRP720902 IBL720902 ILH720902 IVD720902 JEZ720902 JOV720902 JYR720902 KIN720902 KSJ720902 LCF720902 LMB720902 LVX720902 MFT720902 MPP720902 MZL720902 NJH720902 NTD720902 OCZ720902 OMV720902 OWR720902 PGN720902 PQJ720902 QAF720902 QKB720902 QTX720902 RDT720902 RNP720902 RXL720902 SHH720902 SRD720902 TAZ720902 TKV720902 TUR720902 UEN720902 UOJ720902 UYF720902 VIB720902 VRX720902 WBT720902 WLP720902 WVL720902 D786438 IZ786438 SV786438 ACR786438 AMN786438 AWJ786438 BGF786438 BQB786438 BZX786438 CJT786438 CTP786438 DDL786438 DNH786438 DXD786438 EGZ786438 EQV786438 FAR786438 FKN786438 FUJ786438 GEF786438 GOB786438 GXX786438 HHT786438 HRP786438 IBL786438 ILH786438 IVD786438 JEZ786438 JOV786438 JYR786438 KIN786438 KSJ786438 LCF786438 LMB786438 LVX786438 MFT786438 MPP786438 MZL786438 NJH786438 NTD786438 OCZ786438 OMV786438 OWR786438 PGN786438 PQJ786438 QAF786438 QKB786438 QTX786438 RDT786438 RNP786438 RXL786438 SHH786438 SRD786438 TAZ786438 TKV786438 TUR786438 UEN786438 UOJ786438 UYF786438 VIB786438 VRX786438 WBT786438 WLP786438 WVL786438 D851974 IZ851974 SV851974 ACR851974 AMN851974 AWJ851974 BGF851974 BQB851974 BZX851974 CJT851974 CTP851974 DDL851974 DNH851974 DXD851974 EGZ851974 EQV851974 FAR851974 FKN851974 FUJ851974 GEF851974 GOB851974 GXX851974 HHT851974 HRP851974 IBL851974 ILH851974 IVD851974 JEZ851974 JOV851974 JYR851974 KIN851974 KSJ851974 LCF851974 LMB851974 LVX851974 MFT851974 MPP851974 MZL851974 NJH851974 NTD851974 OCZ851974 OMV851974 OWR851974 PGN851974 PQJ851974 QAF851974 QKB851974 QTX851974 RDT851974 RNP851974 RXL851974 SHH851974 SRD851974 TAZ851974 TKV851974 TUR851974 UEN851974 UOJ851974 UYF851974 VIB851974 VRX851974 WBT851974 WLP851974 WVL851974 D917510 IZ917510 SV917510 ACR917510 AMN917510 AWJ917510 BGF917510 BQB917510 BZX917510 CJT917510 CTP917510 DDL917510 DNH917510 DXD917510 EGZ917510 EQV917510 FAR917510 FKN917510 FUJ917510 GEF917510 GOB917510 GXX917510 HHT917510 HRP917510 IBL917510 ILH917510 IVD917510 JEZ917510 JOV917510 JYR917510 KIN917510 KSJ917510 LCF917510 LMB917510 LVX917510 MFT917510 MPP917510 MZL917510 NJH917510 NTD917510 OCZ917510 OMV917510 OWR917510 PGN917510 PQJ917510 QAF917510 QKB917510 QTX917510 RDT917510 RNP917510 RXL917510 SHH917510 SRD917510 TAZ917510 TKV917510 TUR917510 UEN917510 UOJ917510 UYF917510 VIB917510 VRX917510 WBT917510 WLP917510 WVL917510 D983046 IZ983046 SV983046 ACR983046 AMN983046 AWJ983046 BGF983046 BQB983046 BZX983046 CJT983046 CTP983046 DDL983046 DNH983046 DXD983046 EGZ983046 EQV983046 FAR983046 FKN983046 FUJ983046 GEF983046 GOB983046 GXX983046 HHT983046 HRP983046 IBL983046 ILH983046 IVD983046 JEZ983046 JOV983046 JYR983046 KIN983046 KSJ983046 LCF983046 LMB983046 LVX983046 MFT983046 MPP983046 MZL983046 NJH983046 NTD983046 OCZ983046 OMV983046 OWR983046 PGN983046 PQJ983046 QAF983046 QKB983046 QTX983046 RDT983046 RNP983046 RXL983046 SHH983046 SRD983046 TAZ983046 TKV983046 TUR983046 UEN983046 UOJ983046 UYF983046 VIB983046 VRX983046 WBT983046 WLP983046 WVL983046">
       <formula1>"EUR,USD,GBP,JPY,CHF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 IZ18 SV18 ACR18 AMN18 AWJ18 BGF18 BQB18 BZX18 CJT18 CTP18 DDL18 DNH18 DXD18 EGZ18 EQV18 FAR18 FKN18 FUJ18 GEF18 GOB18 GXX18 HHT18 HRP18 IBL18 ILH18 IVD18 JEZ18 JOV18 JYR18 KIN18 KSJ18 LCF18 LMB18 LVX18 MFT18 MPP18 MZL18 NJH18 NTD18 OCZ18 OMV18 OWR18 PGN18 PQJ18 QAF18 QKB18 QTX18 RDT18 RNP18 RXL18 SHH18 SRD18 TAZ18 TKV18 TUR18 UEN18 UOJ18 UYF18 VIB18 VRX18 WBT18 WLP18 WVL18 D65554 IZ65554 SV65554 ACR65554 AMN65554 AWJ65554 BGF65554 BQB65554 BZX65554 CJT65554 CTP65554 DDL65554 DNH65554 DXD65554 EGZ65554 EQV65554 FAR65554 FKN65554 FUJ65554 GEF65554 GOB65554 GXX65554 HHT65554 HRP65554 IBL65554 ILH65554 IVD65554 JEZ65554 JOV65554 JYR65554 KIN65554 KSJ65554 LCF65554 LMB65554 LVX65554 MFT65554 MPP65554 MZL65554 NJH65554 NTD65554 OCZ65554 OMV65554 OWR65554 PGN65554 PQJ65554 QAF65554 QKB65554 QTX65554 RDT65554 RNP65554 RXL65554 SHH65554 SRD65554 TAZ65554 TKV65554 TUR65554 UEN65554 UOJ65554 UYF65554 VIB65554 VRX65554 WBT65554 WLP65554 WVL65554 D131090 IZ131090 SV131090 ACR131090 AMN131090 AWJ131090 BGF131090 BQB131090 BZX131090 CJT131090 CTP131090 DDL131090 DNH131090 DXD131090 EGZ131090 EQV131090 FAR131090 FKN131090 FUJ131090 GEF131090 GOB131090 GXX131090 HHT131090 HRP131090 IBL131090 ILH131090 IVD131090 JEZ131090 JOV131090 JYR131090 KIN131090 KSJ131090 LCF131090 LMB131090 LVX131090 MFT131090 MPP131090 MZL131090 NJH131090 NTD131090 OCZ131090 OMV131090 OWR131090 PGN131090 PQJ131090 QAF131090 QKB131090 QTX131090 RDT131090 RNP131090 RXL131090 SHH131090 SRD131090 TAZ131090 TKV131090 TUR131090 UEN131090 UOJ131090 UYF131090 VIB131090 VRX131090 WBT131090 WLP131090 WVL131090 D196626 IZ196626 SV196626 ACR196626 AMN196626 AWJ196626 BGF196626 BQB196626 BZX196626 CJT196626 CTP196626 DDL196626 DNH196626 DXD196626 EGZ196626 EQV196626 FAR196626 FKN196626 FUJ196626 GEF196626 GOB196626 GXX196626 HHT196626 HRP196626 IBL196626 ILH196626 IVD196626 JEZ196626 JOV196626 JYR196626 KIN196626 KSJ196626 LCF196626 LMB196626 LVX196626 MFT196626 MPP196626 MZL196626 NJH196626 NTD196626 OCZ196626 OMV196626 OWR196626 PGN196626 PQJ196626 QAF196626 QKB196626 QTX196626 RDT196626 RNP196626 RXL196626 SHH196626 SRD196626 TAZ196626 TKV196626 TUR196626 UEN196626 UOJ196626 UYF196626 VIB196626 VRX196626 WBT196626 WLP196626 WVL196626 D262162 IZ262162 SV262162 ACR262162 AMN262162 AWJ262162 BGF262162 BQB262162 BZX262162 CJT262162 CTP262162 DDL262162 DNH262162 DXD262162 EGZ262162 EQV262162 FAR262162 FKN262162 FUJ262162 GEF262162 GOB262162 GXX262162 HHT262162 HRP262162 IBL262162 ILH262162 IVD262162 JEZ262162 JOV262162 JYR262162 KIN262162 KSJ262162 LCF262162 LMB262162 LVX262162 MFT262162 MPP262162 MZL262162 NJH262162 NTD262162 OCZ262162 OMV262162 OWR262162 PGN262162 PQJ262162 QAF262162 QKB262162 QTX262162 RDT262162 RNP262162 RXL262162 SHH262162 SRD262162 TAZ262162 TKV262162 TUR262162 UEN262162 UOJ262162 UYF262162 VIB262162 VRX262162 WBT262162 WLP262162 WVL262162 D327698 IZ327698 SV327698 ACR327698 AMN327698 AWJ327698 BGF327698 BQB327698 BZX327698 CJT327698 CTP327698 DDL327698 DNH327698 DXD327698 EGZ327698 EQV327698 FAR327698 FKN327698 FUJ327698 GEF327698 GOB327698 GXX327698 HHT327698 HRP327698 IBL327698 ILH327698 IVD327698 JEZ327698 JOV327698 JYR327698 KIN327698 KSJ327698 LCF327698 LMB327698 LVX327698 MFT327698 MPP327698 MZL327698 NJH327698 NTD327698 OCZ327698 OMV327698 OWR327698 PGN327698 PQJ327698 QAF327698 QKB327698 QTX327698 RDT327698 RNP327698 RXL327698 SHH327698 SRD327698 TAZ327698 TKV327698 TUR327698 UEN327698 UOJ327698 UYF327698 VIB327698 VRX327698 WBT327698 WLP327698 WVL327698 D393234 IZ393234 SV393234 ACR393234 AMN393234 AWJ393234 BGF393234 BQB393234 BZX393234 CJT393234 CTP393234 DDL393234 DNH393234 DXD393234 EGZ393234 EQV393234 FAR393234 FKN393234 FUJ393234 GEF393234 GOB393234 GXX393234 HHT393234 HRP393234 IBL393234 ILH393234 IVD393234 JEZ393234 JOV393234 JYR393234 KIN393234 KSJ393234 LCF393234 LMB393234 LVX393234 MFT393234 MPP393234 MZL393234 NJH393234 NTD393234 OCZ393234 OMV393234 OWR393234 PGN393234 PQJ393234 QAF393234 QKB393234 QTX393234 RDT393234 RNP393234 RXL393234 SHH393234 SRD393234 TAZ393234 TKV393234 TUR393234 UEN393234 UOJ393234 UYF393234 VIB393234 VRX393234 WBT393234 WLP393234 WVL393234 D458770 IZ458770 SV458770 ACR458770 AMN458770 AWJ458770 BGF458770 BQB458770 BZX458770 CJT458770 CTP458770 DDL458770 DNH458770 DXD458770 EGZ458770 EQV458770 FAR458770 FKN458770 FUJ458770 GEF458770 GOB458770 GXX458770 HHT458770 HRP458770 IBL458770 ILH458770 IVD458770 JEZ458770 JOV458770 JYR458770 KIN458770 KSJ458770 LCF458770 LMB458770 LVX458770 MFT458770 MPP458770 MZL458770 NJH458770 NTD458770 OCZ458770 OMV458770 OWR458770 PGN458770 PQJ458770 QAF458770 QKB458770 QTX458770 RDT458770 RNP458770 RXL458770 SHH458770 SRD458770 TAZ458770 TKV458770 TUR458770 UEN458770 UOJ458770 UYF458770 VIB458770 VRX458770 WBT458770 WLP458770 WVL458770 D524306 IZ524306 SV524306 ACR524306 AMN524306 AWJ524306 BGF524306 BQB524306 BZX524306 CJT524306 CTP524306 DDL524306 DNH524306 DXD524306 EGZ524306 EQV524306 FAR524306 FKN524306 FUJ524306 GEF524306 GOB524306 GXX524306 HHT524306 HRP524306 IBL524306 ILH524306 IVD524306 JEZ524306 JOV524306 JYR524306 KIN524306 KSJ524306 LCF524306 LMB524306 LVX524306 MFT524306 MPP524306 MZL524306 NJH524306 NTD524306 OCZ524306 OMV524306 OWR524306 PGN524306 PQJ524306 QAF524306 QKB524306 QTX524306 RDT524306 RNP524306 RXL524306 SHH524306 SRD524306 TAZ524306 TKV524306 TUR524306 UEN524306 UOJ524306 UYF524306 VIB524306 VRX524306 WBT524306 WLP524306 WVL524306 D589842 IZ589842 SV589842 ACR589842 AMN589842 AWJ589842 BGF589842 BQB589842 BZX589842 CJT589842 CTP589842 DDL589842 DNH589842 DXD589842 EGZ589842 EQV589842 FAR589842 FKN589842 FUJ589842 GEF589842 GOB589842 GXX589842 HHT589842 HRP589842 IBL589842 ILH589842 IVD589842 JEZ589842 JOV589842 JYR589842 KIN589842 KSJ589842 LCF589842 LMB589842 LVX589842 MFT589842 MPP589842 MZL589842 NJH589842 NTD589842 OCZ589842 OMV589842 OWR589842 PGN589842 PQJ589842 QAF589842 QKB589842 QTX589842 RDT589842 RNP589842 RXL589842 SHH589842 SRD589842 TAZ589842 TKV589842 TUR589842 UEN589842 UOJ589842 UYF589842 VIB589842 VRX589842 WBT589842 WLP589842 WVL589842 D655378 IZ655378 SV655378 ACR655378 AMN655378 AWJ655378 BGF655378 BQB655378 BZX655378 CJT655378 CTP655378 DDL655378 DNH655378 DXD655378 EGZ655378 EQV655378 FAR655378 FKN655378 FUJ655378 GEF655378 GOB655378 GXX655378 HHT655378 HRP655378 IBL655378 ILH655378 IVD655378 JEZ655378 JOV655378 JYR655378 KIN655378 KSJ655378 LCF655378 LMB655378 LVX655378 MFT655378 MPP655378 MZL655378 NJH655378 NTD655378 OCZ655378 OMV655378 OWR655378 PGN655378 PQJ655378 QAF655378 QKB655378 QTX655378 RDT655378 RNP655378 RXL655378 SHH655378 SRD655378 TAZ655378 TKV655378 TUR655378 UEN655378 UOJ655378 UYF655378 VIB655378 VRX655378 WBT655378 WLP655378 WVL655378 D720914 IZ720914 SV720914 ACR720914 AMN720914 AWJ720914 BGF720914 BQB720914 BZX720914 CJT720914 CTP720914 DDL720914 DNH720914 DXD720914 EGZ720914 EQV720914 FAR720914 FKN720914 FUJ720914 GEF720914 GOB720914 GXX720914 HHT720914 HRP720914 IBL720914 ILH720914 IVD720914 JEZ720914 JOV720914 JYR720914 KIN720914 KSJ720914 LCF720914 LMB720914 LVX720914 MFT720914 MPP720914 MZL720914 NJH720914 NTD720914 OCZ720914 OMV720914 OWR720914 PGN720914 PQJ720914 QAF720914 QKB720914 QTX720914 RDT720914 RNP720914 RXL720914 SHH720914 SRD720914 TAZ720914 TKV720914 TUR720914 UEN720914 UOJ720914 UYF720914 VIB720914 VRX720914 WBT720914 WLP720914 WVL720914 D786450 IZ786450 SV786450 ACR786450 AMN786450 AWJ786450 BGF786450 BQB786450 BZX786450 CJT786450 CTP786450 DDL786450 DNH786450 DXD786450 EGZ786450 EQV786450 FAR786450 FKN786450 FUJ786450 GEF786450 GOB786450 GXX786450 HHT786450 HRP786450 IBL786450 ILH786450 IVD786450 JEZ786450 JOV786450 JYR786450 KIN786450 KSJ786450 LCF786450 LMB786450 LVX786450 MFT786450 MPP786450 MZL786450 NJH786450 NTD786450 OCZ786450 OMV786450 OWR786450 PGN786450 PQJ786450 QAF786450 QKB786450 QTX786450 RDT786450 RNP786450 RXL786450 SHH786450 SRD786450 TAZ786450 TKV786450 TUR786450 UEN786450 UOJ786450 UYF786450 VIB786450 VRX786450 WBT786450 WLP786450 WVL786450 D851986 IZ851986 SV851986 ACR851986 AMN851986 AWJ851986 BGF851986 BQB851986 BZX851986 CJT851986 CTP851986 DDL851986 DNH851986 DXD851986 EGZ851986 EQV851986 FAR851986 FKN851986 FUJ851986 GEF851986 GOB851986 GXX851986 HHT851986 HRP851986 IBL851986 ILH851986 IVD851986 JEZ851986 JOV851986 JYR851986 KIN851986 KSJ851986 LCF851986 LMB851986 LVX851986 MFT851986 MPP851986 MZL851986 NJH851986 NTD851986 OCZ851986 OMV851986 OWR851986 PGN851986 PQJ851986 QAF851986 QKB851986 QTX851986 RDT851986 RNP851986 RXL851986 SHH851986 SRD851986 TAZ851986 TKV851986 TUR851986 UEN851986 UOJ851986 UYF851986 VIB851986 VRX851986 WBT851986 WLP851986 WVL851986 D917522 IZ917522 SV917522 ACR917522 AMN917522 AWJ917522 BGF917522 BQB917522 BZX917522 CJT917522 CTP917522 DDL917522 DNH917522 DXD917522 EGZ917522 EQV917522 FAR917522 FKN917522 FUJ917522 GEF917522 GOB917522 GXX917522 HHT917522 HRP917522 IBL917522 ILH917522 IVD917522 JEZ917522 JOV917522 JYR917522 KIN917522 KSJ917522 LCF917522 LMB917522 LVX917522 MFT917522 MPP917522 MZL917522 NJH917522 NTD917522 OCZ917522 OMV917522 OWR917522 PGN917522 PQJ917522 QAF917522 QKB917522 QTX917522 RDT917522 RNP917522 RXL917522 SHH917522 SRD917522 TAZ917522 TKV917522 TUR917522 UEN917522 UOJ917522 UYF917522 VIB917522 VRX917522 WBT917522 WLP917522 WVL917522 D983058 IZ983058 SV983058 ACR983058 AMN983058 AWJ983058 BGF983058 BQB983058 BZX983058 CJT983058 CTP983058 DDL983058 DNH983058 DXD983058 EGZ983058 EQV983058 FAR983058 FKN983058 FUJ983058 GEF983058 GOB983058 GXX983058 HHT983058 HRP983058 IBL983058 ILH983058 IVD983058 JEZ983058 JOV983058 JYR983058 KIN983058 KSJ983058 LCF983058 LMB983058 LVX983058 MFT983058 MPP983058 MZL983058 NJH983058 NTD983058 OCZ983058 OMV983058 OWR983058 PGN983058 PQJ983058 QAF983058 QKB983058 QTX983058 RDT983058 RNP983058 RXL983058 SHH983058 SRD983058 TAZ983058 TKV983058 TUR983058 UEN983058 UOJ983058 UYF983058 VIB983058 VRX983058 WBT983058 WLP983058 WVL983058">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 IZ18 SV18 ACR18 AMN18 AWJ18 BGF18 BQB18 BZX18 CJT18 CTP18 DDL18 DNH18 DXD18 EGZ18 EQV18 FAR18 FKN18 FUJ18 GEF18 GOB18 GXX18 HHT18 HRP18 IBL18 ILH18 IVD18 JEZ18 JOV18 JYR18 KIN18 KSJ18 LCF18 LMB18 LVX18 MFT18 MPP18 MZL18 NJH18 NTD18 OCZ18 OMV18 OWR18 PGN18 PQJ18 QAF18 QKB18 QTX18 RDT18 RNP18 RXL18 SHH18 SRD18 TAZ18 TKV18 TUR18 UEN18 UOJ18 UYF18 VIB18 VRX18 WBT18 WLP18 WVL18 D65556 IZ65556 SV65556 ACR65556 AMN65556 AWJ65556 BGF65556 BQB65556 BZX65556 CJT65556 CTP65556 DDL65556 DNH65556 DXD65556 EGZ65556 EQV65556 FAR65556 FKN65556 FUJ65556 GEF65556 GOB65556 GXX65556 HHT65556 HRP65556 IBL65556 ILH65556 IVD65556 JEZ65556 JOV65556 JYR65556 KIN65556 KSJ65556 LCF65556 LMB65556 LVX65556 MFT65556 MPP65556 MZL65556 NJH65556 NTD65556 OCZ65556 OMV65556 OWR65556 PGN65556 PQJ65556 QAF65556 QKB65556 QTX65556 RDT65556 RNP65556 RXL65556 SHH65556 SRD65556 TAZ65556 TKV65556 TUR65556 UEN65556 UOJ65556 UYF65556 VIB65556 VRX65556 WBT65556 WLP65556 WVL65556 D131092 IZ131092 SV131092 ACR131092 AMN131092 AWJ131092 BGF131092 BQB131092 BZX131092 CJT131092 CTP131092 DDL131092 DNH131092 DXD131092 EGZ131092 EQV131092 FAR131092 FKN131092 FUJ131092 GEF131092 GOB131092 GXX131092 HHT131092 HRP131092 IBL131092 ILH131092 IVD131092 JEZ131092 JOV131092 JYR131092 KIN131092 KSJ131092 LCF131092 LMB131092 LVX131092 MFT131092 MPP131092 MZL131092 NJH131092 NTD131092 OCZ131092 OMV131092 OWR131092 PGN131092 PQJ131092 QAF131092 QKB131092 QTX131092 RDT131092 RNP131092 RXL131092 SHH131092 SRD131092 TAZ131092 TKV131092 TUR131092 UEN131092 UOJ131092 UYF131092 VIB131092 VRX131092 WBT131092 WLP131092 WVL131092 D196628 IZ196628 SV196628 ACR196628 AMN196628 AWJ196628 BGF196628 BQB196628 BZX196628 CJT196628 CTP196628 DDL196628 DNH196628 DXD196628 EGZ196628 EQV196628 FAR196628 FKN196628 FUJ196628 GEF196628 GOB196628 GXX196628 HHT196628 HRP196628 IBL196628 ILH196628 IVD196628 JEZ196628 JOV196628 JYR196628 KIN196628 KSJ196628 LCF196628 LMB196628 LVX196628 MFT196628 MPP196628 MZL196628 NJH196628 NTD196628 OCZ196628 OMV196628 OWR196628 PGN196628 PQJ196628 QAF196628 QKB196628 QTX196628 RDT196628 RNP196628 RXL196628 SHH196628 SRD196628 TAZ196628 TKV196628 TUR196628 UEN196628 UOJ196628 UYF196628 VIB196628 VRX196628 WBT196628 WLP196628 WVL196628 D262164 IZ262164 SV262164 ACR262164 AMN262164 AWJ262164 BGF262164 BQB262164 BZX262164 CJT262164 CTP262164 DDL262164 DNH262164 DXD262164 EGZ262164 EQV262164 FAR262164 FKN262164 FUJ262164 GEF262164 GOB262164 GXX262164 HHT262164 HRP262164 IBL262164 ILH262164 IVD262164 JEZ262164 JOV262164 JYR262164 KIN262164 KSJ262164 LCF262164 LMB262164 LVX262164 MFT262164 MPP262164 MZL262164 NJH262164 NTD262164 OCZ262164 OMV262164 OWR262164 PGN262164 PQJ262164 QAF262164 QKB262164 QTX262164 RDT262164 RNP262164 RXL262164 SHH262164 SRD262164 TAZ262164 TKV262164 TUR262164 UEN262164 UOJ262164 UYF262164 VIB262164 VRX262164 WBT262164 WLP262164 WVL262164 D327700 IZ327700 SV327700 ACR327700 AMN327700 AWJ327700 BGF327700 BQB327700 BZX327700 CJT327700 CTP327700 DDL327700 DNH327700 DXD327700 EGZ327700 EQV327700 FAR327700 FKN327700 FUJ327700 GEF327700 GOB327700 GXX327700 HHT327700 HRP327700 IBL327700 ILH327700 IVD327700 JEZ327700 JOV327700 JYR327700 KIN327700 KSJ327700 LCF327700 LMB327700 LVX327700 MFT327700 MPP327700 MZL327700 NJH327700 NTD327700 OCZ327700 OMV327700 OWR327700 PGN327700 PQJ327700 QAF327700 QKB327700 QTX327700 RDT327700 RNP327700 RXL327700 SHH327700 SRD327700 TAZ327700 TKV327700 TUR327700 UEN327700 UOJ327700 UYF327700 VIB327700 VRX327700 WBT327700 WLP327700 WVL327700 D393236 IZ393236 SV393236 ACR393236 AMN393236 AWJ393236 BGF393236 BQB393236 BZX393236 CJT393236 CTP393236 DDL393236 DNH393236 DXD393236 EGZ393236 EQV393236 FAR393236 FKN393236 FUJ393236 GEF393236 GOB393236 GXX393236 HHT393236 HRP393236 IBL393236 ILH393236 IVD393236 JEZ393236 JOV393236 JYR393236 KIN393236 KSJ393236 LCF393236 LMB393236 LVX393236 MFT393236 MPP393236 MZL393236 NJH393236 NTD393236 OCZ393236 OMV393236 OWR393236 PGN393236 PQJ393236 QAF393236 QKB393236 QTX393236 RDT393236 RNP393236 RXL393236 SHH393236 SRD393236 TAZ393236 TKV393236 TUR393236 UEN393236 UOJ393236 UYF393236 VIB393236 VRX393236 WBT393236 WLP393236 WVL393236 D458772 IZ458772 SV458772 ACR458772 AMN458772 AWJ458772 BGF458772 BQB458772 BZX458772 CJT458772 CTP458772 DDL458772 DNH458772 DXD458772 EGZ458772 EQV458772 FAR458772 FKN458772 FUJ458772 GEF458772 GOB458772 GXX458772 HHT458772 HRP458772 IBL458772 ILH458772 IVD458772 JEZ458772 JOV458772 JYR458772 KIN458772 KSJ458772 LCF458772 LMB458772 LVX458772 MFT458772 MPP458772 MZL458772 NJH458772 NTD458772 OCZ458772 OMV458772 OWR458772 PGN458772 PQJ458772 QAF458772 QKB458772 QTX458772 RDT458772 RNP458772 RXL458772 SHH458772 SRD458772 TAZ458772 TKV458772 TUR458772 UEN458772 UOJ458772 UYF458772 VIB458772 VRX458772 WBT458772 WLP458772 WVL458772 D524308 IZ524308 SV524308 ACR524308 AMN524308 AWJ524308 BGF524308 BQB524308 BZX524308 CJT524308 CTP524308 DDL524308 DNH524308 DXD524308 EGZ524308 EQV524308 FAR524308 FKN524308 FUJ524308 GEF524308 GOB524308 GXX524308 HHT524308 HRP524308 IBL524308 ILH524308 IVD524308 JEZ524308 JOV524308 JYR524308 KIN524308 KSJ524308 LCF524308 LMB524308 LVX524308 MFT524308 MPP524308 MZL524308 NJH524308 NTD524308 OCZ524308 OMV524308 OWR524308 PGN524308 PQJ524308 QAF524308 QKB524308 QTX524308 RDT524308 RNP524308 RXL524308 SHH524308 SRD524308 TAZ524308 TKV524308 TUR524308 UEN524308 UOJ524308 UYF524308 VIB524308 VRX524308 WBT524308 WLP524308 WVL524308 D589844 IZ589844 SV589844 ACR589844 AMN589844 AWJ589844 BGF589844 BQB589844 BZX589844 CJT589844 CTP589844 DDL589844 DNH589844 DXD589844 EGZ589844 EQV589844 FAR589844 FKN589844 FUJ589844 GEF589844 GOB589844 GXX589844 HHT589844 HRP589844 IBL589844 ILH589844 IVD589844 JEZ589844 JOV589844 JYR589844 KIN589844 KSJ589844 LCF589844 LMB589844 LVX589844 MFT589844 MPP589844 MZL589844 NJH589844 NTD589844 OCZ589844 OMV589844 OWR589844 PGN589844 PQJ589844 QAF589844 QKB589844 QTX589844 RDT589844 RNP589844 RXL589844 SHH589844 SRD589844 TAZ589844 TKV589844 TUR589844 UEN589844 UOJ589844 UYF589844 VIB589844 VRX589844 WBT589844 WLP589844 WVL589844 D655380 IZ655380 SV655380 ACR655380 AMN655380 AWJ655380 BGF655380 BQB655380 BZX655380 CJT655380 CTP655380 DDL655380 DNH655380 DXD655380 EGZ655380 EQV655380 FAR655380 FKN655380 FUJ655380 GEF655380 GOB655380 GXX655380 HHT655380 HRP655380 IBL655380 ILH655380 IVD655380 JEZ655380 JOV655380 JYR655380 KIN655380 KSJ655380 LCF655380 LMB655380 LVX655380 MFT655380 MPP655380 MZL655380 NJH655380 NTD655380 OCZ655380 OMV655380 OWR655380 PGN655380 PQJ655380 QAF655380 QKB655380 QTX655380 RDT655380 RNP655380 RXL655380 SHH655380 SRD655380 TAZ655380 TKV655380 TUR655380 UEN655380 UOJ655380 UYF655380 VIB655380 VRX655380 WBT655380 WLP655380 WVL655380 D720916 IZ720916 SV720916 ACR720916 AMN720916 AWJ720916 BGF720916 BQB720916 BZX720916 CJT720916 CTP720916 DDL720916 DNH720916 DXD720916 EGZ720916 EQV720916 FAR720916 FKN720916 FUJ720916 GEF720916 GOB720916 GXX720916 HHT720916 HRP720916 IBL720916 ILH720916 IVD720916 JEZ720916 JOV720916 JYR720916 KIN720916 KSJ720916 LCF720916 LMB720916 LVX720916 MFT720916 MPP720916 MZL720916 NJH720916 NTD720916 OCZ720916 OMV720916 OWR720916 PGN720916 PQJ720916 QAF720916 QKB720916 QTX720916 RDT720916 RNP720916 RXL720916 SHH720916 SRD720916 TAZ720916 TKV720916 TUR720916 UEN720916 UOJ720916 UYF720916 VIB720916 VRX720916 WBT720916 WLP720916 WVL720916 D786452 IZ786452 SV786452 ACR786452 AMN786452 AWJ786452 BGF786452 BQB786452 BZX786452 CJT786452 CTP786452 DDL786452 DNH786452 DXD786452 EGZ786452 EQV786452 FAR786452 FKN786452 FUJ786452 GEF786452 GOB786452 GXX786452 HHT786452 HRP786452 IBL786452 ILH786452 IVD786452 JEZ786452 JOV786452 JYR786452 KIN786452 KSJ786452 LCF786452 LMB786452 LVX786452 MFT786452 MPP786452 MZL786452 NJH786452 NTD786452 OCZ786452 OMV786452 OWR786452 PGN786452 PQJ786452 QAF786452 QKB786452 QTX786452 RDT786452 RNP786452 RXL786452 SHH786452 SRD786452 TAZ786452 TKV786452 TUR786452 UEN786452 UOJ786452 UYF786452 VIB786452 VRX786452 WBT786452 WLP786452 WVL786452 D851988 IZ851988 SV851988 ACR851988 AMN851988 AWJ851988 BGF851988 BQB851988 BZX851988 CJT851988 CTP851988 DDL851988 DNH851988 DXD851988 EGZ851988 EQV851988 FAR851988 FKN851988 FUJ851988 GEF851988 GOB851988 GXX851988 HHT851988 HRP851988 IBL851988 ILH851988 IVD851988 JEZ851988 JOV851988 JYR851988 KIN851988 KSJ851988 LCF851988 LMB851988 LVX851988 MFT851988 MPP851988 MZL851988 NJH851988 NTD851988 OCZ851988 OMV851988 OWR851988 PGN851988 PQJ851988 QAF851988 QKB851988 QTX851988 RDT851988 RNP851988 RXL851988 SHH851988 SRD851988 TAZ851988 TKV851988 TUR851988 UEN851988 UOJ851988 UYF851988 VIB851988 VRX851988 WBT851988 WLP851988 WVL851988 D917524 IZ917524 SV917524 ACR917524 AMN917524 AWJ917524 BGF917524 BQB917524 BZX917524 CJT917524 CTP917524 DDL917524 DNH917524 DXD917524 EGZ917524 EQV917524 FAR917524 FKN917524 FUJ917524 GEF917524 GOB917524 GXX917524 HHT917524 HRP917524 IBL917524 ILH917524 IVD917524 JEZ917524 JOV917524 JYR917524 KIN917524 KSJ917524 LCF917524 LMB917524 LVX917524 MFT917524 MPP917524 MZL917524 NJH917524 NTD917524 OCZ917524 OMV917524 OWR917524 PGN917524 PQJ917524 QAF917524 QKB917524 QTX917524 RDT917524 RNP917524 RXL917524 SHH917524 SRD917524 TAZ917524 TKV917524 TUR917524 UEN917524 UOJ917524 UYF917524 VIB917524 VRX917524 WBT917524 WLP917524 WVL917524 D983060 IZ983060 SV983060 ACR983060 AMN983060 AWJ983060 BGF983060 BQB983060 BZX983060 CJT983060 CTP983060 DDL983060 DNH983060 DXD983060 EGZ983060 EQV983060 FAR983060 FKN983060 FUJ983060 GEF983060 GOB983060 GXX983060 HHT983060 HRP983060 IBL983060 ILH983060 IVD983060 JEZ983060 JOV983060 JYR983060 KIN983060 KSJ983060 LCF983060 LMB983060 LVX983060 MFT983060 MPP983060 MZL983060 NJH983060 NTD983060 OCZ983060 OMV983060 OWR983060 PGN983060 PQJ983060 QAF983060 QKB983060 QTX983060 RDT983060 RNP983060 RXL983060 SHH983060 SRD983060 TAZ983060 TKV983060 TUR983060 UEN983060 UOJ983060 UYF983060 VIB983060 VRX983060 WBT983060 WLP983060 WVL983060">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M11">
@@ -2661,7 +2617,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2684,11 +2642,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="170"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="177"/>
       <c r="E1" s="31" t="s">
         <v>74</v>
       </c>
@@ -2802,9 +2760,9 @@
         <f t="shared" si="0"/>
         <v>GBP_YC1MRH_SND</v>
       </c>
-      <c r="F4" s="13" t="e">
+      <c r="F4" s="13">
         <f>_xll.qlRateHelperQuoteValue($E4,Trigger)</f>
-        <v>#NUM!</v>
+        <v>5.2350000000000001E-3</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="b">
@@ -2816,13 +2774,13 @@
       <c r="J4" s="12">
         <v>1</v>
       </c>
-      <c r="K4" s="11" t="e">
+      <c r="K4" s="11">
         <f>_xll.qlRateHelperEarliestDate($E4,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="L4" s="10" t="e">
+        <v>41772</v>
+      </c>
+      <c r="L4" s="10">
         <f>_xll.qlRateHelperLatestDate($E4,Trigger)</f>
-        <v>#NUM!</v>
+        <v>41773</v>
       </c>
       <c r="M4" s="1">
         <v>30</v>
@@ -2843,7 +2801,7 @@
       </c>
       <c r="F5" s="13">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>4.9230000000000003E-3</v>
+        <v>4.8339999999999998E-3</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="b">
@@ -2857,11 +2815,11 @@
       </c>
       <c r="K5" s="11">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L5" s="10">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41691</v>
+        <v>41775</v>
       </c>
       <c r="M5" s="1">
         <v>40</v>
@@ -2882,7 +2840,7 @@
       </c>
       <c r="F6" s="13">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>4.9290000000000002E-3</v>
+        <v>4.8440000000000002E-3</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12" t="b">
@@ -2896,11 +2854,11 @@
       </c>
       <c r="K6" s="11">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L6" s="10">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41698</v>
+        <v>41782</v>
       </c>
       <c r="M6" s="1">
         <v>50</v>
@@ -2921,7 +2879,7 @@
       </c>
       <c r="F7" s="13">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>4.9220000000000002E-3</v>
+        <v>4.8640000000000003E-3</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12" t="b">
@@ -2935,11 +2893,11 @@
       </c>
       <c r="K7" s="11">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L7" s="10">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41705</v>
+        <v>41789</v>
       </c>
       <c r="M7" s="1">
         <v>60</v>
@@ -2960,7 +2918,7 @@
       </c>
       <c r="F8" s="13">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>4.9319999999999998E-3</v>
+        <v>4.8690000000000001E-3</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="12" t="b">
@@ -2974,11 +2932,11 @@
       </c>
       <c r="K8" s="11">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L8" s="10">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41712</v>
+        <v>41799</v>
       </c>
       <c r="M8" s="1">
         <v>70</v>
@@ -3992,11 +3950,11 @@
       </c>
       <c r="D36" s="14" t="str">
         <f t="array" ref="D36:D77">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A36:$A77)</f>
-        <v>G4</v>
+        <v>K4</v>
       </c>
       <c r="E36" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MG4</v>
+        <v>GBP_YC1MRH_FUT1MK4</v>
       </c>
       <c r="F36" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E36,Trigger)</f>
@@ -4034,11 +3992,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D37" s="14" t="str">
-        <v>H4</v>
+        <v>M4</v>
       </c>
       <c r="E37" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MH4</v>
+        <v>GBP_YC1MRH_FUT1MM4</v>
       </c>
       <c r="F37" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E37,Trigger)</f>
@@ -4076,11 +4034,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D38" s="14" t="str">
-        <v>J4</v>
+        <v>N4</v>
       </c>
       <c r="E38" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MJ4</v>
+        <v>GBP_YC1MRH_FUT1MN4</v>
       </c>
       <c r="F38" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E38,Trigger)</f>
@@ -4118,11 +4076,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D39" s="14" t="str">
-        <v>K4</v>
+        <v>Q4</v>
       </c>
       <c r="E39" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MK4</v>
+        <v>GBP_YC1MRH_FUT1MQ4</v>
       </c>
       <c r="F39" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E39,Trigger)</f>
@@ -4160,11 +4118,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D40" s="14" t="str">
-        <v>M4</v>
+        <v>U4</v>
       </c>
       <c r="E40" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MM4</v>
+        <v>GBP_YC1MRH_FUT1MU4</v>
       </c>
       <c r="F40" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E40,Trigger)</f>
@@ -4202,11 +4160,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D41" s="14" t="str">
-        <v>N4</v>
+        <v>V4</v>
       </c>
       <c r="E41" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MN4</v>
+        <v>GBP_YC1MRH_FUT1MV4</v>
       </c>
       <c r="F41" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E41,Trigger)</f>
@@ -4244,11 +4202,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D42" s="14" t="str">
-        <v>Q4</v>
+        <v>X4</v>
       </c>
       <c r="E42" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MQ4</v>
+        <v>GBP_YC1MRH_FUT1MX4</v>
       </c>
       <c r="F42" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E42,Trigger)</f>
@@ -4286,11 +4244,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D43" s="14" t="str">
-        <v>U4</v>
+        <v>Z4</v>
       </c>
       <c r="E43" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MU4</v>
+        <v>GBP_YC1MRH_FUT1MZ4</v>
       </c>
       <c r="F43" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E43,Trigger)</f>
@@ -4328,11 +4286,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D44" s="14" t="str">
-        <v>V4</v>
+        <v>F5</v>
       </c>
       <c r="E44" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MV4</v>
+        <v>GBP_YC1MRH_FUT1MF5</v>
       </c>
       <c r="F44" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E44,Trigger)</f>
@@ -4370,11 +4328,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D45" s="14" t="str">
-        <v>X4</v>
+        <v>G5</v>
       </c>
       <c r="E45" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MX4</v>
+        <v>GBP_YC1MRH_FUT1MG5</v>
       </c>
       <c r="F45" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E45,Trigger)</f>
@@ -4412,11 +4370,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D46" s="14" t="str">
-        <v>Z4</v>
+        <v>H5</v>
       </c>
       <c r="E46" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MZ4</v>
+        <v>GBP_YC1MRH_FUT1MH5</v>
       </c>
       <c r="F46" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E46,Trigger)</f>
@@ -4454,11 +4412,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D47" s="14" t="str">
-        <v>F5</v>
+        <v>J5</v>
       </c>
       <c r="E47" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MF5</v>
+        <v>GBP_YC1MRH_FUT1MJ5</v>
       </c>
       <c r="F47" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E47,Trigger)</f>
@@ -4496,11 +4454,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D48" s="14" t="str">
-        <v>H5</v>
+        <v>M5</v>
       </c>
       <c r="E48" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MH5</v>
+        <v>GBP_YC1MRH_FUT1MM5</v>
       </c>
       <c r="F48" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E48,Trigger)</f>
@@ -4538,11 +4496,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D49" s="14" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E49" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MM5</v>
+        <v>GBP_YC1MRH_FUT1MU5</v>
       </c>
       <c r="F49" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E49,Trigger)</f>
@@ -4580,11 +4538,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D50" s="14" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E50" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MU5</v>
+        <v>GBP_YC1MRH_FUT1MZ5</v>
       </c>
       <c r="F50" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E50,Trigger)</f>
@@ -4622,11 +4580,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D51" s="14" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E51" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MZ5</v>
+        <v>GBP_YC1MRH_FUT1MH6</v>
       </c>
       <c r="F51" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E51,Trigger)</f>
@@ -4664,11 +4622,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D52" s="14" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E52" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MH6</v>
+        <v>GBP_YC1MRH_FUT1MM6</v>
       </c>
       <c r="F52" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E52,Trigger)</f>
@@ -4706,11 +4664,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D53" s="14" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E53" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MM6</v>
+        <v>GBP_YC1MRH_FUT1MU6</v>
       </c>
       <c r="F53" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E53,Trigger)</f>
@@ -4748,11 +4706,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D54" s="14" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E54" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MU6</v>
+        <v>GBP_YC1MRH_FUT1MZ6</v>
       </c>
       <c r="F54" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E54,Trigger)</f>
@@ -4790,11 +4748,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D55" s="14" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E55" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MZ6</v>
+        <v>GBP_YC1MRH_FUT1MH7</v>
       </c>
       <c r="F55" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E55,Trigger)</f>
@@ -4832,11 +4790,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D56" s="14" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E56" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MH7</v>
+        <v>GBP_YC1MRH_FUT1MM7</v>
       </c>
       <c r="F56" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E56,Trigger)</f>
@@ -4874,11 +4832,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D57" s="14" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E57" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MM7</v>
+        <v>GBP_YC1MRH_FUT1MU7</v>
       </c>
       <c r="F57" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E57,Trigger)</f>
@@ -4916,11 +4874,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D58" s="14" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E58" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MU7</v>
+        <v>GBP_YC1MRH_FUT1MZ7</v>
       </c>
       <c r="F58" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E58,Trigger)</f>
@@ -4958,11 +4916,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D59" s="14" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E59" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MZ7</v>
+        <v>GBP_YC1MRH_FUT1MH8</v>
       </c>
       <c r="F59" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E59,Trigger)</f>
@@ -5000,11 +4958,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D60" s="14" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E60" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MH8</v>
+        <v>GBP_YC1MRH_FUT1MM8</v>
       </c>
       <c r="F60" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E60,Trigger)</f>
@@ -5042,11 +5000,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D61" s="14" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E61" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MM8</v>
+        <v>GBP_YC1MRH_FUT1MU8</v>
       </c>
       <c r="F61" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E61,Trigger)</f>
@@ -5084,11 +5042,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D62" s="14" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E62" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MU8</v>
+        <v>GBP_YC1MRH_FUT1MZ8</v>
       </c>
       <c r="F62" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E62,Trigger)</f>
@@ -5126,11 +5084,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D63" s="14" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E63" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MZ8</v>
+        <v>GBP_YC1MRH_FUT1MH9</v>
       </c>
       <c r="F63" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E63,Trigger)</f>
@@ -5168,11 +5126,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D64" s="14" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E64" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MH9</v>
+        <v>GBP_YC1MRH_FUT1MM9</v>
       </c>
       <c r="F64" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E64,Trigger)</f>
@@ -5210,11 +5168,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D65" s="14" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E65" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>GBP_YC1MRH_FUT1MM9</v>
+        <v>GBP_YC1MRH_FUT1MU9</v>
       </c>
       <c r="F65" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E65,Trigger)</f>
@@ -5252,11 +5210,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D66" s="14" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E66" s="14" t="str">
         <f t="shared" ref="E66:E97" si="4">RateHelperPrefix&amp;"_"&amp;$B66&amp;$C66&amp;$D66</f>
-        <v>GBP_YC1MRH_FUT1MU9</v>
+        <v>GBP_YC1MRH_FUT1MZ9</v>
       </c>
       <c r="F66" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E66,Trigger)</f>
@@ -5294,11 +5252,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D67" s="14" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E67" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>GBP_YC1MRH_FUT1MZ9</v>
+        <v>GBP_YC1MRH_FUT1MH0</v>
       </c>
       <c r="F67" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E67,Trigger)</f>
@@ -5336,11 +5294,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D68" s="14" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E68" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>GBP_YC1MRH_FUT1MH0</v>
+        <v>GBP_YC1MRH_FUT1MM0</v>
       </c>
       <c r="F68" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E68,Trigger)</f>
@@ -5378,11 +5336,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D69" s="14" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E69" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>GBP_YC1MRH_FUT1MM0</v>
+        <v>GBP_YC1MRH_FUT1MU0</v>
       </c>
       <c r="F69" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E69,Trigger)</f>
@@ -5420,11 +5378,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D70" s="14" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E70" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>GBP_YC1MRH_FUT1MU0</v>
+        <v>GBP_YC1MRH_FUT1MZ0</v>
       </c>
       <c r="F70" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E70,Trigger)</f>
@@ -5462,11 +5420,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D71" s="14" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E71" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>GBP_YC1MRH_FUT1MZ0</v>
+        <v>GBP_YC1MRH_FUT1MH1</v>
       </c>
       <c r="F71" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E71,Trigger)</f>
@@ -5504,11 +5462,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D72" s="14" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E72" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>GBP_YC1MRH_FUT1MH1</v>
+        <v>GBP_YC1MRH_FUT1MM1</v>
       </c>
       <c r="F72" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E72,Trigger)</f>
@@ -5546,11 +5504,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D73" s="14" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E73" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>GBP_YC1MRH_FUT1MM1</v>
+        <v>GBP_YC1MRH_FUT1MU1</v>
       </c>
       <c r="F73" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E73,Trigger)</f>
@@ -5588,11 +5546,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D74" s="14" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E74" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>GBP_YC1MRH_FUT1MU1</v>
+        <v>GBP_YC1MRH_FUT1MZ1</v>
       </c>
       <c r="F74" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E74,Trigger)</f>
@@ -5630,11 +5588,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D75" s="14" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E75" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>GBP_YC1MRH_FUT1MZ1</v>
+        <v>GBP_YC1MRH_FUT1MH2</v>
       </c>
       <c r="F75" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E75,Trigger)</f>
@@ -5672,11 +5630,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D76" s="14" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E76" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>GBP_YC1MRH_FUT1MH2</v>
+        <v>GBP_YC1MRH_FUT1MM2</v>
       </c>
       <c r="F76" s="28" t="e">
         <f>_xll.qlRateHelperQuoteValue($E76,Trigger)</f>
@@ -5714,11 +5672,11 @@
         <v>FUT1M</v>
       </c>
       <c r="D77" s="7" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E77" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>GBP_YC1MRH_FUT1MM2</v>
+        <v>GBP_YC1MRH_FUT1MU2</v>
       </c>
       <c r="F77" s="27" t="e">
         <f>_xll.qlRateHelperQuoteValue($E77,Trigger)</f>
@@ -5761,7 +5719,7 @@
       </c>
       <c r="F78" s="20">
         <f>_xll.qlRateHelperQuoteValue($E78,Trigger)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.9124999999999993E-3</v>
       </c>
       <c r="G78" s="20">
         <f>_xll.qlSwapRateHelperSpread($E78,Trigger)</f>
@@ -5778,11 +5736,11 @@
       </c>
       <c r="K78" s="18">
         <f>_xll.qlRateHelperEarliestDate($E78,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L78" s="17">
         <f>_xll.qlRateHelperLatestDate($E78,Trigger)</f>
-        <v>41743</v>
+        <v>41829</v>
       </c>
       <c r="M78" s="22"/>
     </row>
@@ -5800,7 +5758,7 @@
       </c>
       <c r="F79" s="13">
         <f>_xll.qlRateHelperQuoteValue($E79,Trigger)</f>
-        <v>4.8500000000000001E-3</v>
+        <v>4.9375E-3</v>
       </c>
       <c r="G79" s="13">
         <f>_xll.qlSwapRateHelperSpread($E79,Trigger)</f>
@@ -5817,11 +5775,11 @@
       </c>
       <c r="K79" s="11">
         <f>_xll.qlRateHelperEarliestDate($E79,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L79" s="10">
         <f>_xll.qlRateHelperLatestDate($E79,Trigger)</f>
-        <v>41773</v>
+        <v>41862</v>
       </c>
       <c r="M79" s="25"/>
     </row>
@@ -5839,7 +5797,7 @@
       </c>
       <c r="F80" s="13">
         <f>_xll.qlRateHelperQuoteValue($E80,Trigger)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>5.0124999999999996E-3</v>
       </c>
       <c r="G80" s="13">
         <f>_xll.qlSwapRateHelperSpread($E80,Trigger)</f>
@@ -5856,11 +5814,11 @@
       </c>
       <c r="K80" s="11">
         <f>_xll.qlRateHelperEarliestDate($E80,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L80" s="10">
         <f>_xll.qlRateHelperLatestDate($E80,Trigger)</f>
-        <v>41806</v>
+        <v>41891</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
@@ -5877,7 +5835,7 @@
       </c>
       <c r="F81" s="13">
         <f>_xll.qlRateHelperQuoteValue($E81,Trigger)</f>
-        <v>4.7499999999999999E-3</v>
+        <v>5.0750000000000005E-3</v>
       </c>
       <c r="G81" s="13">
         <f>_xll.qlSwapRateHelperSpread($E81,Trigger)</f>
@@ -5894,11 +5852,11 @@
       </c>
       <c r="K81" s="11">
         <f>_xll.qlRateHelperEarliestDate($E81,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L81" s="10">
         <f>_xll.qlRateHelperLatestDate($E81,Trigger)</f>
-        <v>41834</v>
+        <v>41921</v>
       </c>
     </row>
     <row r="82" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5915,7 +5873,7 @@
       </c>
       <c r="F82" s="13">
         <f>_xll.qlRateHelperQuoteValue($E82,Trigger)</f>
-        <v>4.6999999999999993E-3</v>
+        <v>5.1750000000000008E-3</v>
       </c>
       <c r="G82" s="13">
         <f>_xll.qlSwapRateHelperSpread($E82,Trigger)</f>
@@ -5932,11 +5890,11 @@
       </c>
       <c r="K82" s="11">
         <f>_xll.qlRateHelperEarliestDate($E82,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L82" s="10">
         <f>_xll.qlRateHelperLatestDate($E82,Trigger)</f>
-        <v>41865</v>
+        <v>41953</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
@@ -5953,7 +5911,7 @@
       </c>
       <c r="F83" s="13">
         <f>_xll.qlRateHelperQuoteValue($E83,Trigger)</f>
-        <v>4.6500000000000005E-3</v>
+        <v>5.3125000000000004E-3</v>
       </c>
       <c r="G83" s="13">
         <f>_xll.qlSwapRateHelperSpread($E83,Trigger)</f>
@@ -5970,11 +5928,11 @@
       </c>
       <c r="K83" s="11">
         <f>_xll.qlRateHelperEarliestDate($E83,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L83" s="10">
         <f>_xll.qlRateHelperLatestDate($E83,Trigger)</f>
-        <v>41897</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
@@ -5991,7 +5949,7 @@
       </c>
       <c r="F84" s="13">
         <f>_xll.qlRateHelperQuoteValue($E84,Trigger)</f>
-        <v>4.6500000000000005E-3</v>
+        <v>5.4875000000000011E-3</v>
       </c>
       <c r="G84" s="13">
         <f>_xll.qlSwapRateHelperSpread($E84,Trigger)</f>
@@ -6008,11 +5966,11 @@
       </c>
       <c r="K84" s="11">
         <f>_xll.qlRateHelperEarliestDate($E84,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L84" s="10">
         <f>_xll.qlRateHelperLatestDate($E84,Trigger)</f>
-        <v>41926</v>
+        <v>42013</v>
       </c>
     </row>
     <row r="85" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6029,7 +5987,7 @@
       </c>
       <c r="F85" s="13">
         <f>_xll.qlRateHelperQuoteValue($E85,Trigger)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="G85" s="13">
         <f>_xll.qlSwapRateHelperSpread($E85,Trigger)</f>
@@ -6046,11 +6004,11 @@
       </c>
       <c r="K85" s="11">
         <f>_xll.qlRateHelperEarliestDate($E85,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L85" s="10">
         <f>_xll.qlRateHelperLatestDate($E85,Trigger)</f>
-        <v>41957</v>
+        <v>42044</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
@@ -6067,7 +6025,7 @@
       </c>
       <c r="F86" s="13">
         <f>_xll.qlRateHelperQuoteValue($E86,Trigger)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>5.9125000000000002E-3</v>
       </c>
       <c r="G86" s="13">
         <f>_xll.qlSwapRateHelperSpread($E86,Trigger)</f>
@@ -6084,11 +6042,11 @@
       </c>
       <c r="K86" s="11">
         <f>_xll.qlRateHelperEarliestDate($E86,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L86" s="10">
         <f>_xll.qlRateHelperLatestDate($E86,Trigger)</f>
-        <v>41988</v>
+        <v>42072</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
@@ -6105,7 +6063,7 @@
       </c>
       <c r="F87" s="13">
         <f>_xll.qlRateHelperQuoteValue($E87,Trigger)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>6.1624999999999996E-3</v>
       </c>
       <c r="G87" s="13">
         <f>_xll.qlSwapRateHelperSpread($E87,Trigger)</f>
@@ -6122,11 +6080,11 @@
       </c>
       <c r="K87" s="11">
         <f>_xll.qlRateHelperEarliestDate($E87,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L87" s="10">
         <f>_xll.qlRateHelperLatestDate($E87,Trigger)</f>
-        <v>42018</v>
+        <v>42103</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
@@ -6143,7 +6101,7 @@
       </c>
       <c r="F88" s="6">
         <f>_xll.qlRateHelperQuoteValue($E88,Trigger)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>6.45E-3</v>
       </c>
       <c r="G88" s="6">
         <f>_xll.qlSwapRateHelperSpread($E88,Trigger)</f>
@@ -6160,11 +6118,11 @@
       </c>
       <c r="K88" s="4">
         <f>_xll.qlRateHelperEarliestDate($E88,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L88" s="3">
         <f>_xll.qlRateHelperLatestDate($E88,Trigger)</f>
-        <v>42051</v>
+        <v>42135</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
@@ -8157,7 +8115,7 @@
       </c>
       <c r="G133" s="20">
         <f>_xll.qlSwapRateHelperSpread($E133,Trigger)</f>
-        <v>1.9250000000000001E-3</v>
+        <v>1.2875E-3</v>
       </c>
       <c r="H133" s="19" t="b">
         <v>0</v>
@@ -8170,11 +8128,11 @@
       </c>
       <c r="K133" s="18">
         <f>_xll.qlRateHelperEarliestDate($E133,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L133" s="17">
         <f>_xll.qlRateHelperLatestDate($E133,Trigger)</f>
-        <v>42051</v>
+        <v>42135</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.2">
@@ -8321,11 +8279,11 @@
       </c>
       <c r="F137" s="13">
         <f>_xll.qlRateHelperQuoteValue($E137,Trigger)</f>
-        <v>6.6749999999999995E-3</v>
+        <v>1.172E-2</v>
       </c>
       <c r="G137" s="13">
         <f>_xll.qlSwapRateHelperSpread($E137,Trigger)</f>
-        <v>1.9499999999999999E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="H137" s="12" t="b">
         <v>1</v>
@@ -8338,11 +8296,11 @@
       </c>
       <c r="K137" s="11">
         <f>_xll.qlRateHelperEarliestDate($E137,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L137" s="10">
         <f>_xll.qlRateHelperLatestDate($E137,Trigger)</f>
-        <v>42415</v>
+        <v>42499</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.2">
@@ -8363,11 +8321,11 @@
       </c>
       <c r="F138" s="13">
         <f>_xll.qlRateHelperQuoteValue($E138,Trigger)</f>
-        <v>7.3250000000000008E-3</v>
+        <v>1.562E-2</v>
       </c>
       <c r="G138" s="13">
         <f>_xll.qlSwapRateHelperSpread($E138,Trigger)</f>
-        <v>1.9499999999999999E-3</v>
+        <v>1.4875000000000001E-3</v>
       </c>
       <c r="H138" s="12" t="b">
         <v>1</v>
@@ -8380,11 +8338,11 @@
       </c>
       <c r="K138" s="11">
         <f>_xll.qlRateHelperEarliestDate($E138,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L138" s="10">
         <f>_xll.qlRateHelperLatestDate($E138,Trigger)</f>
-        <v>42780</v>
+        <v>42864</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.2">
@@ -8405,11 +8363,11 @@
       </c>
       <c r="F139" s="13">
         <f>_xll.qlRateHelperQuoteValue($E139,Trigger)</f>
-        <v>8.4499999999999992E-3</v>
+        <v>1.8679999999999999E-2</v>
       </c>
       <c r="G139" s="13">
         <f>_xll.qlSwapRateHelperSpread($E139,Trigger)</f>
-        <v>1.9499999999999999E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="H139" s="12" t="b">
         <v>1</v>
@@ -8422,11 +8380,11 @@
       </c>
       <c r="K139" s="11">
         <f>_xll.qlRateHelperEarliestDate($E139,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L139" s="10">
         <f>_xll.qlRateHelperLatestDate($E139,Trigger)</f>
-        <v>43145</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.2">
@@ -8447,11 +8405,11 @@
       </c>
       <c r="F140" s="13">
         <f>_xll.qlRateHelperQuoteValue($E140,Trigger)</f>
-        <v>9.9500000000000005E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G140" s="13">
         <f>_xll.qlSwapRateHelperSpread($E140,Trigger)</f>
-        <v>1.9499999999999999E-3</v>
+        <v>1.8374999999999999E-3</v>
       </c>
       <c r="H140" s="12" t="b">
         <v>1</v>
@@ -8464,11 +8422,11 @@
       </c>
       <c r="K140" s="11">
         <f>_xll.qlRateHelperEarliestDate($E140,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L140" s="10">
         <f>_xll.qlRateHelperLatestDate($E140,Trigger)</f>
-        <v>43510</v>
+        <v>43594</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.2">
@@ -8489,11 +8447,11 @@
       </c>
       <c r="F141" s="13">
         <f>_xll.qlRateHelperQuoteValue($E141,Trigger)</f>
-        <v>1.1650000000000001E-2</v>
+        <v>2.2869999999999998E-2</v>
       </c>
       <c r="G141" s="13">
         <f>_xll.qlSwapRateHelperSpread($E141,Trigger)</f>
-        <v>1.9499999999999999E-3</v>
+        <v>2.0125E-3</v>
       </c>
       <c r="H141" s="12" t="b">
         <v>1</v>
@@ -8506,11 +8464,11 @@
       </c>
       <c r="K141" s="11">
         <f>_xll.qlRateHelperEarliestDate($E141,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L141" s="10">
         <f>_xll.qlRateHelperLatestDate($E141,Trigger)</f>
-        <v>43875</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.2">
@@ -8531,11 +8489,11 @@
       </c>
       <c r="F142" s="13">
         <f>_xll.qlRateHelperQuoteValue($E142,Trigger)</f>
-        <v>1.3474999999999999E-2</v>
+        <v>2.4390000000000002E-2</v>
       </c>
       <c r="G142" s="13">
         <f>_xll.qlSwapRateHelperSpread($E142,Trigger)</f>
-        <v>1.9E-3</v>
+        <v>2.1375000000000001E-3</v>
       </c>
       <c r="H142" s="12" t="b">
         <v>1</v>
@@ -8548,11 +8506,11 @@
       </c>
       <c r="K142" s="11">
         <f>_xll.qlRateHelperEarliestDate($E142,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L142" s="10">
         <f>_xll.qlRateHelperLatestDate($E142,Trigger)</f>
-        <v>44242</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.2">
@@ -8573,11 +8531,11 @@
       </c>
       <c r="F143" s="13">
         <f>_xll.qlRateHelperQuoteValue($E143,Trigger)</f>
-        <v>1.5300000000000001E-2</v>
+        <v>2.5690000000000001E-2</v>
       </c>
       <c r="G143" s="13">
         <f>_xll.qlSwapRateHelperSpread($E143,Trigger)</f>
-        <v>1.8500000000000001E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="H143" s="12" t="b">
         <v>1</v>
@@ -8590,11 +8548,11 @@
       </c>
       <c r="K143" s="11">
         <f>_xll.qlRateHelperEarliestDate($E143,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L143" s="10">
         <f>_xll.qlRateHelperLatestDate($E143,Trigger)</f>
-        <v>44606</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.2">
@@ -8615,11 +8573,11 @@
       </c>
       <c r="F144" s="13">
         <f>_xll.qlRateHelperQuoteValue($E144,Trigger)</f>
-        <v>1.7075E-2</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="G144" s="13">
         <f>_xll.qlSwapRateHelperSpread($E144,Trigger)</f>
-        <v>1.8500000000000001E-3</v>
+        <v>2.3375000000000002E-3</v>
       </c>
       <c r="H144" s="12" t="b">
         <v>1</v>
@@ -8632,11 +8590,11 @@
       </c>
       <c r="K144" s="11">
         <f>_xll.qlRateHelperEarliestDate($E144,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L144" s="10">
         <f>_xll.qlRateHelperLatestDate($E144,Trigger)</f>
-        <v>44971</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
@@ -8657,11 +8615,11 @@
       </c>
       <c r="F145" s="13">
         <f>_xll.qlRateHelperQuoteValue($E145,Trigger)</f>
-        <v>1.8725000000000002E-2</v>
+        <v>2.7759999999999996E-2</v>
       </c>
       <c r="G145" s="13">
         <f>_xll.qlSwapRateHelperSpread($E145,Trigger)</f>
-        <v>1.825E-3</v>
+        <v>2.3874999999999999E-3</v>
       </c>
       <c r="H145" s="12" t="b">
         <v>1</v>
@@ -8674,11 +8632,11 @@
       </c>
       <c r="K145" s="11">
         <f>_xll.qlRateHelperEarliestDate($E145,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L145" s="10">
         <f>_xll.qlRateHelperLatestDate($E145,Trigger)</f>
-        <v>45336</v>
+        <v>45421</v>
       </c>
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
@@ -8697,13 +8655,13 @@
         <f t="shared" si="10"/>
         <v>GBP_YC1MRH_SB1LBASIS11Y</v>
       </c>
-      <c r="F146" s="13" t="e">
+      <c r="F146" s="13">
         <f>_xll.qlRateHelperQuoteValue($E146,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.8579999999999998E-2</v>
       </c>
       <c r="G146" s="13">
         <f>_xll.qlSwapRateHelperSpread($E146,Trigger)</f>
-        <v>1.7967731218694958E-3</v>
+        <v>2.376173207738694E-3</v>
       </c>
       <c r="H146" s="12" t="b">
         <v>0</v>
@@ -8716,11 +8674,11 @@
       </c>
       <c r="K146" s="11">
         <f>_xll.qlRateHelperEarliestDate($E146,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L146" s="10">
         <f>_xll.qlRateHelperLatestDate($E146,Trigger)</f>
-        <v>45702</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
@@ -8741,11 +8699,11 @@
       </c>
       <c r="F147" s="13">
         <f>_xll.qlRateHelperQuoteValue($E147,Trigger)</f>
-        <v>2.1425E-2</v>
+        <v>2.928E-2</v>
       </c>
       <c r="G147" s="13">
         <f>_xll.qlSwapRateHelperSpread($E147,Trigger)</f>
-        <v>1.7750000000000001E-3</v>
+        <v>2.3249999999999998E-3</v>
       </c>
       <c r="H147" s="12" t="b">
         <v>1</v>
@@ -8758,11 +8716,11 @@
       </c>
       <c r="K147" s="11">
         <f>_xll.qlRateHelperEarliestDate($E147,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L147" s="10">
         <f>_xll.qlRateHelperLatestDate($E147,Trigger)</f>
-        <v>46069</v>
+        <v>46153</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.2">
@@ -8787,7 +8745,7 @@
       </c>
       <c r="G148" s="13">
         <f>_xll.qlSwapRateHelperSpread($E148,Trigger)</f>
-        <v>1.7570794384566104E-3</v>
+        <v>2.2634808438717615E-3</v>
       </c>
       <c r="H148" s="12" t="b">
         <v>0</v>
@@ -8800,11 +8758,11 @@
       </c>
       <c r="K148" s="11">
         <f>_xll.qlRateHelperEarliestDate($E148,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L148" s="10">
         <f>_xll.qlRateHelperLatestDate($E148,Trigger)</f>
-        <v>46433</v>
+        <v>46517</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
@@ -8829,7 +8787,7 @@
       </c>
       <c r="G149" s="13">
         <f>_xll.qlSwapRateHelperSpread($E149,Trigger)</f>
-        <v>1.7410240736318264E-3</v>
+        <v>2.1999617229599339E-3</v>
       </c>
       <c r="H149" s="12" t="b">
         <v>0</v>
@@ -8842,11 +8800,11 @@
       </c>
       <c r="K149" s="11">
         <f>_xll.qlRateHelperEarliestDate($E149,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L149" s="10">
         <f>_xll.qlRateHelperLatestDate($E149,Trigger)</f>
-        <v>46797</v>
+        <v>46882</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
@@ -8867,11 +8825,11 @@
       </c>
       <c r="F150" s="13">
         <f>_xll.qlRateHelperQuoteValue($E150,Trigger)</f>
-        <v>2.4324999999999999E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="G150" s="13">
         <f>_xll.qlSwapRateHelperSpread($E150,Trigger)</f>
-        <v>1.725E-3</v>
+        <v>2.1375000000000001E-3</v>
       </c>
       <c r="H150" s="12" t="b">
         <v>1</v>
@@ -8884,11 +8842,11 @@
       </c>
       <c r="K150" s="11">
         <f>_xll.qlRateHelperEarliestDate($E150,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L150" s="10">
         <f>_xll.qlRateHelperLatestDate($E150,Trigger)</f>
-        <v>47163</v>
+        <v>47247</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
@@ -8913,7 +8871,7 @@
       </c>
       <c r="G151" s="13">
         <f>_xll.qlSwapRateHelperSpread($E151,Trigger)</f>
-        <v>1.7075240135847811E-3</v>
+        <v>2.0786685573256775E-3</v>
       </c>
       <c r="H151" s="12" t="b">
         <v>0</v>
@@ -8926,11 +8884,11 @@
       </c>
       <c r="K151" s="11">
         <f>_xll.qlRateHelperEarliestDate($E151,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L151" s="10">
         <f>_xll.qlRateHelperLatestDate($E151,Trigger)</f>
-        <v>47528</v>
+        <v>47612</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
@@ -8955,7 +8913,7 @@
       </c>
       <c r="G152" s="13">
         <f>_xll.qlSwapRateHelperSpread($E152,Trigger)</f>
-        <v>1.6885157166070207E-3</v>
+        <v>2.0241023556636234E-3</v>
       </c>
       <c r="H152" s="12" t="b">
         <v>0</v>
@@ -8968,11 +8926,11 @@
       </c>
       <c r="K152" s="11">
         <f>_xll.qlRateHelperEarliestDate($E152,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L152" s="10">
         <f>_xll.qlRateHelperLatestDate($E152,Trigger)</f>
-        <v>47893</v>
+        <v>47977</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
@@ -8997,7 +8955,7 @@
       </c>
       <c r="G153" s="13">
         <f>_xll.qlSwapRateHelperSpread($E153,Trigger)</f>
-        <v>1.6682454128368698E-3</v>
+        <v>1.973951875338731E-3</v>
       </c>
       <c r="H153" s="12" t="b">
         <v>0</v>
@@ -9010,11 +8968,11 @@
       </c>
       <c r="K153" s="11">
         <f>_xll.qlRateHelperEarliestDate($E153,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L153" s="10">
         <f>_xll.qlRateHelperLatestDate($E153,Trigger)</f>
-        <v>48260</v>
+        <v>48344</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.2">
@@ -9039,7 +8997,7 @@
       </c>
       <c r="G154" s="13">
         <f>_xll.qlSwapRateHelperSpread($E154,Trigger)</f>
-        <v>1.6469834060444794E-3</v>
+        <v>1.9283675966758923E-3</v>
       </c>
       <c r="H154" s="12" t="b">
         <v>0</v>
@@ -9052,11 +9010,11 @@
       </c>
       <c r="K154" s="11">
         <f>_xll.qlRateHelperEarliestDate($E154,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L154" s="10">
         <f>_xll.qlRateHelperLatestDate($E154,Trigger)</f>
-        <v>48624</v>
+        <v>48708</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
@@ -9077,11 +9035,11 @@
       </c>
       <c r="F155" s="13">
         <f>_xll.qlRateHelperQuoteValue($E155,Trigger)</f>
-        <v>2.7300000000000001E-2</v>
+        <v>3.2050000000000002E-2</v>
       </c>
       <c r="G155" s="13">
         <f>_xll.qlSwapRateHelperSpread($E155,Trigger)</f>
-        <v>1.6249999999999999E-3</v>
+        <v>1.8875000000000001E-3</v>
       </c>
       <c r="H155" s="12" t="b">
         <v>1</v>
@@ -9094,11 +9052,11 @@
       </c>
       <c r="K155" s="11">
         <f>_xll.qlRateHelperEarliestDate($E155,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L155" s="10">
         <f>_xll.qlRateHelperLatestDate($E155,Trigger)</f>
-        <v>48989</v>
+        <v>49073</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
@@ -9123,7 +9081,7 @@
       </c>
       <c r="G156" s="13">
         <f>_xll.qlSwapRateHelperSpread($E156,Trigger)</f>
-        <v>1.6026557175699704E-3</v>
+        <v>1.8513261331735784E-3</v>
       </c>
       <c r="H156" s="12" t="b">
         <v>0</v>
@@ -9136,11 +9094,11 @@
       </c>
       <c r="K156" s="11">
         <f>_xll.qlRateHelperEarliestDate($E156,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L156" s="10">
         <f>_xll.qlRateHelperLatestDate($E156,Trigger)</f>
-        <v>49354</v>
+        <v>49438</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
@@ -9165,7 +9123,7 @@
       </c>
       <c r="G157" s="13">
         <f>_xll.qlSwapRateHelperSpread($E157,Trigger)</f>
-        <v>1.5806719580064793E-3</v>
+        <v>1.8191293142096813E-3</v>
       </c>
       <c r="H157" s="12" t="b">
         <v>0</v>
@@ -9178,11 +9136,11 @@
       </c>
       <c r="K157" s="11">
         <f>_xll.qlRateHelperEarliestDate($E157,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L157" s="10">
         <f>_xll.qlRateHelperLatestDate($E157,Trigger)</f>
-        <v>49719</v>
+        <v>49804</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
@@ -9207,7 +9165,7 @@
       </c>
       <c r="G158" s="13">
         <f>_xll.qlSwapRateHelperSpread($E158,Trigger)</f>
-        <v>1.559860339658003E-3</v>
+        <v>1.7900194286589954E-3</v>
       </c>
       <c r="H158" s="12" t="b">
         <v>0</v>
@@ -9220,11 +9178,11 @@
       </c>
       <c r="K158" s="11">
         <f>_xll.qlRateHelperEarliestDate($E158,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L158" s="10">
         <f>_xll.qlRateHelperLatestDate($E158,Trigger)</f>
-        <v>50087</v>
+        <v>50171</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
@@ -9249,7 +9207,7 @@
       </c>
       <c r="G159" s="13">
         <f>_xll.qlSwapRateHelperSpread($E159,Trigger)</f>
-        <v>1.5410324808730177E-3</v>
+        <v>1.7631063620722064E-3</v>
       </c>
       <c r="H159" s="12" t="b">
         <v>0</v>
@@ -9262,11 +9220,11 @@
       </c>
       <c r="K159" s="11">
         <f>_xll.qlRateHelperEarliestDate($E159,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L159" s="10">
         <f>_xll.qlRateHelperLatestDate($E159,Trigger)</f>
-        <v>50451</v>
+        <v>50535</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
@@ -9287,11 +9245,11 @@
       </c>
       <c r="F160" s="13">
         <f>_xll.qlRateHelperQuoteValue($E160,Trigger)</f>
-        <v>2.8875000000000001E-2</v>
+        <v>3.245E-2</v>
       </c>
       <c r="G160" s="13">
         <f>_xll.qlSwapRateHelperSpread($E160,Trigger)</f>
-        <v>1.5250000000000001E-3</v>
+        <v>1.7374999999999999E-3</v>
       </c>
       <c r="H160" s="12" t="b">
         <v>1</v>
@@ -9304,11 +9262,11 @@
       </c>
       <c r="K160" s="11">
         <f>_xll.qlRateHelperEarliestDate($E160,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L160" s="10">
         <f>_xll.qlRateHelperLatestDate($E160,Trigger)</f>
-        <v>50815</v>
+        <v>50899</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
@@ -9333,7 +9291,7 @@
       </c>
       <c r="G161" s="13">
         <f>_xll.qlSwapRateHelperSpread($E161,Trigger)</f>
-        <v>1.5122531161353371E-3</v>
+        <v>1.7125269099800093E-3</v>
       </c>
       <c r="H161" s="12" t="b">
         <v>0</v>
@@ -9346,11 +9304,11 @@
       </c>
       <c r="K161" s="11">
         <f>_xll.qlRateHelperEarliestDate($E161,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L161" s="10">
         <f>_xll.qlRateHelperLatestDate($E161,Trigger)</f>
-        <v>51180</v>
+        <v>51265</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
@@ -9375,7 +9333,7 @@
       </c>
       <c r="G162" s="13">
         <f>_xll.qlSwapRateHelperSpread($E162,Trigger)</f>
-        <v>1.501996451367062E-3</v>
+        <v>1.6883803874976505E-3</v>
       </c>
       <c r="H162" s="12" t="b">
         <v>0</v>
@@ -9388,11 +9346,11 @@
       </c>
       <c r="K162" s="11">
         <f>_xll.qlRateHelperEarliestDate($E162,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L162" s="10">
         <f>_xll.qlRateHelperLatestDate($E162,Trigger)</f>
-        <v>51546</v>
+        <v>51630</v>
       </c>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.2">
@@ -9417,7 +9375,7 @@
       </c>
       <c r="G163" s="13">
         <f>_xll.qlSwapRateHelperSpread($E163,Trigger)</f>
-        <v>1.4931132285311182E-3</v>
+        <v>1.6654704100252874E-3</v>
       </c>
       <c r="H163" s="12" t="b">
         <v>0</v>
@@ -9430,11 +9388,11 @@
       </c>
       <c r="K163" s="11">
         <f>_xll.qlRateHelperEarliestDate($E163,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L163" s="10">
         <f>_xll.qlRateHelperLatestDate($E163,Trigger)</f>
-        <v>51911</v>
+        <v>51995</v>
       </c>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.2">
@@ -9459,7 +9417,7 @@
       </c>
       <c r="G164" s="13">
         <f>_xll.qlSwapRateHelperSpread($E164,Trigger)</f>
-        <v>1.4844866704634497E-3</v>
+        <v>1.6442069550352827E-3</v>
       </c>
       <c r="H164" s="12" t="b">
         <v>0</v>
@@ -9472,11 +9430,11 @@
       </c>
       <c r="K164" s="11">
         <f>_xll.qlRateHelperEarliestDate($E164,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L164" s="10">
         <f>_xll.qlRateHelperLatestDate($E164,Trigger)</f>
-        <v>52278</v>
+        <v>52362</v>
       </c>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.2">
@@ -9497,11 +9455,11 @@
       </c>
       <c r="F165" s="13">
         <f>_xll.qlRateHelperQuoteValue($E165,Trigger)</f>
-        <v>2.9575000000000001E-2</v>
+        <v>3.2539999999999999E-2</v>
       </c>
       <c r="G165" s="13">
         <f>_xll.qlSwapRateHelperSpread($E165,Trigger)</f>
-        <v>1.475E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="H165" s="12" t="b">
         <v>1</v>
@@ -9514,11 +9472,11 @@
       </c>
       <c r="K165" s="11">
         <f>_xll.qlRateHelperEarliestDate($E165,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L165" s="10">
         <f>_xll.qlRateHelperLatestDate($E165,Trigger)</f>
-        <v>52642</v>
+        <v>52726</v>
       </c>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.2">
@@ -9543,7 +9501,7 @@
       </c>
       <c r="G166" s="13">
         <f>_xll.qlSwapRateHelperSpread($E166,Trigger)</f>
-        <v>1.475E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="H166" s="12" t="b">
         <v>0</v>
@@ -9556,11 +9514,11 @@
       </c>
       <c r="K166" s="11">
         <f>_xll.qlRateHelperEarliestDate($E166,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L166" s="10">
         <f>_xll.qlRateHelperLatestDate($E166,Trigger)</f>
-        <v>54469</v>
+        <v>54553</v>
       </c>
     </row>
     <row r="167" spans="2:12" x14ac:dyDescent="0.2">
@@ -9581,11 +9539,11 @@
       </c>
       <c r="F167" s="13">
         <f>_xll.qlRateHelperQuoteValue($E167,Trigger)</f>
-        <v>3.0374999999999999E-2</v>
+        <v>3.2309999999999998E-2</v>
       </c>
       <c r="G167" s="13">
         <f>_xll.qlSwapRateHelperSpread($E167,Trigger)</f>
-        <v>1.475E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="H167" s="12" t="b">
         <v>1</v>
@@ -9598,11 +9556,11 @@
       </c>
       <c r="K167" s="11">
         <f>_xll.qlRateHelperEarliestDate($E167,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L167" s="10">
         <f>_xll.qlRateHelperLatestDate($E167,Trigger)</f>
-        <v>56296</v>
+        <v>56380</v>
       </c>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.2">
@@ -9623,11 +9581,11 @@
       </c>
       <c r="F168" s="13">
         <f>_xll.qlRateHelperQuoteValue($E168,Trigger)</f>
-        <v>3.0550000000000001E-2</v>
+        <v>3.227E-2</v>
       </c>
       <c r="G168" s="13">
         <f>_xll.qlSwapRateHelperSpread($E168,Trigger)</f>
-        <v>1.475E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="H168" s="12" t="b">
         <v>1</v>
@@ -9640,11 +9598,11 @@
       </c>
       <c r="K168" s="11">
         <f>_xll.qlRateHelperEarliestDate($E168,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L168" s="10">
         <f>_xll.qlRateHelperLatestDate($E168,Trigger)</f>
-        <v>59946</v>
+        <v>60031</v>
       </c>
     </row>
     <row r="169" spans="2:12" x14ac:dyDescent="0.2">
@@ -9665,11 +9623,11 @@
       </c>
       <c r="F169" s="6">
         <f>_xll.qlRateHelperQuoteValue($E169,Trigger)</f>
-        <v>3.0800000000000001E-2</v>
+        <v>3.243E-2</v>
       </c>
       <c r="G169" s="6">
         <f>_xll.qlSwapRateHelperSpread($E169,Trigger)</f>
-        <v>1.475E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="H169" s="5" t="b">
         <v>1</v>
@@ -9682,11 +9640,11 @@
       </c>
       <c r="K169" s="4">
         <f>_xll.qlRateHelperEarliestDate($E169,Trigger)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="L169" s="3">
         <f>_xll.qlRateHelperLatestDate($E169,Trigger)</f>
-        <v>63599</v>
+        <v>63683</v>
       </c>
     </row>
   </sheetData>
@@ -9705,8 +9663,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9725,10 +9683,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="172"/>
+      <c r="B1" s="179"/>
       <c r="D1" s="53" t="s">
         <v>83</v>
       </c>
@@ -9760,7 +9718,7 @@
       </c>
       <c r="E2" s="41">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>4.9319999999999998E-3</v>
+        <v>4.8690000000000001E-3</v>
       </c>
       <c r="F2" s="41" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -9768,21 +9726,16 @@
       </c>
       <c r="G2" s="40">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41712</v>
+        <v>41799</v>
       </c>
       <c r="I2" s="34">
-        <v>0.99962179788547734</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" s="91">
-        <v>4.9319999999999998E-3</v>
-      </c>
+        <v>0.99958663943076964</v>
+      </c>
+      <c r="L2" s="89"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
@@ -9796,7 +9749,7 @@
       </c>
       <c r="E3" s="41">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.9124999999999993E-3</v>
       </c>
       <c r="F3" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -9804,21 +9757,16 @@
       </c>
       <c r="G3" s="40">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41743</v>
+        <v>41829</v>
       </c>
       <c r="I3" s="34">
-        <v>0.99920857205977387</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="91">
-        <v>4.8999999999999998E-3</v>
-      </c>
+        <v>0.99917963850849278</v>
+      </c>
+      <c r="L3" s="89"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
@@ -9832,7 +9780,7 @@
       </c>
       <c r="E4" s="41">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.8500000000000001E-3</v>
+        <v>4.9375E-3</v>
       </c>
       <c r="F4" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -9840,21 +9788,16 @@
       </c>
       <c r="G4" s="40">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41773</v>
+        <v>41862</v>
       </c>
       <c r="I4" s="34">
-        <v>0.99881879415753927</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="91">
-        <v>4.8500000000000001E-3</v>
-      </c>
+        <v>0.99872994684432481</v>
+      </c>
+      <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
@@ -9868,7 +9811,7 @@
       </c>
       <c r="E5" s="41">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>5.0124999999999996E-3</v>
       </c>
       <c r="F5" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -9876,21 +9819,16 @@
       </c>
       <c r="G5" s="40">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41806</v>
+        <v>41891</v>
       </c>
       <c r="I5" s="34">
-        <v>0.99839818636182598</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="91">
-        <v>4.7999999999999996E-3</v>
-      </c>
+        <v>0.99831353745328566</v>
+      </c>
+      <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="46" t="s">
@@ -9905,7 +9843,7 @@
       </c>
       <c r="E6" s="41">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>4.7499999999999999E-3</v>
+        <v>5.0750000000000005E-3</v>
       </c>
       <c r="F6" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -9913,26 +9851,21 @@
       </c>
       <c r="G6" s="40">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41834</v>
+        <v>41921</v>
       </c>
       <c r="I6" s="34">
-        <v>0.99805174829955234</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="91">
-        <v>4.7499999999999999E-3</v>
-      </c>
+        <v>0.99787691468433137</v>
+      </c>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_RateHelpersSelected#0000</v>
+        <v>GBP_YC1MRH_RateHelpersSelected#0001</v>
       </c>
       <c r="B7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -9943,7 +9876,7 @@
       </c>
       <c r="E7" s="41">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>4.6999999999999993E-3</v>
+        <v>5.1750000000000008E-3</v>
       </c>
       <c r="F7" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -9951,21 +9884,16 @@
       </c>
       <c r="G7" s="40">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41865</v>
+        <v>41953</v>
       </c>
       <c r="I7" s="34">
-        <v>0.99767473452968647</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" s="91">
-        <v>4.7000000000000002E-3</v>
-      </c>
+        <v>0.99738349897413203</v>
+      </c>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="42" t="str">
@@ -9973,7 +9901,7 @@
       </c>
       <c r="E8" s="41">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>4.6500000000000005E-3</v>
+        <v>5.3125000000000004E-3</v>
       </c>
       <c r="F8" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -9981,21 +9909,16 @@
       </c>
       <c r="G8" s="40">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>41897</v>
+        <v>41982</v>
       </c>
       <c r="I8" s="34">
-        <v>0.99729378184594708</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L8" s="91">
-        <v>4.6499999999999996E-3</v>
-      </c>
+        <v>0.99689439728192475</v>
+      </c>
+      <c r="L8" s="89"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="42" t="str">
@@ -10003,7 +9926,7 @@
       </c>
       <c r="E9" s="41">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>4.6500000000000005E-3</v>
+        <v>5.4875000000000011E-3</v>
       </c>
       <c r="F9" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10011,21 +9934,16 @@
       </c>
       <c r="G9" s="40">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>41926</v>
+        <v>42013</v>
       </c>
       <c r="I9" s="34">
-        <v>0.99692646206096569</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="91">
-        <v>4.6499999999999996E-3</v>
-      </c>
+        <v>0.99632934103452619</v>
+      </c>
+      <c r="L9" s="89"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="42" t="str">
@@ -10033,7 +9951,7 @@
       </c>
       <c r="E10" s="41">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="F10" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10041,21 +9959,16 @@
       </c>
       <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>41957</v>
+        <v>42044</v>
       </c>
       <c r="I10" s="34">
-        <v>0.99657124883756099</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="91">
-        <v>4.5999999999999999E-3</v>
-      </c>
+        <v>0.99570720906795951</v>
+      </c>
+      <c r="L10" s="89"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="42" t="str">
@@ -10063,7 +9976,7 @@
       </c>
       <c r="E11" s="41">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>5.9125000000000002E-3</v>
       </c>
       <c r="F11" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10071,21 +9984,16 @@
       </c>
       <c r="G11" s="40">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>41988</v>
+        <v>42072</v>
       </c>
       <c r="I11" s="34">
-        <v>0.99618338944716467</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="L11" s="91">
-        <v>4.5999999999999999E-3</v>
-      </c>
+        <v>0.99509842885645083</v>
+      </c>
+      <c r="L11" s="89"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="42" t="str">
@@ -10093,7 +10001,7 @@
       </c>
       <c r="E12" s="41">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>6.1624999999999996E-3</v>
       </c>
       <c r="F12" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10101,21 +10009,16 @@
       </c>
       <c r="G12" s="40">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42018</v>
+        <v>42103</v>
       </c>
       <c r="I12" s="34">
-        <v>0.99580832899548222</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" s="91">
-        <v>4.5999999999999999E-3</v>
-      </c>
+        <v>0.99437401887679711</v>
+      </c>
+      <c r="L12" s="89"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="42" t="str">
@@ -10123,7 +10026,7 @@
       </c>
       <c r="E13" s="41">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>6.45E-3</v>
       </c>
       <c r="F13" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10131,21 +10034,16 @@
       </c>
       <c r="G13" s="40">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42051</v>
+        <v>42135</v>
       </c>
       <c r="I13" s="34">
-        <v>0.99539608855706752</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="L13" s="91">
-        <v>4.5999999999999999E-3</v>
-      </c>
+        <v>0.99355397995586714</v>
+      </c>
+      <c r="L13" s="89"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D14" s="42" t="str">
@@ -10153,29 +10051,24 @@
       </c>
       <c r="E14" s="41">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>6.6749999999999995E-3</v>
+        <v>1.172E-2</v>
       </c>
       <c r="F14" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
-        <v>1.9499999999999999E-3</v>
+        <v>1.3500000000000001E-3</v>
       </c>
       <c r="G14" s="40">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42415</v>
+        <v>42499</v>
       </c>
       <c r="I14" s="34">
-        <v>0.99060293112906805</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" s="91">
-        <v>6.6750000000000004E-3</v>
-      </c>
+        <v>0.97945568631123781</v>
+      </c>
+      <c r="L14" s="89"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" s="42" t="str">
@@ -10183,29 +10076,24 @@
       </c>
       <c r="E15" s="41">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>7.3250000000000008E-3</v>
+        <v>1.562E-2</v>
       </c>
       <c r="F15" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>1.9499999999999999E-3</v>
+        <v>1.4875000000000001E-3</v>
       </c>
       <c r="G15" s="40">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42780</v>
+        <v>42864</v>
       </c>
       <c r="I15" s="34">
-        <v>0.9840127016849104</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="91">
-        <v>7.3249999999999999E-3</v>
-      </c>
+        <v>0.9583926879541621</v>
+      </c>
+      <c r="L15" s="89"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="42" t="str">
@@ -10213,29 +10101,24 @@
       </c>
       <c r="E16" s="41">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>8.4499999999999992E-3</v>
+        <v>1.8679999999999999E-2</v>
       </c>
       <c r="F16" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>1.9499999999999999E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="G16" s="40">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43145</v>
+        <v>43229</v>
       </c>
       <c r="I16" s="34">
-        <v>0.97431742916814601</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" s="91">
-        <v>8.4499999999999992E-3</v>
-      </c>
+        <v>0.93387537630449602</v>
+      </c>
+      <c r="L16" s="89"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D17" s="42" t="str">
@@ -10243,29 +10126,24 @@
       </c>
       <c r="E17" s="41">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>9.9500000000000005E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F17" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>1.9499999999999999E-3</v>
+        <v>1.8374999999999999E-3</v>
       </c>
       <c r="G17" s="40">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43510</v>
+        <v>43594</v>
       </c>
       <c r="I17" s="34">
-        <v>0.96067759652302809</v>
-      </c>
-      <c r="K17" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17" s="91">
-        <v>9.9500000000000005E-3</v>
-      </c>
+        <v>0.90810004552636503</v>
+      </c>
+      <c r="L17" s="89"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D18" s="42" t="str">
@@ -10273,29 +10151,24 @@
       </c>
       <c r="E18" s="41">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.1650000000000001E-2</v>
+        <v>2.2869999999999998E-2</v>
       </c>
       <c r="F18" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>1.9499999999999999E-3</v>
+        <v>2.0125E-3</v>
       </c>
       <c r="G18" s="40">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43875</v>
+        <v>43962</v>
       </c>
       <c r="I18" s="34">
-        <v>0.94313051417056137</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="L18" s="91">
-        <v>1.1650000000000001E-2</v>
-      </c>
+        <v>0.88133286857940107</v>
+      </c>
+      <c r="L18" s="89"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D19" s="42" t="str">
@@ -10303,29 +10176,24 @@
       </c>
       <c r="E19" s="41">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.3474999999999999E-2</v>
+        <v>2.4390000000000002E-2</v>
       </c>
       <c r="F19" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>1.9E-3</v>
+        <v>2.1375000000000001E-3</v>
       </c>
       <c r="G19" s="40">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44242</v>
+        <v>44326</v>
       </c>
       <c r="I19" s="34">
-        <v>0.92135069302834982</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" s="91">
-        <v>1.3475000000000001E-2</v>
-      </c>
+        <v>0.85433107338523617</v>
+      </c>
+      <c r="L19" s="89"/>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" s="42" t="str">
@@ -10333,29 +10201,24 @@
       </c>
       <c r="E20" s="41">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.5300000000000001E-2</v>
+        <v>2.5690000000000001E-2</v>
       </c>
       <c r="F20" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>1.8500000000000001E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="G20" s="40">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44606</v>
+        <v>44690</v>
       </c>
       <c r="I20" s="34">
-        <v>0.8965026337467249</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="L20" s="91">
-        <v>1.5299999999999999E-2</v>
-      </c>
+        <v>0.82711637236059332</v>
+      </c>
+      <c r="L20" s="89"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" s="42" t="str">
@@ -10363,29 +10226,24 @@
       </c>
       <c r="E21" s="41">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.7075E-2</v>
+        <v>2.6790000000000001E-2</v>
       </c>
       <c r="F21" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>1.8500000000000001E-3</v>
+        <v>2.3375000000000002E-3</v>
       </c>
       <c r="G21" s="40">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>44971</v>
+        <v>45055</v>
       </c>
       <c r="I21" s="34">
-        <v>0.86950538099450336</v>
-      </c>
-      <c r="K21" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="91">
-        <v>1.7075E-2</v>
-      </c>
+        <v>0.79997794076233353</v>
+      </c>
+      <c r="L21" s="89"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" s="42" t="str">
@@ -10393,29 +10251,24 @@
       </c>
       <c r="E22" s="41">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.8725000000000002E-2</v>
+        <v>2.7759999999999996E-2</v>
       </c>
       <c r="F22" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
-        <v>1.825E-3</v>
+        <v>2.3874999999999999E-3</v>
       </c>
       <c r="G22" s="40">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45336</v>
+        <v>45421</v>
       </c>
       <c r="I22" s="34">
-        <v>0.84082059638434015</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" s="91">
-        <v>1.8724999999999999E-2</v>
-      </c>
+        <v>0.77268198751248041</v>
+      </c>
+      <c r="L22" s="89"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" s="42" t="str">
@@ -10423,29 +10276,24 @@
       </c>
       <c r="E23" s="41">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.1425E-2</v>
+        <v>2.928E-2</v>
       </c>
       <c r="F23" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
-        <v>1.7750000000000001E-3</v>
+        <v>2.3249999999999998E-3</v>
       </c>
       <c r="G23" s="40">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>46069</v>
+        <v>46153</v>
       </c>
       <c r="I23" s="34">
-        <v>0.78317290913092574</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="91">
-        <v>2.1425E-2</v>
-      </c>
+        <v>0.71869542177024814</v>
+      </c>
+      <c r="L23" s="89"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" s="42" t="str">
@@ -10453,29 +10301,24 @@
       </c>
       <c r="E24" s="41">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.4324999999999999E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="F24" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
-        <v>1.725E-3</v>
+        <v>2.1375000000000001E-3</v>
       </c>
       <c r="G24" s="40">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>47163</v>
+        <v>47247</v>
       </c>
       <c r="I24" s="34">
-        <v>0.70086820389462445</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="L24" s="91">
-        <v>2.4324999999999999E-2</v>
-      </c>
+        <v>0.64316525119902146</v>
+      </c>
+      <c r="L24" s="89"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" s="42" t="str">
@@ -10483,29 +10326,24 @@
       </c>
       <c r="E25" s="41">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.7300000000000001E-2</v>
+        <v>3.2050000000000002E-2</v>
       </c>
       <c r="F25" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
-        <v>1.6249999999999999E-3</v>
+        <v>1.8875000000000001E-3</v>
       </c>
       <c r="G25" s="40">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>48989</v>
+        <v>49073</v>
       </c>
       <c r="I25" s="34">
-        <v>0.57899741651691694</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="91">
-        <v>2.7300000000000001E-2</v>
-      </c>
+        <v>0.53680808314670259</v>
+      </c>
+      <c r="L25" s="89"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" s="42" t="str">
@@ -10513,29 +10351,24 @@
       </c>
       <c r="E26" s="41">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.8875000000000001E-2</v>
+        <v>3.245E-2</v>
       </c>
       <c r="F26" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
-        <v>1.5250000000000001E-3</v>
+        <v>1.7374999999999999E-3</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>50815</v>
+        <v>50899</v>
       </c>
       <c r="I26" s="34">
-        <v>0.48005527698402251</v>
-      </c>
-      <c r="K26" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="91">
-        <v>2.8875000000000001E-2</v>
-      </c>
+        <v>0.45327471538665004</v>
+      </c>
+      <c r="L26" s="89"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" s="42" t="str">
@@ -10543,29 +10376,24 @@
       </c>
       <c r="E27" s="41">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.9575000000000001E-2</v>
+        <v>3.2539999999999999E-2</v>
       </c>
       <c r="F27" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
-        <v>1.475E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>52642</v>
+        <v>52726</v>
       </c>
       <c r="I27" s="34">
-        <v>0.4043458962878253</v>
-      </c>
-      <c r="K27" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="L27" s="91">
-        <v>2.9575000000000001E-2</v>
-      </c>
+        <v>0.38553372299294081</v>
+      </c>
+      <c r="L27" s="89"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" s="42" t="str">
@@ -10573,29 +10401,24 @@
       </c>
       <c r="E28" s="41">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>3.0374999999999999E-2</v>
+        <v>3.2309999999999998E-2</v>
       </c>
       <c r="F28" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
-        <v>1.475E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>56296</v>
+        <v>56380</v>
       </c>
       <c r="I28" s="34">
-        <v>0.28903945733536268</v>
-      </c>
-      <c r="K28" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="91">
-        <v>3.0374999999999999E-2</v>
-      </c>
+        <v>0.28838844997674318</v>
+      </c>
+      <c r="L28" s="89"/>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D29" s="42" t="str">
@@ -10603,29 +10426,24 @@
       </c>
       <c r="E29" s="41">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>3.0550000000000001E-2</v>
+        <v>3.227E-2</v>
       </c>
       <c r="F29" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
-        <v>1.475E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>59946</v>
+        <v>60031</v>
       </c>
       <c r="I29" s="34">
-        <v>0.2129367975310702</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="L29" s="91">
-        <v>3.0550000000000001E-2</v>
-      </c>
+        <v>0.21342738959725716</v>
+      </c>
+      <c r="L29" s="89"/>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D30" s="42" t="str">
@@ -10633,29 +10451,24 @@
       </c>
       <c r="E30" s="41">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>3.0800000000000001E-2</v>
+        <v>3.243E-2</v>
       </c>
       <c r="F30" s="41">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
-        <v>1.475E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>63599</v>
+        <v>63683</v>
       </c>
       <c r="I30" s="34">
-        <v>0.15325221803695155</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="L30" s="91">
-        <v>3.0800000000000001E-2</v>
-      </c>
+        <v>0.15354209441843794</v>
+      </c>
+      <c r="L30" s="89"/>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D31" s="42" t="e">
@@ -12980,198 +12793,198 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="92" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="92" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="92" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="92"/>
-    <col min="10" max="10" width="16.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="92"/>
+    <col min="1" max="1" width="3" style="90" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="90" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="90" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
       <c r="D1" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="109" t="str">
+        <v>117</v>
+      </c>
+      <c r="E1" s="105" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
         <v>GBP_YC1MRH</v>
       </c>
-      <c r="H1" s="97"/>
-    </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="107" t="str">
+      <c r="H1" s="94"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="100"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="103" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>GBP_YC1MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="106">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F6,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>4</v>
-      </c>
-      <c r="G2" s="105" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+      <c r="F2" s="102" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(F4:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="G2" s="101" t="str">
+        <f>_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
-      <c r="H2" s="97"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="104"/>
-      <c r="B3" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="102" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$B3</f>
-        <v>GbpLiborSW</v>
-      </c>
-      <c r="D3" s="101" t="str">
+      <c r="H2" s="94"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="100"/>
+      <c r="B3" s="180" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="182" t="str">
+        <f>_xll.qlLibor(,Currency,B3,,,Trigger,ObjectOverwrite)</f>
+        <v>obj_0048b#0001</v>
+      </c>
+      <c r="D3" s="98" t="str">
         <f>Currency&amp;B3&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
+        <v>GBPSND_SYNTH1M_Quote</v>
+      </c>
+      <c r="E3" s="97" t="str">
+        <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
+        <v>GBP_YC1MRH_SND</v>
+      </c>
+      <c r="F3" s="96" t="str">
+        <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>GBP_YC1MRH_SND#0001</v>
+      </c>
+      <c r="G3" s="181"/>
+      <c r="H3" s="94"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="100"/>
+      <c r="B4" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="182" t="str">
+        <f>_xll.qlLibor(,Currency,B4,,,Trigger,ObjectOverwrite)</f>
+        <v>obj_0048f#0001</v>
+      </c>
+      <c r="D4" s="98" t="str">
+        <f>Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>GBPSWD_SYNTH1M_Quote</v>
       </c>
-      <c r="E3" s="100" t="str">
-        <f>$E$1&amp;"_"&amp;$B3&amp;"D"</f>
+      <c r="E4" s="97" t="str">
+        <f>$E$1&amp;"_"&amp;$B4&amp;"D"</f>
         <v>GBP_YC1MRH_SWD</v>
       </c>
-      <c r="F3" s="99" t="str">
-        <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SWD#0000</v>
-      </c>
-      <c r="G3" s="98" t="str">
-        <f>_xll.ohRangeRetrieveError(F3)</f>
-        <v/>
-      </c>
-      <c r="H3" s="97"/>
-      <c r="J3" s="96">
-        <f>_xll.qlRateHelperEarliestDate(F3)</f>
-        <v>41684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="104"/>
-      <c r="B4" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="102" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$B4</f>
-        <v>GbpLibor2W</v>
-      </c>
-      <c r="D4" s="101" t="str">
-        <f>Currency&amp;B4&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>GBP2WD_SYNTH1M_Quote</v>
-      </c>
-      <c r="E4" s="100" t="str">
-        <f>$E$1&amp;"_"&amp;$B4&amp;"D"</f>
-        <v>GBP_YC1MRH_2WD</v>
-      </c>
-      <c r="F4" s="99" t="str">
+      <c r="F4" s="96" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_2WD#0000</v>
-      </c>
-      <c r="G4" s="98" t="str">
+        <v>GBP_YC1MRH_SWD#0005</v>
+      </c>
+      <c r="G4" s="95" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
-      <c r="H4" s="97"/>
-      <c r="J4" s="96">
-        <f>_xll.qlRateHelperEarliestDate(F4)</f>
-        <v>41684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="104"/>
-      <c r="B5" s="103" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="102" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$B5</f>
-        <v>GbpLibor3W</v>
-      </c>
-      <c r="D5" s="101" t="str">
+      <c r="H4" s="94"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="100"/>
+      <c r="B5" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="182" t="str">
+        <f>_xll.qlLibor(,Currency,B5,,,Trigger,ObjectOverwrite)</f>
+        <v>obj_0048c#0001</v>
+      </c>
+      <c r="D5" s="98" t="str">
         <f>Currency&amp;B5&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
+        <v>GBP2WD_SYNTH1M_Quote</v>
+      </c>
+      <c r="E5" s="97" t="str">
+        <f t="shared" ref="E5:E7" si="0">$E$1&amp;"_"&amp;$B5&amp;"D"</f>
+        <v>GBP_YC1MRH_2WD</v>
+      </c>
+      <c r="F5" s="96" t="str">
+        <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>GBP_YC1MRH_2WD#0001</v>
+      </c>
+      <c r="G5" s="95"/>
+      <c r="H5" s="94"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="100"/>
+      <c r="B6" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="182" t="str">
+        <f>_xll.qlLibor(,Currency,B6,,,Trigger,ObjectOverwrite)</f>
+        <v>obj_0048d#0001</v>
+      </c>
+      <c r="D6" s="98" t="str">
+        <f>Currency&amp;B6&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
         <v>GBP3WD_SYNTH1M_Quote</v>
       </c>
-      <c r="E5" s="100" t="str">
-        <f>$E$1&amp;"_"&amp;$B5&amp;"D"</f>
+      <c r="E6" s="97" t="str">
+        <f t="shared" si="0"/>
         <v>GBP_YC1MRH_3WD</v>
       </c>
-      <c r="F5" s="99" t="str">
-        <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_3WD#0000</v>
-      </c>
-      <c r="G5" s="98" t="str">
-        <f>_xll.ohRangeRetrieveError(F5)</f>
+      <c r="F6" s="96" t="str">
+        <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>GBP_YC1MRH_3WD#0001</v>
+      </c>
+      <c r="G6" s="95"/>
+      <c r="H6" s="94"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="100"/>
+      <c r="B7" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="182" t="str">
+        <f>_xll.qlLibor(,Currency,B7,,,Trigger,ObjectOverwrite)</f>
+        <v>obj_0048e#0001</v>
+      </c>
+      <c r="D7" s="98" t="str">
+        <f>Currency&amp;B7&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
+        <v>GBP1MD_SYNTH1M_Quote</v>
+      </c>
+      <c r="E7" s="97" t="str">
+        <f t="shared" si="0"/>
+        <v>GBP_YC1MRH_1MD</v>
+      </c>
+      <c r="F7" s="96" t="str">
+        <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>GBP_YC1MRH_1MD#0008</v>
+      </c>
+      <c r="G7" s="95" t="str">
+        <f>_xll.ohRangeRetrieveError(F7)</f>
         <v/>
       </c>
-      <c r="H5" s="97"/>
-      <c r="J5" s="96">
-        <f>_xll.qlRateHelperEarliestDate(F5)</f>
-        <v>41684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="104"/>
-      <c r="B6" s="103" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="102" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$B6</f>
-        <v>GbpLibor1M</v>
-      </c>
-      <c r="D6" s="101" t="str">
-        <f>Currency&amp;B6&amp;"D_SYNTH"&amp;$D$1&amp;QuoteSuffix</f>
-        <v>GBP1MD_SYNTH1M_Quote</v>
-      </c>
-      <c r="E6" s="100" t="str">
-        <f>$E$1&amp;"_"&amp;$B6&amp;"D"</f>
-        <v>GBP_YC1MRH_1MD</v>
-      </c>
-      <c r="F6" s="99" t="str">
-        <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_1MD#0000</v>
-      </c>
-      <c r="G6" s="98" t="str">
-        <f>_xll.ohRangeRetrieveError(F6)</f>
-        <v/>
-      </c>
-      <c r="H6" s="97"/>
-      <c r="J6" s="96">
-        <f>_xll.qlRateHelperEarliestDate(F6)</f>
-        <v>41684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="93"/>
+      <c r="H7" s="94"/>
+    </row>
+    <row r="8" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="93"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13185,56 +12998,58 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="92" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="92" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="92" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="130" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="92" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" style="92" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="92"/>
+    <col min="1" max="1" width="1.7109375" style="90" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="126" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="90" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="90" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="148"/>
+      <c r="A1" s="158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="104"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
       <c r="J2" s="12" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="K2" s="12" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
@@ -13242,588 +13057,588 @@
       </c>
       <c r="L2" s="12" t="str">
         <f>Discounting</f>
-        <v>GbpYC</v>
-      </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="133"/>
+        <v>GbpON</v>
+      </c>
+      <c r="M2" s="106"/>
+      <c r="N2" s="129"/>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="104"/>
-      <c r="B3" s="108" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="108" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="108" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" s="147" t="str">
+      <c r="A3" s="100"/>
+      <c r="B3" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="143" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>GBP_YC1MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="146">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>12</v>
-      </c>
-      <c r="M3" s="105" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+      <c r="L3" s="142" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="M3" s="101" t="str">
+        <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="133"/>
+      <c r="N3" s="129"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="145" t="str">
+      <c r="A4" s="107"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="141" t="str">
         <f>$K$2&amp;"_x"&amp;$E6&amp;"_"&amp;FamilyName&amp;$J$2</f>
         <v>GBP_YC1MRH_xX1S_Libor1M</v>
       </c>
-      <c r="L4" s="144" t="str">
+      <c r="L4" s="140" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>GBP_YC1MRH_xX1S_Libor1M#0000</v>
-      </c>
-      <c r="M4" s="143" t="str">
+        <v>GBP_YC1MRH_xX1S_Libor1M#0001</v>
+      </c>
+      <c r="M4" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="133"/>
+      <c r="N4" s="129"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="133"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="129"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="104"/>
-      <c r="B6" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="142" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="142">
+      <c r="A6" s="100"/>
+      <c r="B6" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="138">
         <v>2</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="141" t="str">
+      <c r="F6" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="137" t="str">
         <f t="shared" ref="H6:H16" si="0">MoneyMarketDayCounter</f>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I6" s="139">
-        <v>0</v>
-      </c>
-      <c r="J6" s="138" t="str">
+      <c r="I6" s="135">
+        <v>0</v>
+      </c>
+      <c r="J6" s="134" t="str">
         <f t="shared" ref="J6:J16" si="1">Currency&amp;$D6&amp;$E6&amp;QuoteSuffix</f>
         <v>GBP2X1S_Quote</v>
       </c>
-      <c r="K6" s="138" t="str">
+      <c r="K6" s="134" t="str">
         <f t="shared" ref="K6:K16" si="2">$K$2&amp;"_"&amp;$D6&amp;$E6</f>
         <v>GBP_YC1MRH_2X1S</v>
       </c>
-      <c r="L6" s="136" t="str">
+      <c r="L6" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_2X1S#0000</v>
-      </c>
-      <c r="M6" s="105" t="str">
+        <v>GBP_YC1MRH_2X1S#0001</v>
+      </c>
+      <c r="M6" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="133"/>
+      <c r="N6" s="129"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="104"/>
-      <c r="B7" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="142" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="142">
+      <c r="A7" s="100"/>
+      <c r="B7" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="138">
         <v>3</v>
       </c>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="140" t="str">
+      <c r="F7" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I7" s="139">
-        <v>0</v>
-      </c>
-      <c r="J7" s="138" t="str">
+      <c r="I7" s="135">
+        <v>0</v>
+      </c>
+      <c r="J7" s="134" t="str">
         <f t="shared" si="1"/>
         <v>GBP3X1S_Quote</v>
       </c>
-      <c r="K7" s="137" t="str">
+      <c r="K7" s="133" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YC1MRH_3X1S</v>
       </c>
-      <c r="L7" s="136" t="str">
+      <c r="L7" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_3X1S#0000</v>
-      </c>
-      <c r="M7" s="105" t="str">
+        <v>GBP_YC1MRH_3X1S#0001</v>
+      </c>
+      <c r="M7" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="133"/>
+      <c r="N7" s="129"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="104"/>
-      <c r="B8" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="142" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="142">
+      <c r="A8" s="100"/>
+      <c r="B8" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="138">
         <v>4</v>
       </c>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="140" t="str">
+      <c r="F8" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I8" s="139">
-        <v>0</v>
-      </c>
-      <c r="J8" s="138" t="str">
+      <c r="I8" s="135">
+        <v>0</v>
+      </c>
+      <c r="J8" s="134" t="str">
         <f t="shared" si="1"/>
         <v>GBP4X1S_Quote</v>
       </c>
-      <c r="K8" s="137" t="str">
+      <c r="K8" s="133" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YC1MRH_4X1S</v>
       </c>
-      <c r="L8" s="136" t="str">
+      <c r="L8" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_4X1S#0000</v>
-      </c>
-      <c r="M8" s="105" t="str">
+        <v>GBP_YC1MRH_4X1S#0001</v>
+      </c>
+      <c r="M8" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="133"/>
+      <c r="N8" s="129"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="104"/>
-      <c r="B9" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="142">
+      <c r="A9" s="100"/>
+      <c r="B9" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="138">
         <v>5</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="140" t="str">
+      <c r="F9" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I9" s="139">
-        <v>0</v>
-      </c>
-      <c r="J9" s="138" t="str">
+      <c r="I9" s="135">
+        <v>0</v>
+      </c>
+      <c r="J9" s="134" t="str">
         <f t="shared" si="1"/>
         <v>GBP5X1S_Quote</v>
       </c>
-      <c r="K9" s="137" t="str">
+      <c r="K9" s="133" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YC1MRH_5X1S</v>
       </c>
-      <c r="L9" s="136" t="str">
+      <c r="L9" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_5X1S#0000</v>
-      </c>
-      <c r="M9" s="105" t="str">
+        <v>GBP_YC1MRH_5X1S#0001</v>
+      </c>
+      <c r="M9" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="133"/>
+      <c r="N9" s="129"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="104"/>
-      <c r="B10" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="142">
+      <c r="A10" s="100"/>
+      <c r="B10" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="138">
         <v>6</v>
       </c>
-      <c r="E10" s="142" t="s">
+      <c r="E10" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="140" t="str">
+      <c r="F10" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I10" s="139">
-        <v>0</v>
-      </c>
-      <c r="J10" s="138" t="str">
+      <c r="I10" s="135">
+        <v>0</v>
+      </c>
+      <c r="J10" s="134" t="str">
         <f t="shared" si="1"/>
         <v>GBP6X1S_Quote</v>
       </c>
-      <c r="K10" s="137" t="str">
+      <c r="K10" s="133" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YC1MRH_6X1S</v>
       </c>
-      <c r="L10" s="136" t="str">
+      <c r="L10" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_6X1S#0000</v>
-      </c>
-      <c r="M10" s="105" t="str">
+        <v>GBP_YC1MRH_6X1S#0001</v>
+      </c>
+      <c r="M10" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="133"/>
+      <c r="N10" s="129"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="104"/>
-      <c r="B11" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="142" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="142">
+      <c r="A11" s="100"/>
+      <c r="B11" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="138">
         <v>7</v>
       </c>
-      <c r="E11" s="142" t="s">
+      <c r="E11" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="140" t="str">
+      <c r="F11" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I11" s="139">
-        <v>0</v>
-      </c>
-      <c r="J11" s="138" t="str">
+      <c r="I11" s="135">
+        <v>0</v>
+      </c>
+      <c r="J11" s="134" t="str">
         <f t="shared" si="1"/>
         <v>GBP7X1S_Quote</v>
       </c>
-      <c r="K11" s="137" t="str">
+      <c r="K11" s="133" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YC1MRH_7X1S</v>
       </c>
-      <c r="L11" s="136" t="str">
+      <c r="L11" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_7X1S#0000</v>
-      </c>
-      <c r="M11" s="105" t="str">
+        <v>GBP_YC1MRH_7X1S#0001</v>
+      </c>
+      <c r="M11" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="133"/>
+      <c r="N11" s="129"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="104"/>
-      <c r="B12" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="142" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="142">
+      <c r="A12" s="100"/>
+      <c r="B12" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="138">
         <v>8</v>
       </c>
-      <c r="E12" s="142" t="s">
+      <c r="E12" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="140" t="str">
+      <c r="F12" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I12" s="139">
-        <v>0</v>
-      </c>
-      <c r="J12" s="138" t="str">
+      <c r="I12" s="135">
+        <v>0</v>
+      </c>
+      <c r="J12" s="134" t="str">
         <f t="shared" si="1"/>
         <v>GBP8X1S_Quote</v>
       </c>
-      <c r="K12" s="137" t="str">
+      <c r="K12" s="133" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YC1MRH_8X1S</v>
       </c>
-      <c r="L12" s="136" t="str">
+      <c r="L12" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_8X1S#0000</v>
-      </c>
-      <c r="M12" s="105" t="str">
+        <v>GBP_YC1MRH_8X1S#0001</v>
+      </c>
+      <c r="M12" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="133"/>
+      <c r="N12" s="129"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="104"/>
-      <c r="B13" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="142" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="142">
+      <c r="A13" s="100"/>
+      <c r="B13" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="138" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="138">
         <v>9</v>
       </c>
-      <c r="E13" s="142" t="s">
+      <c r="E13" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H13" s="140" t="str">
+      <c r="F13" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I13" s="139">
-        <v>0</v>
-      </c>
-      <c r="J13" s="138" t="str">
+      <c r="I13" s="135">
+        <v>0</v>
+      </c>
+      <c r="J13" s="134" t="str">
         <f t="shared" si="1"/>
         <v>GBP9X1S_Quote</v>
       </c>
-      <c r="K13" s="137" t="str">
+      <c r="K13" s="133" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YC1MRH_9X1S</v>
       </c>
-      <c r="L13" s="136" t="str">
+      <c r="L13" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_9X1S#0000</v>
-      </c>
-      <c r="M13" s="105" t="str">
+        <v>GBP_YC1MRH_9X1S#0001</v>
+      </c>
+      <c r="M13" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="133"/>
+      <c r="N13" s="129"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="104"/>
-      <c r="B14" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="142" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="142">
+      <c r="A14" s="100"/>
+      <c r="B14" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="138" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="138">
         <v>10</v>
       </c>
-      <c r="E14" s="142" t="s">
+      <c r="E14" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="140" t="str">
+      <c r="F14" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I14" s="139">
-        <v>0</v>
-      </c>
-      <c r="J14" s="138" t="str">
+      <c r="I14" s="135">
+        <v>0</v>
+      </c>
+      <c r="J14" s="134" t="str">
         <f t="shared" si="1"/>
         <v>GBP10X1S_Quote</v>
       </c>
-      <c r="K14" s="137" t="str">
+      <c r="K14" s="133" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YC1MRH_10X1S</v>
       </c>
-      <c r="L14" s="136" t="str">
+      <c r="L14" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_10X1S#0000</v>
-      </c>
-      <c r="M14" s="105" t="str">
+        <v>GBP_YC1MRH_10X1S#0001</v>
+      </c>
+      <c r="M14" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="133"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="104"/>
-      <c r="B15" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="142" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="142">
+      <c r="A15" s="100"/>
+      <c r="B15" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="138">
         <v>11</v>
       </c>
-      <c r="E15" s="142" t="s">
+      <c r="E15" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" s="140" t="str">
+      <c r="F15" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I15" s="139">
-        <v>0</v>
-      </c>
-      <c r="J15" s="138" t="str">
+      <c r="I15" s="135">
+        <v>0</v>
+      </c>
+      <c r="J15" s="134" t="str">
         <f t="shared" si="1"/>
         <v>GBP11X1S_Quote</v>
       </c>
-      <c r="K15" s="137" t="str">
+      <c r="K15" s="133" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YC1MRH_11X1S</v>
       </c>
-      <c r="L15" s="136" t="str">
+      <c r="L15" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_11X1S#0000</v>
-      </c>
-      <c r="M15" s="105" t="str">
+        <v>GBP_YC1MRH_11X1S#0001</v>
+      </c>
+      <c r="M15" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="133"/>
+      <c r="N15" s="129"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="104"/>
-      <c r="B16" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="142" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="142">
+      <c r="A16" s="100"/>
+      <c r="B16" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="138">
         <v>12</v>
       </c>
-      <c r="E16" s="142" t="s">
+      <c r="E16" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="140" t="str">
+      <c r="F16" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="136" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I16" s="139">
-        <v>0</v>
-      </c>
-      <c r="J16" s="138" t="str">
+      <c r="I16" s="135">
+        <v>0</v>
+      </c>
+      <c r="J16" s="134" t="str">
         <f t="shared" si="1"/>
         <v>GBP12X1S_Quote</v>
       </c>
-      <c r="K16" s="137" t="str">
+      <c r="K16" s="133" t="str">
         <f t="shared" si="2"/>
         <v>GBP_YC1MRH_12X1S</v>
       </c>
-      <c r="L16" s="136" t="str">
+      <c r="L16" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_12X1S#0000</v>
-      </c>
-      <c r="M16" s="105" t="str">
+        <v>GBP_YC1MRH_12X1S#0001</v>
+      </c>
+      <c r="M16" s="101" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="133"/>
+      <c r="N16" s="129"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -13831,28 +13646,28 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="133"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="129"/>
     </row>
     <row r="18" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="131"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="127"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -13874,62 +13689,64 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="92" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.85546875" style="92" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" style="92" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" style="130" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="92" customWidth="1"/>
-    <col min="14" max="14" width="3.85546875" style="92" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="92" customWidth="1"/>
-    <col min="16" max="16" width="4" style="92" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" style="92" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="92"/>
+    <col min="1" max="1" width="1.7109375" style="90" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="126" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="90" customWidth="1"/>
+    <col min="14" max="14" width="3.85546875" style="90" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" style="90" customWidth="1"/>
+    <col min="16" max="16" width="4" style="90" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="148"/>
+      <c r="A1" s="158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="104"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
       <c r="I2" s="12" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="K2" s="12" t="str">
         <f>Currency&amp;"_YC"&amp;$J$2&amp;"RH"</f>
@@ -13937,1851 +13754,1851 @@
       </c>
       <c r="L2" s="12" t="str">
         <f>Discounting</f>
-        <v>GbpYC</v>
-      </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="133"/>
+        <v>GbpON</v>
+      </c>
+      <c r="M2" s="106"/>
+      <c r="N2" s="129"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="104"/>
-      <c r="B3" s="108" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="108" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="108" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" s="147" t="str">
+      <c r="A3" s="100"/>
+      <c r="B3" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="143" t="str">
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>GBP_YC1MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="146">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>35</v>
-      </c>
-      <c r="M3" s="151" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+      <c r="L3" s="142" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="M3" s="147" t="str">
+        <f>_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="133"/>
+      <c r="N3" s="129"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="145" t="str">
+      <c r="A4" s="107"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="141" t="str">
         <f>$K$2&amp;"_"&amp;$D6&amp;$E6&amp;"BASIS_"&amp;FamilyName&amp;$J$2</f>
         <v>GBP_YC1MRH_SB1LBASIS_Libor1M</v>
       </c>
-      <c r="L4" s="144" t="str">
+      <c r="L4" s="140" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>GBP_YC1MRH_SB1LBASIS_Libor1M#0000</v>
-      </c>
-      <c r="M4" s="143" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS_Libor1M#0001</v>
+      </c>
+      <c r="M4" s="139" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="133"/>
+      <c r="N4" s="129"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="133"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="129"/>
     </row>
     <row r="6" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="161" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="142" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="161" t="str">
+      <c r="D6" s="157" t="str">
         <f>VLOOKUP(Currency,Swap1MConventions,2)</f>
         <v>SB</v>
       </c>
-      <c r="E6" s="161" t="str">
+      <c r="E6" s="157" t="str">
         <f>VLOOKUP(Currency,Swap1MConventions,3)</f>
         <v>1L</v>
       </c>
-      <c r="F6" s="141" t="str">
+      <c r="F6" s="137" t="str">
         <f t="shared" ref="F6:F39" si="0">IF(UPPER(LEFT($D6))="A","Annual",IF(UPPER(LEFT($D6))="S","Semiannual","--"))</f>
         <v>Semiannual</v>
       </c>
-      <c r="G6" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="141" t="str">
+      <c r="G6" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="137" t="str">
         <f t="shared" ref="H6:H39" si="1">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I6" s="139" t="str">
+      <c r="I6" s="135" t="str">
         <f t="shared" ref="I6:I39" si="2">Currency&amp;$E6&amp;$I$2&amp;$C6&amp;QuoteSuffix</f>
         <v>GBP1L6L1Y_Quote</v>
       </c>
-      <c r="J6" s="138" t="str">
+      <c r="J6" s="134" t="str">
         <f t="shared" ref="J6:J39" si="3">Currency&amp;$D6&amp;$I$2&amp;$C6&amp;"_Quote"</f>
         <v>GBPSB6L1Y_Quote</v>
       </c>
-      <c r="K6" s="138" t="str">
+      <c r="K6" s="134" t="str">
         <f t="shared" ref="K6:K39" si="4">$K$2&amp;"_"&amp;$D6&amp;$E6&amp;"BASIS"&amp;$C6</f>
         <v>GBP_YC1MRH_SB1LBASIS1Y</v>
       </c>
-      <c r="L6" s="136" t="str">
+      <c r="L6" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS1Y#0000</v>
-      </c>
-      <c r="M6" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS1Y#0001</v>
+      </c>
+      <c r="M6" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="133"/>
+      <c r="N6" s="129"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="104"/>
-      <c r="B7" s="142" t="str">
+      <c r="A7" s="100"/>
+      <c r="B7" s="138" t="str">
         <f t="shared" ref="B7:B39" si="5">B6</f>
         <v>0d</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="142" t="str">
+      <c r="D7" s="138" t="str">
         <f t="shared" ref="D7:D39" si="6">D6</f>
         <v>SB</v>
       </c>
-      <c r="E7" s="142" t="str">
+      <c r="E7" s="138" t="str">
         <f t="shared" ref="E7:E39" si="7">E6</f>
         <v>1L</v>
       </c>
-      <c r="F7" s="141" t="str">
+      <c r="F7" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G7" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="141" t="str">
+      <c r="G7" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I7" s="139" t="str">
+      <c r="I7" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L2Y_Quote</v>
       </c>
-      <c r="J7" s="138" t="str">
+      <c r="J7" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L2Y_Quote</v>
       </c>
-      <c r="K7" s="138" t="str">
+      <c r="K7" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS2Y</v>
       </c>
-      <c r="L7" s="136" t="str">
+      <c r="L7" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS2Y#0000</v>
-      </c>
-      <c r="M7" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS2Y#0001</v>
+      </c>
+      <c r="M7" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="133"/>
-      <c r="P7" s="160" t="s">
+      <c r="N7" s="129"/>
+      <c r="P7" s="156" t="s">
         <v>114</v>
       </c>
-      <c r="Q7" s="159" t="s">
+      <c r="Q7" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="R7" s="158" t="s">
-        <v>186</v>
+      <c r="R7" s="154" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="104"/>
-      <c r="B8" s="142" t="str">
+      <c r="A8" s="100"/>
+      <c r="B8" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="142" t="str">
+      <c r="D8" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E8" s="142" t="str">
+      <c r="E8" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F8" s="141" t="str">
+      <c r="F8" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G8" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="141" t="str">
+      <c r="G8" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I8" s="139" t="str">
+      <c r="I8" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L3Y_Quote</v>
       </c>
-      <c r="J8" s="138" t="str">
+      <c r="J8" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L3Y_Quote</v>
       </c>
-      <c r="K8" s="138" t="str">
+      <c r="K8" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS3Y</v>
       </c>
-      <c r="L8" s="136" t="str">
+      <c r="L8" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS3Y#0000</v>
-      </c>
-      <c r="M8" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS3Y#0001</v>
+      </c>
+      <c r="M8" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="133"/>
-      <c r="P8" s="157" t="s">
+      <c r="N8" s="129"/>
+      <c r="P8" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="Q8" s="152" t="s">
+      <c r="Q8" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="R8" s="156" t="s">
-        <v>187</v>
+      <c r="R8" s="152" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="104"/>
-      <c r="B9" s="142" t="str">
+      <c r="A9" s="100"/>
+      <c r="B9" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="142" t="str">
+      <c r="D9" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E9" s="142" t="str">
+      <c r="E9" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F9" s="141" t="str">
+      <c r="F9" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G9" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="141" t="str">
+      <c r="G9" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I9" s="139" t="str">
+      <c r="I9" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L4Y_Quote</v>
       </c>
-      <c r="J9" s="138" t="str">
+      <c r="J9" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L4Y_Quote</v>
       </c>
-      <c r="K9" s="138" t="str">
+      <c r="K9" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS4Y</v>
       </c>
-      <c r="L9" s="136" t="str">
+      <c r="L9" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS4Y#0000</v>
-      </c>
-      <c r="M9" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS4Y#0001</v>
+      </c>
+      <c r="M9" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="133"/>
-      <c r="P9" s="157" t="s">
+      <c r="N9" s="129"/>
+      <c r="P9" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="Q9" s="152" t="s">
+      <c r="Q9" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="156" t="s">
-        <v>186</v>
+      <c r="R9" s="152" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="104"/>
-      <c r="B10" s="142" t="str">
+      <c r="A10" s="100"/>
+      <c r="B10" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="142" t="str">
+      <c r="D10" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E10" s="142" t="str">
+      <c r="E10" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F10" s="141" t="str">
+      <c r="F10" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G10" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="141" t="str">
+      <c r="G10" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I10" s="139" t="str">
+      <c r="I10" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L5Y_Quote</v>
       </c>
-      <c r="J10" s="138" t="str">
+      <c r="J10" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L5Y_Quote</v>
       </c>
-      <c r="K10" s="138" t="str">
+      <c r="K10" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS5Y</v>
       </c>
-      <c r="L10" s="136" t="str">
+      <c r="L10" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS5Y#0000</v>
-      </c>
-      <c r="M10" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS5Y#0001</v>
+      </c>
+      <c r="M10" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="133"/>
-      <c r="P10" s="157" t="s">
+      <c r="N10" s="129"/>
+      <c r="P10" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="Q10" s="152" t="s">
+      <c r="Q10" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="R10" s="156" t="s">
-        <v>186</v>
+      <c r="R10" s="152" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="142" t="str">
+      <c r="A11" s="100"/>
+      <c r="B11" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="142" t="str">
+      <c r="D11" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E11" s="142" t="str">
+      <c r="E11" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F11" s="141" t="str">
+      <c r="F11" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G11" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="141" t="str">
+      <c r="G11" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I11" s="139" t="str">
+      <c r="I11" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L6Y_Quote</v>
       </c>
-      <c r="J11" s="138" t="str">
+      <c r="J11" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L6Y_Quote</v>
       </c>
-      <c r="K11" s="138" t="str">
+      <c r="K11" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS6Y</v>
       </c>
-      <c r="L11" s="136" t="str">
+      <c r="L11" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS6Y#0000</v>
-      </c>
-      <c r="M11" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS6Y#0001</v>
+      </c>
+      <c r="M11" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="133"/>
-      <c r="P11" s="155" t="s">
+      <c r="N11" s="129"/>
+      <c r="P11" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="Q11" s="154" t="s">
+      <c r="Q11" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="R11" s="153" t="s">
-        <v>186</v>
+      <c r="R11" s="149" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="104"/>
-      <c r="B12" s="142" t="str">
+      <c r="A12" s="100"/>
+      <c r="B12" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="142" t="str">
+      <c r="D12" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E12" s="142" t="str">
+      <c r="E12" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F12" s="141" t="str">
+      <c r="F12" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G12" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="141" t="str">
+      <c r="G12" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I12" s="139" t="str">
+      <c r="I12" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L7Y_Quote</v>
       </c>
-      <c r="J12" s="138" t="str">
+      <c r="J12" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L7Y_Quote</v>
       </c>
-      <c r="K12" s="138" t="str">
+      <c r="K12" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS7Y</v>
       </c>
-      <c r="L12" s="136" t="str">
+      <c r="L12" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS7Y#0000</v>
-      </c>
-      <c r="M12" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS7Y#0001</v>
+      </c>
+      <c r="M12" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="133"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
+      <c r="N12" s="129"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="148"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="104"/>
-      <c r="B13" s="142" t="str">
+      <c r="A13" s="100"/>
+      <c r="B13" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="142" t="str">
+      <c r="D13" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E13" s="142" t="str">
+      <c r="E13" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F13" s="141" t="str">
+      <c r="F13" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G13" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H13" s="141" t="str">
+      <c r="G13" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I13" s="139" t="str">
+      <c r="I13" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L8Y_Quote</v>
       </c>
-      <c r="J13" s="138" t="str">
+      <c r="J13" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L8Y_Quote</v>
       </c>
-      <c r="K13" s="138" t="str">
+      <c r="K13" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS8Y</v>
       </c>
-      <c r="L13" s="136" t="str">
+      <c r="L13" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS8Y#0000</v>
-      </c>
-      <c r="M13" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS8Y#0001</v>
+      </c>
+      <c r="M13" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="133"/>
+      <c r="N13" s="129"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="104"/>
-      <c r="B14" s="142" t="str">
+      <c r="A14" s="100"/>
+      <c r="B14" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C14" s="142" t="s">
+      <c r="C14" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="142" t="str">
+      <c r="D14" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E14" s="142" t="str">
+      <c r="E14" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F14" s="141" t="str">
+      <c r="F14" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G14" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="141" t="str">
+      <c r="G14" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I14" s="139" t="str">
+      <c r="I14" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L9Y_Quote</v>
       </c>
-      <c r="J14" s="138" t="str">
+      <c r="J14" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L9Y_Quote</v>
       </c>
-      <c r="K14" s="138" t="str">
+      <c r="K14" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS9Y</v>
       </c>
-      <c r="L14" s="136" t="str">
+      <c r="L14" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS9Y#0000</v>
-      </c>
-      <c r="M14" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS9Y#0001</v>
+      </c>
+      <c r="M14" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="133"/>
+      <c r="N14" s="129"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="104"/>
-      <c r="B15" s="142" t="str">
+      <c r="A15" s="100"/>
+      <c r="B15" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C15" s="142" t="s">
+      <c r="C15" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="142" t="str">
+      <c r="D15" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E15" s="142" t="str">
+      <c r="E15" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F15" s="141" t="str">
+      <c r="F15" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G15" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" s="141" t="str">
+      <c r="G15" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I15" s="139" t="str">
+      <c r="I15" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L10Y_Quote</v>
       </c>
-      <c r="J15" s="138" t="str">
+      <c r="J15" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L10Y_Quote</v>
       </c>
-      <c r="K15" s="138" t="str">
+      <c r="K15" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS10Y</v>
       </c>
-      <c r="L15" s="136" t="str">
+      <c r="L15" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS10Y#0000</v>
-      </c>
-      <c r="M15" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS10Y#0001</v>
+      </c>
+      <c r="M15" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="133"/>
+      <c r="N15" s="129"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="104"/>
-      <c r="B16" s="142" t="str">
+      <c r="A16" s="100"/>
+      <c r="B16" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="142" t="str">
+      <c r="D16" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E16" s="142" t="str">
+      <c r="E16" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F16" s="141" t="str">
+      <c r="F16" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G16" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="141" t="str">
+      <c r="G16" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I16" s="139" t="str">
+      <c r="I16" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L11Y_Quote</v>
       </c>
-      <c r="J16" s="138" t="str">
+      <c r="J16" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L11Y_Quote</v>
       </c>
-      <c r="K16" s="138" t="str">
+      <c r="K16" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS11Y</v>
       </c>
-      <c r="L16" s="136" t="str">
+      <c r="L16" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS11Y#0000</v>
-      </c>
-      <c r="M16" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS11Y#0001</v>
+      </c>
+      <c r="M16" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="133"/>
+      <c r="N16" s="129"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
-      <c r="B17" s="142" t="str">
+      <c r="A17" s="100"/>
+      <c r="B17" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C17" s="142" t="s">
+      <c r="C17" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="142" t="str">
+      <c r="D17" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E17" s="142" t="str">
+      <c r="E17" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F17" s="141" t="str">
+      <c r="F17" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G17" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="141" t="str">
+      <c r="G17" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I17" s="139" t="str">
+      <c r="I17" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L12Y_Quote</v>
       </c>
-      <c r="J17" s="138" t="str">
+      <c r="J17" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L12Y_Quote</v>
       </c>
-      <c r="K17" s="138" t="str">
+      <c r="K17" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS12Y</v>
       </c>
-      <c r="L17" s="136" t="str">
+      <c r="L17" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS12Y#0000</v>
-      </c>
-      <c r="M17" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS12Y#0001</v>
+      </c>
+      <c r="M17" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="N17" s="133"/>
+      <c r="N17" s="129"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="104"/>
-      <c r="B18" s="142" t="str">
+      <c r="A18" s="100"/>
+      <c r="B18" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="142" t="str">
+      <c r="D18" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E18" s="142" t="str">
+      <c r="E18" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F18" s="141" t="str">
+      <c r="F18" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G18" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="141" t="str">
+      <c r="G18" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I18" s="139" t="str">
+      <c r="I18" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L13Y_Quote</v>
       </c>
-      <c r="J18" s="138" t="str">
+      <c r="J18" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L13Y_Quote</v>
       </c>
-      <c r="K18" s="138" t="str">
+      <c r="K18" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS13Y</v>
       </c>
-      <c r="L18" s="136" t="str">
+      <c r="L18" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS13Y#0000</v>
-      </c>
-      <c r="M18" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS13Y#0001</v>
+      </c>
+      <c r="M18" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="N18" s="133"/>
+      <c r="N18" s="129"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="104"/>
-      <c r="B19" s="142" t="str">
+      <c r="A19" s="100"/>
+      <c r="B19" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="142" t="str">
+      <c r="D19" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E19" s="142" t="str">
+      <c r="E19" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F19" s="141" t="str">
+      <c r="F19" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G19" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="141" t="str">
+      <c r="G19" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I19" s="139" t="str">
+      <c r="I19" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L14Y_Quote</v>
       </c>
-      <c r="J19" s="138" t="str">
+      <c r="J19" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L14Y_Quote</v>
       </c>
-      <c r="K19" s="138" t="str">
+      <c r="K19" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS14Y</v>
       </c>
-      <c r="L19" s="136" t="str">
+      <c r="L19" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS14Y#0000</v>
-      </c>
-      <c r="M19" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS14Y#0001</v>
+      </c>
+      <c r="M19" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="N19" s="133"/>
+      <c r="N19" s="129"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="104"/>
-      <c r="B20" s="142" t="str">
+      <c r="A20" s="100"/>
+      <c r="B20" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="142" t="str">
+      <c r="D20" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E20" s="142" t="str">
+      <c r="E20" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F20" s="141" t="str">
+      <c r="F20" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G20" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="141" t="str">
+      <c r="G20" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I20" s="139" t="str">
+      <c r="I20" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L15Y_Quote</v>
       </c>
-      <c r="J20" s="138" t="str">
+      <c r="J20" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L15Y_Quote</v>
       </c>
-      <c r="K20" s="138" t="str">
+      <c r="K20" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS15Y</v>
       </c>
-      <c r="L20" s="136" t="str">
+      <c r="L20" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS15Y#0000</v>
-      </c>
-      <c r="M20" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS15Y#0001</v>
+      </c>
+      <c r="M20" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="N20" s="133"/>
+      <c r="N20" s="129"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
-      <c r="B21" s="142" t="str">
+      <c r="A21" s="100"/>
+      <c r="B21" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C21" s="142" t="s">
+      <c r="C21" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="142" t="str">
+      <c r="D21" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E21" s="142" t="str">
+      <c r="E21" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F21" s="141" t="str">
+      <c r="F21" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G21" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="141" t="str">
+      <c r="G21" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I21" s="139" t="str">
+      <c r="I21" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L16Y_Quote</v>
       </c>
-      <c r="J21" s="138" t="str">
+      <c r="J21" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L16Y_Quote</v>
       </c>
-      <c r="K21" s="138" t="str">
+      <c r="K21" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS16Y</v>
       </c>
-      <c r="L21" s="136" t="str">
+      <c r="L21" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS16Y#0000</v>
-      </c>
-      <c r="M21" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS16Y#0001</v>
+      </c>
+      <c r="M21" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="N21" s="133"/>
+      <c r="N21" s="129"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="104"/>
-      <c r="B22" s="142" t="str">
+      <c r="A22" s="100"/>
+      <c r="B22" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="142" t="str">
+      <c r="D22" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E22" s="142" t="str">
+      <c r="E22" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F22" s="141" t="str">
+      <c r="F22" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G22" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H22" s="141" t="str">
+      <c r="G22" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I22" s="139" t="str">
+      <c r="I22" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L17Y_Quote</v>
       </c>
-      <c r="J22" s="138" t="str">
+      <c r="J22" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L17Y_Quote</v>
       </c>
-      <c r="K22" s="138" t="str">
+      <c r="K22" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS17Y</v>
       </c>
-      <c r="L22" s="136" t="str">
+      <c r="L22" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS17Y#0000</v>
-      </c>
-      <c r="M22" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS17Y#0001</v>
+      </c>
+      <c r="M22" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="N22" s="133"/>
+      <c r="N22" s="129"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
-      <c r="B23" s="142" t="str">
+      <c r="A23" s="100"/>
+      <c r="B23" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="142" t="str">
+      <c r="D23" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E23" s="142" t="str">
+      <c r="E23" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F23" s="141" t="str">
+      <c r="F23" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G23" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H23" s="141" t="str">
+      <c r="G23" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I23" s="139" t="str">
+      <c r="I23" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L18Y_Quote</v>
       </c>
-      <c r="J23" s="138" t="str">
+      <c r="J23" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L18Y_Quote</v>
       </c>
-      <c r="K23" s="138" t="str">
+      <c r="K23" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS18Y</v>
       </c>
-      <c r="L23" s="136" t="str">
+      <c r="L23" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS18Y#0000</v>
-      </c>
-      <c r="M23" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS18Y#0001</v>
+      </c>
+      <c r="M23" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="N23" s="133"/>
+      <c r="N23" s="129"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="104"/>
-      <c r="B24" s="142" t="str">
+      <c r="A24" s="100"/>
+      <c r="B24" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C24" s="142" t="s">
+      <c r="C24" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="142" t="str">
+      <c r="D24" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E24" s="142" t="str">
+      <c r="E24" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F24" s="141" t="str">
+      <c r="F24" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G24" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" s="141" t="str">
+      <c r="G24" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I24" s="139" t="str">
+      <c r="I24" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L19Y_Quote</v>
       </c>
-      <c r="J24" s="138" t="str">
+      <c r="J24" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L19Y_Quote</v>
       </c>
-      <c r="K24" s="138" t="str">
+      <c r="K24" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS19Y</v>
       </c>
-      <c r="L24" s="136" t="str">
+      <c r="L24" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS19Y#0000</v>
-      </c>
-      <c r="M24" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS19Y#0001</v>
+      </c>
+      <c r="M24" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="N24" s="133"/>
+      <c r="N24" s="129"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
-      <c r="B25" s="142" t="str">
+      <c r="A25" s="100"/>
+      <c r="B25" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="142" t="str">
+      <c r="D25" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E25" s="142" t="str">
+      <c r="E25" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F25" s="141" t="str">
+      <c r="F25" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G25" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="141" t="str">
+      <c r="G25" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I25" s="139" t="str">
+      <c r="I25" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L20Y_Quote</v>
       </c>
-      <c r="J25" s="138" t="str">
+      <c r="J25" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L20Y_Quote</v>
       </c>
-      <c r="K25" s="138" t="str">
+      <c r="K25" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS20Y</v>
       </c>
-      <c r="L25" s="136" t="str">
+      <c r="L25" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS20Y#0000</v>
-      </c>
-      <c r="M25" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS20Y#0001</v>
+      </c>
+      <c r="M25" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="N25" s="133"/>
+      <c r="N25" s="129"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="104"/>
-      <c r="B26" s="142" t="str">
+      <c r="A26" s="100"/>
+      <c r="B26" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="142" t="str">
+      <c r="D26" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E26" s="142" t="str">
+      <c r="E26" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F26" s="141" t="str">
+      <c r="F26" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G26" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="141" t="str">
+      <c r="G26" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I26" s="139" t="str">
+      <c r="I26" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L21Y_Quote</v>
       </c>
-      <c r="J26" s="138" t="str">
+      <c r="J26" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L21Y_Quote</v>
       </c>
-      <c r="K26" s="138" t="str">
+      <c r="K26" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS21Y</v>
       </c>
-      <c r="L26" s="136" t="str">
+      <c r="L26" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS21Y#0000</v>
-      </c>
-      <c r="M26" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS21Y#0001</v>
+      </c>
+      <c r="M26" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="N26" s="133"/>
+      <c r="N26" s="129"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
-      <c r="B27" s="142" t="str">
+      <c r="A27" s="100"/>
+      <c r="B27" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C27" s="142" t="s">
+      <c r="C27" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="142" t="str">
+      <c r="D27" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E27" s="142" t="str">
+      <c r="E27" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F27" s="141" t="str">
+      <c r="F27" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G27" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="141" t="str">
+      <c r="G27" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I27" s="139" t="str">
+      <c r="I27" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L22Y_Quote</v>
       </c>
-      <c r="J27" s="138" t="str">
+      <c r="J27" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L22Y_Quote</v>
       </c>
-      <c r="K27" s="138" t="str">
+      <c r="K27" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS22Y</v>
       </c>
-      <c r="L27" s="136" t="str">
+      <c r="L27" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS22Y#0000</v>
-      </c>
-      <c r="M27" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS22Y#0001</v>
+      </c>
+      <c r="M27" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="N27" s="133"/>
+      <c r="N27" s="129"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="104"/>
-      <c r="B28" s="142" t="str">
+      <c r="A28" s="100"/>
+      <c r="B28" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C28" s="142" t="s">
+      <c r="C28" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="142" t="str">
+      <c r="D28" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E28" s="142" t="str">
+      <c r="E28" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F28" s="141" t="str">
+      <c r="F28" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G28" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H28" s="141" t="str">
+      <c r="G28" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I28" s="139" t="str">
+      <c r="I28" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L23Y_Quote</v>
       </c>
-      <c r="J28" s="138" t="str">
+      <c r="J28" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L23Y_Quote</v>
       </c>
-      <c r="K28" s="138" t="str">
+      <c r="K28" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS23Y</v>
       </c>
-      <c r="L28" s="136" t="str">
+      <c r="L28" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS23Y#0000</v>
-      </c>
-      <c r="M28" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS23Y#0001</v>
+      </c>
+      <c r="M28" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="N28" s="133"/>
+      <c r="N28" s="129"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="104"/>
-      <c r="B29" s="142" t="str">
+      <c r="A29" s="100"/>
+      <c r="B29" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C29" s="142" t="s">
+      <c r="C29" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="142" t="str">
+      <c r="D29" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E29" s="142" t="str">
+      <c r="E29" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F29" s="141" t="str">
+      <c r="F29" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G29" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="141" t="str">
+      <c r="G29" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I29" s="139" t="str">
+      <c r="I29" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L24Y_Quote</v>
       </c>
-      <c r="J29" s="138" t="str">
+      <c r="J29" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L24Y_Quote</v>
       </c>
-      <c r="K29" s="138" t="str">
+      <c r="K29" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS24Y</v>
       </c>
-      <c r="L29" s="136" t="str">
+      <c r="L29" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS24Y#0000</v>
-      </c>
-      <c r="M29" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS24Y#0001</v>
+      </c>
+      <c r="M29" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
-      <c r="N29" s="133"/>
+      <c r="N29" s="129"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="104"/>
-      <c r="B30" s="142" t="str">
+      <c r="A30" s="100"/>
+      <c r="B30" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C30" s="142" t="s">
+      <c r="C30" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="142" t="str">
+      <c r="D30" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E30" s="142" t="str">
+      <c r="E30" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F30" s="141" t="str">
+      <c r="F30" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G30" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H30" s="141" t="str">
+      <c r="G30" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I30" s="139" t="str">
+      <c r="I30" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L25Y_Quote</v>
       </c>
-      <c r="J30" s="138" t="str">
+      <c r="J30" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L25Y_Quote</v>
       </c>
-      <c r="K30" s="138" t="str">
+      <c r="K30" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS25Y</v>
       </c>
-      <c r="L30" s="136" t="str">
+      <c r="L30" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS25Y#0000</v>
-      </c>
-      <c r="M30" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS25Y#0001</v>
+      </c>
+      <c r="M30" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
-      <c r="N30" s="133"/>
+      <c r="N30" s="129"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="104"/>
-      <c r="B31" s="142" t="str">
+      <c r="A31" s="100"/>
+      <c r="B31" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C31" s="142" t="s">
+      <c r="C31" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="142" t="str">
+      <c r="D31" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E31" s="142" t="str">
+      <c r="E31" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F31" s="141" t="str">
+      <c r="F31" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G31" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="141" t="str">
+      <c r="G31" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I31" s="139" t="str">
+      <c r="I31" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L26Y_Quote</v>
       </c>
-      <c r="J31" s="138" t="str">
+      <c r="J31" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L26Y_Quote</v>
       </c>
-      <c r="K31" s="138" t="str">
+      <c r="K31" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS26Y</v>
       </c>
-      <c r="L31" s="136" t="str">
+      <c r="L31" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS26Y#0000</v>
-      </c>
-      <c r="M31" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS26Y#0001</v>
+      </c>
+      <c r="M31" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
-      <c r="N31" s="133"/>
+      <c r="N31" s="129"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="104"/>
-      <c r="B32" s="142" t="str">
+      <c r="A32" s="100"/>
+      <c r="B32" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C32" s="142" t="s">
+      <c r="C32" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="142" t="str">
+      <c r="D32" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E32" s="142" t="str">
+      <c r="E32" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F32" s="141" t="str">
+      <c r="F32" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G32" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="141" t="str">
+      <c r="G32" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I32" s="139" t="str">
+      <c r="I32" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L27Y_Quote</v>
       </c>
-      <c r="J32" s="138" t="str">
+      <c r="J32" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L27Y_Quote</v>
       </c>
-      <c r="K32" s="138" t="str">
+      <c r="K32" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS27Y</v>
       </c>
-      <c r="L32" s="136" t="str">
+      <c r="L32" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS27Y#0000</v>
-      </c>
-      <c r="M32" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS27Y#0001</v>
+      </c>
+      <c r="M32" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
-      <c r="N32" s="133"/>
+      <c r="N32" s="129"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="104"/>
-      <c r="B33" s="142" t="str">
+      <c r="A33" s="100"/>
+      <c r="B33" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C33" s="142" t="s">
+      <c r="C33" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="142" t="str">
+      <c r="D33" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E33" s="142" t="str">
+      <c r="E33" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F33" s="141" t="str">
+      <c r="F33" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G33" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" s="141" t="str">
+      <c r="G33" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I33" s="139" t="str">
+      <c r="I33" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L28Y_Quote</v>
       </c>
-      <c r="J33" s="138" t="str">
+      <c r="J33" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L28Y_Quote</v>
       </c>
-      <c r="K33" s="138" t="str">
+      <c r="K33" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS28Y</v>
       </c>
-      <c r="L33" s="136" t="str">
+      <c r="L33" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS28Y#0000</v>
-      </c>
-      <c r="M33" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS28Y#0001</v>
+      </c>
+      <c r="M33" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
         <v/>
       </c>
-      <c r="N33" s="133"/>
+      <c r="N33" s="129"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="104"/>
-      <c r="B34" s="142" t="str">
+      <c r="A34" s="100"/>
+      <c r="B34" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C34" s="142" t="s">
+      <c r="C34" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="142" t="str">
+      <c r="D34" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E34" s="142" t="str">
+      <c r="E34" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F34" s="141" t="str">
+      <c r="F34" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G34" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="141" t="str">
+      <c r="G34" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I34" s="139" t="str">
+      <c r="I34" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L29Y_Quote</v>
       </c>
-      <c r="J34" s="138" t="str">
+      <c r="J34" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L29Y_Quote</v>
       </c>
-      <c r="K34" s="138" t="str">
+      <c r="K34" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS29Y</v>
       </c>
-      <c r="L34" s="136" t="str">
+      <c r="L34" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS29Y#0000</v>
-      </c>
-      <c r="M34" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS29Y#0001</v>
+      </c>
+      <c r="M34" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
         <v/>
       </c>
-      <c r="N34" s="133"/>
+      <c r="N34" s="129"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
-      <c r="B35" s="142" t="str">
+      <c r="A35" s="100"/>
+      <c r="B35" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C35" s="142" t="s">
+      <c r="C35" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="142" t="str">
+      <c r="D35" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E35" s="142" t="str">
+      <c r="E35" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F35" s="141" t="str">
+      <c r="F35" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G35" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H35" s="141" t="str">
+      <c r="G35" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I35" s="139" t="str">
+      <c r="I35" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L30Y_Quote</v>
       </c>
-      <c r="J35" s="138" t="str">
+      <c r="J35" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L30Y_Quote</v>
       </c>
-      <c r="K35" s="138" t="str">
+      <c r="K35" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS30Y</v>
       </c>
-      <c r="L35" s="136" t="str">
+      <c r="L35" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS30Y#0000</v>
-      </c>
-      <c r="M35" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS30Y#0001</v>
+      </c>
+      <c r="M35" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
         <v/>
       </c>
-      <c r="N35" s="133"/>
+      <c r="N35" s="129"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="104"/>
-      <c r="B36" s="142" t="str">
+      <c r="A36" s="100"/>
+      <c r="B36" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="142" t="str">
+      <c r="D36" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E36" s="142" t="str">
+      <c r="E36" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F36" s="141" t="str">
+      <c r="F36" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G36" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="141" t="str">
+      <c r="G36" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I36" s="139" t="str">
+      <c r="I36" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L35Y_Quote</v>
       </c>
-      <c r="J36" s="138" t="str">
+      <c r="J36" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L35Y_Quote</v>
       </c>
-      <c r="K36" s="138" t="str">
+      <c r="K36" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS35Y</v>
       </c>
-      <c r="L36" s="136" t="str">
+      <c r="L36" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS35Y#0000</v>
-      </c>
-      <c r="M36" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS35Y#0001</v>
+      </c>
+      <c r="M36" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
         <v/>
       </c>
-      <c r="N36" s="133"/>
+      <c r="N36" s="129"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="104"/>
-      <c r="B37" s="142" t="str">
+      <c r="A37" s="100"/>
+      <c r="B37" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C37" s="142" t="s">
+      <c r="C37" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="142" t="str">
+      <c r="D37" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E37" s="142" t="str">
+      <c r="E37" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F37" s="141" t="str">
+      <c r="F37" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G37" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="141" t="str">
+      <c r="G37" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I37" s="139" t="str">
+      <c r="I37" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L40Y_Quote</v>
       </c>
-      <c r="J37" s="138" t="str">
+      <c r="J37" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L40Y_Quote</v>
       </c>
-      <c r="K37" s="138" t="str">
+      <c r="K37" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS40Y</v>
       </c>
-      <c r="L37" s="136" t="str">
+      <c r="L37" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS40Y#0000</v>
-      </c>
-      <c r="M37" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS40Y#0001</v>
+      </c>
+      <c r="M37" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
         <v/>
       </c>
-      <c r="N37" s="133"/>
+      <c r="N37" s="129"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="104"/>
-      <c r="B38" s="142" t="str">
+      <c r="A38" s="100"/>
+      <c r="B38" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C38" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="142" t="str">
+      <c r="C38" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E38" s="142" t="str">
+      <c r="E38" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F38" s="141" t="str">
+      <c r="F38" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G38" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H38" s="141" t="str">
+      <c r="G38" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I38" s="139" t="str">
+      <c r="I38" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L50Y_Quote</v>
       </c>
-      <c r="J38" s="138" t="str">
+      <c r="J38" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L50Y_Quote</v>
       </c>
-      <c r="K38" s="138" t="str">
+      <c r="K38" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS50Y</v>
       </c>
-      <c r="L38" s="136" t="str">
+      <c r="L38" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS50Y#0000</v>
-      </c>
-      <c r="M38" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS50Y#0001</v>
+      </c>
+      <c r="M38" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
         <v/>
       </c>
-      <c r="N38" s="133"/>
+      <c r="N38" s="129"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="104"/>
-      <c r="B39" s="142" t="str">
+      <c r="A39" s="100"/>
+      <c r="B39" s="138" t="str">
         <f t="shared" si="5"/>
         <v>0d</v>
       </c>
-      <c r="C39" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="142" t="str">
+      <c r="C39" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="138" t="str">
         <f t="shared" si="6"/>
         <v>SB</v>
       </c>
-      <c r="E39" s="142" t="str">
+      <c r="E39" s="138" t="str">
         <f t="shared" si="7"/>
         <v>1L</v>
       </c>
-      <c r="F39" s="141" t="str">
+      <c r="F39" s="137" t="str">
         <f t="shared" si="0"/>
         <v>Semiannual</v>
       </c>
-      <c r="G39" s="141" t="s">
-        <v>161</v>
-      </c>
-      <c r="H39" s="141" t="str">
+      <c r="G39" s="137" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="137" t="str">
         <f t="shared" si="1"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I39" s="139" t="str">
+      <c r="I39" s="135" t="str">
         <f t="shared" si="2"/>
         <v>GBP1L6L60Y_Quote</v>
       </c>
-      <c r="J39" s="138" t="str">
+      <c r="J39" s="134" t="str">
         <f t="shared" si="3"/>
         <v>GBPSB6L60Y_Quote</v>
       </c>
-      <c r="K39" s="138" t="str">
+      <c r="K39" s="134" t="str">
         <f t="shared" si="4"/>
         <v>GBP_YC1MRH_SB1LBASIS60Y</v>
       </c>
-      <c r="L39" s="136" t="str">
+      <c r="L39" s="132" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,$L$2,Permanent,,ObjectOverwrite)</f>
-        <v>GBP_YC1MRH_SB1LBASIS60Y#0000</v>
-      </c>
-      <c r="M39" s="151" t="str">
+        <v>GBP_YC1MRH_SB1LBASIS60Y#0001</v>
+      </c>
+      <c r="M39" s="147" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
         <v/>
       </c>
-      <c r="N39" s="133"/>
+      <c r="N39" s="129"/>
     </row>
     <row r="40" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="131"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="127"/>
     </row>
   </sheetData>
   <dataValidations count="1">
